--- a/samples/Sample-Medical-Centers-sa.xlsx
+++ b/samples/Sample-Medical-Centers-sa.xlsx
@@ -494,12 +494,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%88%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156c0c2893002e6d:0xb5561dd6d9729e15!8m2!3d30.9966269!4d41.0359845!16s%2Fg%2F11fy56c699!19sChIJbS4AkygMbBURFZ5y2dYdVrU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1582270d2046f705:0x88eb9ff931418e9a!8m2!3d25.9663744!4d43.7528405!16s%2Fg%2F11flgdt_hk!19sChIJBfdGIA0nghURmo5BMfmf64g?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>صيدلية وعيادة سليمان البيطرية</t>
+          <t>صيدلية السليمانية البيطرية</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,22 +509,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7355، عرعر 73315، المملكة العربية السعودية</t>
+          <t>XQ83+G4W، الياسمين، البدائع 56364، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+966500709772</t>
+          <t>+966163211577</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -532,12 +532,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+veterinary%E2%80%AD/data=!4m7!3m6!1s0x15c1653a50b50fbd:0x4af249d906e9f6f7!8m2!3d21.8050327!4d39.1496697!16s%2Fg%2F11n5rx64ph!19sChIJvQ-1UDplwRUR9_bpBtlJ8ko?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bed76b4c6ee05d:0x5c4ca90b9ac3fb0d!8m2!3d23.7836371!4d38.7825409!16s%2Fg%2F11vbdy6qny!19sChIJXeBuTGvXvhURDfvDmgupTFw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>البيطرية veterinary</t>
+          <t>صيدلية الفرسان البيطرية</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taibah District, 8459 Jeddah SA, جدة 23831، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، العدوة، بدر 46357، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+966503591639</t>
+          <t>+966553229548</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -570,12 +570,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B1%D8%A7%D8%AD+%D8%A7%D9%84%D9%86%D9%88%D8%A7%D8%AF%D8%B1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e4831489f08c6b:0xd280133391aedf5!8m2!3d18.4813723!4d42.065145!16s%2Fg%2F11k4rxfkkm!19sChIJa4zwiRSD5BUR9e0aOTMBKA0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D8%A9+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87+%D8%A8%D8%A7%D9%84%D8%BA%D9%88%D9%8A%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fed91a3779db1f:0xd373bad0e0712d3b!8m2!3d17.5730972!4d44.3538591!16s%2Fg%2F11f29y61_3!19sChIJH9t5NxrZ_hUROy1x4NC6c9M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>صيدلية مراح النوادر البيطريه</t>
+          <t>صيدلة الشفاء البيطريه بالغويلا</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,39 +585,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>الحيلة، الشرقي 63412، المملكة العربية السعودية</t>
+          <t>H9F3+6GQ، الملك فهد، مخططات الغويلا الزراعية 66234، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+966581707245</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://marahalnawadir.com/</t>
-        </is>
-      </c>
+          <t>+966553536465</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A8%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x157647ce022ac065:0xb0ac7d313c590c0e!8m2!3d27.4915067!4d41.7062097!16s%2Fg%2F11g1ly0ppc!19sChIJZcAqAs5HdhURDgxZPDF9rLA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D8%A7%D9%8A%D8%B1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fd08f6663875fd:0xfc40f60897e799f0!8m2!3d17.3374553!4d43.1340609!16s%2Fg%2F11c3280byw!19sChIJ_XU4ZvYI_RUR8Jnnlwj2QPw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>صيدلية حلال الصفوه البيطريه</t>
+          <t>صيدلية الداير البيطرية</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,22 +623,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8902 طريق الملك عبدالعزيز حائل 55422 3487 طريق الملك عبدالعزيز، 3487، الخماشية، حائل 55422، المملكة العربية السعودية</t>
+          <t>84PM+XJM، الدائر 83863، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+966566188135</t>
+          <t>+966508272268</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -650,12 +646,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%82%D9%8A%D8%B4%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5e98acc2fec7:0x1126080fbcf80c32!8m2!3d26.3702603!4d44.039359!16s%2Fg%2F11cs24wn1_!19sChIJx_7CrJhefxURMgz4vA8IJhE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%82%D9%88%D9%8A%D8%B2%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cdbd3ca0593f:0x73ce399c40f814ba!8m2!3d21.5012106!4d39.2632889!16s%2Fg%2F11c1rshbqh!19sChIJP1mgPL3NwxURuhT4QJw5znM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>صيدلية القيشان البيطرية</t>
+          <t>صيدلية قويزة البيطرية</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -665,22 +661,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>508</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>92CQ+4P5, 44، حي الرابية، بريدة 52369، المملكة العربية السعودية</t>
+          <t>G727+F8M، ابرق الرغامة، جدة 22262، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+966163247830</t>
+          <t>+966508626993</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -688,12 +684,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%85%D8%B3%D8%A7%D9%86%D8%AF+%D9%84%D9%85%D8%B2%D8%A7%D8%B1%D8%B9+%D8%A7%D9%84%D8%A7%D9%84%D8%A8%D8%A7%D9%86+%D8%A8%D8%A7%D9%84%D8%AE%D8%B1%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e2545f0d7eff285:0xbd55c814add830d6!8m2!3d24.165379!4d47.233269!16s%2Fg%2F11fnr40y9_!19sChIJhfLv1_BFJT4R1jDYrRTIVb0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A7%D9%84%D9%85%D8%B1%D8%AA%D8%AC%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15a5aba66319f0e5:0xd6c5b98f51d0f89e!8m2!3d26.6040109!4d37.9312737!16s%2Fg%2F11c56c2fml!19sChIJ5fAZY6arpRURnvjQUY-5xdY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>المركز المساند لمزارع الالبان بالخرج</t>
+          <t>صيدلية المرتجز البيطريه</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,22 +699,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3834, Al Hayathem 16257 6163 المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، الصخيرات، العلا 43512، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>+966503174223</t>
+          <t>+966542700103</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -726,12 +722,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC+%D8%A7%D9%84%D8%B1%D8%A7%D8%A8%D8%B9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fb5b5373e83205:0xc0e263271f87134a!8m2!3d18.3112498!4d42.7298741!16s%2Fg%2F11tf2lkyt2!19sChIJBTLoc1Nb-xURShOHHydj4sA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%B9%D9%8A+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2e55bf3e9d2ac5:0x9ee213a7a10767b!8m2!3d24.8622358!4d46.8483987!16s%2Fg%2F11g698cxs5!19sChIJxSqdPr9VLj4Re3YQejoh7gk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>صيدلية الخليج الرابع البيطرية</t>
+          <t>صيدلية المراعي الخضراء البيطرية</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -741,22 +737,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AKPC9237، 9237 خديجة بنت خويلد، 3975، حي العرق الشمالي،, خميس مشيط 62461، المملكة العربية السعودية</t>
+          <t>طريق الثمامة، الرمال، الرياض 13265، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+966556205700</t>
+          <t>+966559418732</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -764,12 +760,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%A7%D8%AF%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e6856995f28db5:0xe414d72d912ac742!8m2!3d19.164976!4d41.1854279!16s%2Fg%2F11rylwqjgb!19sChIJtY3ylWmF5hURQscqkS3XFOQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%88+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B2%D9%8A%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f21e5184ed02d:0x1ed7c85fba9c080!8m2!3d24.8245956!4d46.8862611!16s%2Fg%2F11d_6zpb2v!19sChIJLdBOGOUhLz4RgMCp-4V87QE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>صيدلية البادية الخضراء البيطرية</t>
+          <t>عيادة و صيدلية الزياد البيطرية</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,35 +775,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>303</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>القنفذة طريق احد بني زيد، القنفذة المملكة العربية السعودية</t>
+          <t>8599-8639 طريق خريص، حي الندوة، الرياض 14814، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+966553381156</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>+966531370843</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://savc.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%AF%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+-+%D9%81%D8%B1%D8%B9+%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e37ed7257f58be5:0x1b356558b33e7cd2!8m2!3d25.3423753!4d49.7236472!16s%2Fg%2F11cn9683jq!19sChIJ5Yv1V3LtNz4R0nw-s1hlNRs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%8A%D8%A7%D8%B3%D9%85%D9%8A%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35f1feed528fa5:0x3be4b38bb039ac9c!8m2!3d26.648876!4d49.9260828!16s%2Fg%2F11vdhql3cb!19sChIJpY9S7f7xNT4RnKw5sIuz5Ds?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>صيدلية العاديات العربية البيطرية - فرع ٢</t>
+          <t>صيدلية صفوة الياسمين البيطرية</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -817,22 +817,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8pRF+XF3 Rd، الطرف 36287، المملكة العربية السعودية</t>
+          <t>أم الساهك، 6350 المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+966569677851</t>
+          <t>+966597123056</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -840,12 +840,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%87%D9%86%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1572bbb2c74af47b:0x34c2ade8a366dba2!8m2!3d29.9718065!4d40.2003027!16s%2Fg%2F11g_w_4nc3!19sChIJe_RKx7K7chURottmo-itwjQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D9%82%D8%B1+%D8%A7%D9%84%D9%85%D8%A7%D8%B3%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15823969962f7015:0x6c5c41a094d838cd!8m2!3d26.0492082!4d43.5588121!16s%2Fg%2F11xg01k4tn!19sChIJFXAvlmk5ghURzTjYlKBBXGw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>صيدلية الهندي</t>
+          <t>صيدلية الصقر الماسي البيطرية</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -855,22 +855,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>X6C2+P4F، طريق الملك فيصل، سكاكا 72341، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالله، التعاون، رياض الخبراء 52714، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>+966509794516</t>
+          <t>+966503289794</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -878,12 +878,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%82%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e25456ee7d0e07f:0x322c9feb4dd5dbc6!8m2!3d24.1826552!4d47.2828378!16s%2Fg%2F11yhwv2gj0!19sChIJf-DQ525FJT4RxtvVTeufLDI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c1ff28d25a8a8d:0x4225746fbd9332a3!8m2!3d21.3465262!4d39.7675588!16s%2Fg%2F11df1qcfmc!19sChIJjYpa0ij_wRURozKTvW90JUI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>صيدلية مقاني البيطرية</t>
+          <t>صيدلية العالي البيطرية</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,33 +891,37 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز الفرعي، الصفاء، الخرج 16259، المملكة العربية السعودية</t>
+          <t>4862 طريق الليث، ولي العهد، 24356 6443، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>+966920015882</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://mqane.com/</t>
-        </is>
-      </c>
+          <t>+966564977037</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%82%D8%B5%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3fccbb0003d5f81d:0x6745d5288ac61d75!8m2!3d27.4685638!4d48.4878592!16s%2Fg%2F11m5jc7rxn!19sChIJHfjVAwC7zD8RdR3GiijVRWc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AE%D8%A8%D8%B1%D8%A9+%D8%A7%D9%84%D8%AD%D9%84%D8%A7%D9%84+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e2f09907072e747:0x7f6a15485bcb3916!8m2!3d24.5837546!4d46.7522469!16s%2Fg%2F11tchzl9d1!19sChIJR-dycJAJLz4RFjnLW0gVan8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>مركز القصواء البيطري</t>
+          <t>صيدلية خبرة الحلال البيطرية٢</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -932,17 +936,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FF9Q+C4H, الستين, العزيزية، النعيرية 37451، المملكة العربية السعودية</t>
+          <t>طريق النصر، العزيزية، الرياض 14512، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+966559007198</t>
+          <t>+966549936875</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -950,12 +954,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Super+care+Veterinary+clinic+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%A7%D9%87%D8%AA%D9%85%D8%A7%D9%85+%D8%A7%D9%84%D9%81%D8%A7%D8%A6%D9%82+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab005ab34cb1:0xcd329c87b3525db3!8m2!3d24.796663!4d46.8777262!16s%2Fg%2F11vyfhhq60!19sChIJsUyzWgCrLz4Rs11Ss4ecMs0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B9%D9%84%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e3797776a4a4e69:0xe8a05c8678ee8c83!8m2!3d25.3941999!4d49.6071065!16s%2Fg%2F11y297rvs2!19sChIJaU5KaneXNz4Rg4zueIZcoOg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Super care Veterinary clinic عيادة الاهتمام الفائق البيطرية</t>
+          <t>صيدلية علاء البيطرية</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -965,39 +969,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>طريق الراية, حي الندوة، AR Rayah, الرياض 13802، المملكة العربية السعودية</t>
+          <t>طريق الملك فهد، الأندلس، الهفوف‎ 36341، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+966554523766</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>http://supercare-clinic.com/</t>
-        </is>
-      </c>
+          <t>+966535593337</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%88+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B1%D9%81%D9%82+%D8%A8%D8%A7%D9%84%D8%AD%D9%8A%D9%88%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607e38a17da92a7:0xcb1211ff360c492e!8m2!3d16.8614945!4d42.5804135!16s%2Fg%2F11trk7zhvl!19sChIJp5LaF4rjBxYRLkkMNv8REss?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D8%A8%D9%84+%D8%A7%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607f59d25bc1e47:0xa1efcace7fdf32f5!8m2!3d16.9835602!4d42.822678!16s%2Fg%2F11fxvqhy30!19sChIJRx68JZ31BxYR9TLff87K76E?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>عيادة و صيدلية الرفق بالحيوان البيطرية</t>
+          <t>صيدلية سبل العناية البيطرية</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1007,22 +1007,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>حي، السويس، جازان 82613، المملكة العربية السعودية</t>
+          <t>شارع الملك عبدالعزيز، النهضة، أبو عريش 84717، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+966507627705</t>
+          <t>+966599764135</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1030,12 +1030,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D9%88%D8%A7%D9%85%D8%B9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A91%E2%80%AD/data=!4m7!3m6!1s0xfb0432a9dd8268f:0xa6a7e2ab96a8ae4f!8m2!3d26.347681!4d43.9234256!16s%2Fg%2F11rlbldw8q!19sChIJjybYnSpDsA8RT66olqvip6Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A7%D9%84%D8%A3%D9%86%D8%B9%D8%A7%D9%85+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e1e5f069d34f425:0x60ca703d02dfec20!8m2!3d20.4568813!4d45.5805799!16s%2Fg%2F11svh7zm8l!19sChIJJfQ0nQZfHj4RIOzfAj1wymA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>صيدلية الصوامع البيطرية1</t>
+          <t>صيدلية طبيب الأنعام البيطرية</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1043,12 +1043,24 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A, طريق الملك خالد، الديرة، السليل 11913، المملكة العربية السعودية</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+966554970518</t>
+          <t>+966558124683</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1056,12 +1068,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D8%A7%D8%B1%D9%87+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e27cfcfb9b21e71:0x1f7459b86ca82877!8m2!3d23.5476862!4d45.5022239!16s%2Fg%2F11t6rs18pq!19sChIJcR6yuc_PJz4RdyiobLhZdB8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B9%D9%84%D9%8A+%D9%85%D8%AD%D9%85%D8%AF+%D8%BA%D8%B1%D9%88%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e2cb15fac7d6d5:0xde171f3ffe7e445b!8m2!3d17.3828968!4d42.5449958!16s%2Fg%2F11vzw33_6k!19sChIJ1dbH-hXL4hURW0R-_j8fF94?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>صيدلية ساره عبدالعزيز البيطرية</t>
+          <t>صيدلية علي محمد غروي البيطرية</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1071,7 +1083,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1081,12 +1093,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ORWA2791، 2791 طريق الملك عبدالعزيز شرق، 9556،، الرين 19599،، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، الدولي، بيش 87721، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>+966501519238</t>
+          <t>+966533658611</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1094,12 +1106,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%B9%D9%89+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9+%D8%B1%D9%82%D9%85+(%D9%A7)%E2%80%AD/data=!4m7!3m6!1s0x3e2f19d51255ce8f:0xa39ac3752f3d247c!8m2!3d24.580967!4d46.5388964!16s%2Fg%2F11fmnzzkpd!19sChIJj85VEtUZLz4RfCQ9L3XDmqM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D9%86%D8%A7%D8%AF%D8%B1%D9%8A%D9%87+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15f28bab821b939d:0x9889d89f6994f441!8m2!3d21.2498075!4d42.8508847!16s%2Fg%2F11g0m34j2c!19sChIJnZMbgquL8hURQfSUaZ_YiZg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>صيدلية وعيادة المراعى الخضراء البيطرية رقم (٧)</t>
+          <t>صيدلية الجنادريه البيطريه</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1109,22 +1121,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2926 6873 بلال بن رباح، طويق، الرياض 14923، المملكة العربية السعودية</t>
+          <t>الأمير متعب بن عبدالعزيز، رنية 29812، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+966580153031</t>
+          <t>+966507652988</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1132,12 +1144,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%87%D8%AC%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98fb36d5551d3:0x52a70c14a7047db9!8m2!3d21.2698367!4d40.407307!16s%2Fg%2F11s_mqm9gs!19sChIJ01FVbbOP6RURuX0EpxQMp1I?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D9%82%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e25456ee7d0e07f:0x322c9feb4dd5dbc6!8m2!3d24.1826552!4d47.2828378!16s%2Fg%2F11yhwv2gj0!19sChIJf-DQ525FJT4RxtvVTeufLDI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>صيدلية البهجة البيطرية</t>
+          <t>صيدلية مقاني البيطرية</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1145,37 +1157,33 @@
           <t>الصيدلة البيطرية</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>السلامة، الطائف 26522، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز الفرعي، الصفاء، الخرج 16259، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+966533556911</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>+966920015882</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://mqane.com/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D8%B1%D8%A7%D9%85+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f2d00333add59:0x37dcd0df0141e8a9!8m2!3d24.4725809!4d46.2516083!16s%2Fg%2F11wmxt80yl!19sChIJWd06MwAtLz4RqehBAd_Q3Dc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Green+Almaraai+Veterinary+pharmacy+%7C+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%B9%D9%8A+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f2da0fe4588c5:0xb3ba642cee06e349!8m2!3d24.4717483!4d46.2662898!16s%2Fg%2F11mcw88n_8!19sChIJxYhF_qAtLz4RSeMG7ixkurM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>صيدلية ارام البيطرية</t>
+          <t>Green Almaraai Veterinary pharmacy | صيدلية المراعي الخضراء البيطرية</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1190,17 +1198,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OMDB2093 8652 اسامة بن مالك الدارمي، 2093، المزاحمية 19651، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز, Street، المزاحمية 19652، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+966539808015</t>
+          <t>+966583313451</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1208,12 +1216,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1582270d2046f705:0x88eb9ff931418e9a!8m2!3d25.9663744!4d43.7528405!16s%2Fg%2F11flgdt_hk!19sChIJBfdGIA0nghURmo5BMfmf64g?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%88%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AE%D8%B4%D9%85+%D8%A7%D9%84%D8%B9%D8%A7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ff29471f2b533f:0x1bea832771b9ad80!8m2!3d17.6344479!4d44.465846!16s%2Fg%2F11gmdm8zl3!19sChIJP1MrH0cp_xURgK25cSeD6hs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>صيدلية السليمانية البيطرية</t>
+          <t>عيادة وصيدلية خشم العان البيطرية</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1223,22 +1231,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>XQ83+G4W، الياسمين، البدائع 56364، المملكة العربية السعودية</t>
+          <t>JFM8+Q8H، مخططات الغويلا الزراعية 66441، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+966163211577</t>
+          <t>+966500001313</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1246,12 +1254,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb55e4fb9c3fa1:0x530cfe17af5e19f2!8m2!3d18.2654173!4d42.6222699!16s%2Fg%2F11dym9601w!19sChIJoT-c--RV-xUR8hlerxf-DFM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A3%D9%85+%D8%A7%D9%84%D8%AD%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e35ffe132b32735:0xf4113540f879c76a!8m2!3d26.5235404!4d50.0014801!16s%2Fg%2F1pp2tyg8t!19sChIJNSezMuH_NT4Rasd5-EA1EfQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>مركز صحي مدينة سلطان</t>
+          <t>مركز صحي أم الحمام</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1261,22 +1269,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Unnamed Road, 62562, أبها المملكة العربية السعودية</t>
+          <t>أم الحمام، Unnamed Road, 32651، القطيف‎ 32651، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+966172270632</t>
+          <t>+966138363518</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1288,12 +1296,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e2a36ee6577f:0x1e0f514fc36f38ba!8m2!3d26.32283!4d43.95859!16s%2Fg%2F11h1gz08h!19sChIJf1fmbqPigRURujhvw09RDx4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c201f7d0792be7:0xfbd111804645b9ee!8m2!3d21.4577775!4d39.93424!16s%2Fg%2F11s3vr3jsv!19sChIJ5yt50PcBwhUR7rlFRoAR0fs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية</t>
+          <t>مركز الحياة للخدمات الطبية المنزلية</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1303,39 +1311,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>388</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Unnamed Road, الهلال، بريدة 52355، المملكة العربية السعودية</t>
+          <t>شارع العسكر، الشرايع،، مكة 24267، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+966163231131</t>
+          <t>+966561655480</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>http://www.moh.gov.sa/</t>
+          <t>http://www.alhayaksa.com/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%81%D9%8A%D8%AD%D8%A7%D8%A1+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2ac6265ec31ce9:0xa9eb6b090fb68073!8m2!3d25.9189375!4d45.3580625!16s%2Fg%2F123594knz!19sChIJ6RzDXibGKj4Rc4C2Dwlr66k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D8%AF%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15bed71422dbe791:0xbf8c2af0116220b8!8m2!3d23.7812!4d38.79499!16s%2Fg%2F11bzsdkrc_!19sChIJkefbIhTXvhURuCBiEfAqjL8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>مركز الفيحاء للرعاية الصحية الأولية</t>
+          <t>مركز صحي بدر</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1345,22 +1353,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>اليرموك، المجمعة 15362، المملكة العربية السعودية</t>
+          <t>ذو الشامتين، الغزوة، بدر 46357، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+966164322260</t>
+          <t>+966143320452</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1372,12 +1380,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B1%D8%A8%D9%88%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f59ade0b62cc7:0xa26a823c9f6648c9!8m2!3d26.36691!4d43.9734!16s%2Fg%2F11dymbjcsb!19sChIJxyy24K1ZfxURyUhmnzyCaqI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B4%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%AE%D9%81%D8%AC%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3fcc1dbf6302aa83:0xbe6f830f62174843!8m2!3d28.4552417!4d48.4988434!16s%2Fg%2F11c6lgp31l!19sChIJg6oCY78dzD8RQ0gXYg-Db74?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>مركز صحي الربوة</t>
+          <t>مركز صحي شمال الخفجي</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1387,22 +1395,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Unnamed Road, حي الفايزية، بريدة 52383، المملكة العربية السعودية</t>
+          <t>8472 Darin, الدوائر الحكومية، الخفجي 39261، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+966163819422</t>
+          <t>+966137660428</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1414,12 +1422,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%AD%D9%8A+%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%D9%8A%D8%A9+%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e2f0928b3a26d7d:0x6320969946e92e89!8m2!3d24.5781845!4d46.7564576!16s%2Fg%2F11bzs32_dr!19sChIJfW2isygJLz4RiS7pRpmWIGM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B6%D9%85%D8%AF+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fd5b975193a8e7:0xa649ed61aa238f8c!8m2!3d17.1097393!4d42.7710914!16s%2Fg%2F11dxl6r2lq!19sChIJ56iTUZdb_RURjI8jqmHtSaY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية بحي العزيزية ٢</t>
+          <t>مركز صحي ضمد الجنوبي</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1429,22 +1437,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Unnamed Road, العزيزية، الرياض 14515، المملكة العربية السعودية</t>
+          <t>Prince Sultan Road, 84949, ضمد المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>+966114556256</t>
+          <t>+966173131755</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1456,12 +1464,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%AD%D9%85%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fdd5b0673959:0xacac6c62650b3900!8m2!3d26.4563049!4d50.0565057!16s%2Fg%2F11cnwhzq_h!19sChIJWTlnsNX9ST4RADkLZWJsrKw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D8%AC%D8%A7%D9%88%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c3cb6962580f63:0xc3cdd37e84038847!8m2!3d21.4132712!4d39.2966302!16s%2Fg%2F11bz_xrddw!19sChIJYw9YYmnLwxURR4gDhH7TzcM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>مركز صحي المحمدية</t>
+          <t>مركز صحي الاجاويد</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1471,39 +1479,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8066 6ج, المحمدية، الدمام 32433، المملكة العربية السعودية</t>
+          <t>8952، حي الاجاويد، Al Ajaweed District 3827 8952, جدة 22442، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+966138376821</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966515259469</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A3%D9%88%D8%B3+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbe2349a761d3:0xb55b2d1332ce9d5a!8m2!3d24.4782177!4d39.6418567!16s%2Fg%2F11cn2_pxx5!19sChIJ02GnSSO-vRURWp3OMhMtW7U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e2d5e098ae7f:0xeb107dad0f6355ed!8m2!3d26.29756!4d43.9482!16s%2Fg%2F1hdzfc3cn!19sChIJf66Y4NXigRUR7VVjD619EOs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>مركز الأوس للرعاية الصحية الأولية</t>
+          <t>مركز الرعاية الصحية الأولية</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1513,22 +1517,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6937, Ahmed Bin Jafer, 42314, المدينة المنورة المملكة العربية السعودية</t>
+          <t>Unnamed Road, البريكة، بريدة 52338، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+966148380536</t>
+          <t>+966163244626</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1540,12 +1544,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%86%D8%B2%DA%BE%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37bde94a849a9d:0xabdcc7f127069410!8m2!3d25.4551438!4d49.5955079!16s%2Fg%2F11c4822s0w!19sChIJnZqESum9Nz4REJQGJ_HH3Ks?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%B1%D8%BA%D9%8A%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2517a8b73b5ddd:0xd9fd70e61035f36a!8m2!3d23.8756503!4d47.0682225!16s%2Fg%2F11g4dg39pk!19sChIJ3V07t6gXJT4RavM1EOZw_dk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>مركز صحي النزھة</t>
+          <t>مركز صحي الرغيب</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1555,22 +1559,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al Amir Mishal Road, Al Hofuf المملكة العربية السعودية</t>
+          <t>King Abdullah Rd, 16311, الدلم المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>+966135354809</t>
+          <t>+966115497447</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1582,12 +1586,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%AE%D8%A7%D9%84%D8%AF%DB%8C%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156c0db06950f923:0xf7f9379c3438be0c!8m2!3d30.9889195!4d41.0104979!16s%2Fg%2F11cn6m14qs!19sChIJI_lQabANbBURDL44NJw3-fc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B0%D9%87%D8%A8%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c16e5ba5ff5861:0x32e80f24f11323fe!8m2!3d21.92786!4d39.12019!16s%2Fg%2F11r8cncld!19sChIJYVj_pVtuwRUR_iMT8SQP6DI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>مركز صحي الخالدیة</t>
+          <t>مركز صحي ذهبان</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1597,22 +1601,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Prince Abdulaziz Bin Musaed Road, 73312, عرعر المملكة العربية السعودية</t>
+          <t>شارع عبدالله خليفة, 23868, ذهبان المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+966146620348</t>
+          <t>+966122285620</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1624,12 +1628,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AA%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%AD%D9%83%D9%85%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15ea001bf7c66559:0x60c766a1d8831e25!8m2!3d21.473241!4d39.995961!16s%2Fg%2F11c74b1ld6!19sChIJWWXG9xsA6hURJR6D2KFmx2A?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%B9%D8%B0%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f0482ecf65373:0x9a90d4ea34092480!8m2!3d24.6764725!4d46.7011592!16s%2Fg%2F11c701xcy_!19sChIJc1P27IIELz4RgCQJNOrUkJo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>مجمع تميز الحكماء الطبي العام</t>
+          <t>مركز صحي اسكان المعذر</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1639,35 +1643,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>مخطط الراشديه 1 شارع الطوارئ العام، مكة 24432، المملكة العربية السعودية</t>
+          <t>8872 شارع الامير منصور بن عبدالعزيز، العليا، الرياض 12611، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+966558511510</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>+966118371618</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%86%D9%87%D8%B6%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b1da06f580906b:0x8957ae585973f2c2!8m2!3d26.2631407!4d36.4431846!16s%2Fg%2F11dxl36t2_!19sChIJa5CA9QbasRURwvJzWViuV4k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B4%D8%B1%D8%A7%D9%8A%D8%B9+%D8%A7%D9%84%D9%85%D8%AC%D8%A7%D9%87%D8%AF%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c1ff85ae80ecd5:0x6be7a507250f8c2e!8m2!3d21.4885086!4d39.9482084!16s%2Fg%2F11c531vzc1!19sChIJ1eyAroX_wRURLowPJQel52s?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>مركز صحي النهضة</t>
+          <t>مركز صحي شرايع المجاهدين</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1677,22 +1685,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>الامير فيصل, 48722, الوجه المملكة العربية السعودية</t>
+          <t>Unnamed Road, الشرائع، مكة 24432، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>+966144228857</t>
+          <t>+966122262356</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1704,12 +1712,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B3%D9%85%D9%8A%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b908ab8e27a1b1:0x7ac1f29c086fb2f!8m2!3d24.1058503!4d38.0595548!16s%2Fg%2F11cjnmn82x!19sChIJsaEnjqsIuRURL_uGwCkfrAc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e2a36ee6577f:0x1e0f514fc36f38ba!8m2!3d26.32283!4d43.95859!16s%2Fg%2F11h1gz08h!19sChIJf1fmbqPigRURujhvw09RDx4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>مركز صحي السميري</t>
+          <t>مركز الرعاية الصحية الأولية</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1719,22 +1727,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Unnamed Road, 46423, ينبع المملكة العربية السعودية</t>
+          <t>Unnamed Road, الهلال، بريدة 52355، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+966143227700</t>
+          <t>+966163231131</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1746,12 +1754,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B0%D9%87%D8%A8%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c16e5ba5ff5861:0x32e80f24f11323fe!8m2!3d21.92786!4d39.12019!16s%2Fg%2F11r8cncld!19sChIJYVj_pVtuwRUR_iMT8SQP6DI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%B4%D8%A8%D8%A7%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fb5a1499e537cf:0x5d91abe0ede80a76!8m2!3d18.3196995!4d42.7224893!16s%2Fg%2F11dxl83js6!19sChIJzzflmRRa-xURdgro7eCrkV0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>مركز صحي ذهبان</t>
+          <t>مركز صحي شباعة</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1761,22 +1769,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>شارع عبدالله خليفة, 23868, ذهبان المملكة العربية السعودية</t>
+          <t>3758 ورقة بن نوفل، 6950، شباعة، خميس مشيط 62458، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>+966122285620</t>
+          <t>+966172232401</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1788,12 +1796,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A8%D9%84%D8%AC%D8%B1%D8%B4%D9%89+2%E2%80%AD/data=!4m7!3m6!1s0x15ef5c32fa82b09b:0x6535085d09c84aa1!8m2!3d19.8628868!4d41.5597543!16s%2Fg%2F1ptwc0lng!19sChIJm7CC-jJc7xURoUrICV0INWU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B9%D9%88%D8%A7%D9%85%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e35fed592c6b0e1:0x7fb7d1546894b6bc!8m2!3d26.58541!4d49.97694!16s%2Fg%2F1tgmtr6g!19sChIJ4bDGktX-NT4RvLaUaFTRt38?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>مركز صحي بلجرشى 2</t>
+          <t>مركز صحي العوامية</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1803,22 +1811,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>King Khalid Road, 65629, بلجرشي المملكة العربية السعودية</t>
+          <t>Unnamed Road, الجميمة، القطيف‎ 32662، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+966177222079</t>
+          <t>+966138558838</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1830,12 +1838,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B9%D8%B7%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15f1d3ef35522269:0x7a0d9fcee7881a26!8m2!3d20.14936!4d42.64288!16s%2Fg%2F11f346g7_5!19sChIJaSJSNe_T8RURJhqI586fDXo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D8%A8%D9%86+%D8%B9%D9%84%D9%8A+%D8%A7%D9%84%D8%B4%D9%88%D9%8A%D8%B9%D8%B1+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A8%D8%AC%D9%84%D8%A7%D8%AC%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2aef7f83cdeae9:0xfe614ca9eb04dc3b!8m2!3d25.6886875!4d45.4475625!16s%2Fg%2F11cpgcdywj!19sChIJ6erNg3_vKj4RO9wE66lMYf4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>مركز صحي العطف</t>
+          <t>مركز عبدالعزيز الشويعر للرعاية الصحية</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1845,22 +1853,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Unnamed Road, 67815, بيشة المملكة العربية السعودية</t>
+          <t>طريق الملك فيصل بن عبد العزيز, 15332, جلاجل المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>+966176203930</t>
+          <t>+966114435941</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1872,12 +1880,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B6%D8%A7%D8%AD%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f5f66d6065ab9:0x7de646a96d19b96c!8m2!3d26.303658!4d44.041365!16s%2Fg%2F11c54d47hd!19sChIJuVoG1mZffxURbLkZbalG5n0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A7%D8%AD%D9%85%D8%AF+%D8%A7%D8%A8%D8%A7%D9%86%D9%85%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2efd0a60ffd88f:0xf01e702728491db!8m2!3d24.7673528!4d46.7107799!16s%2Fg%2F11tbz5wm9d!19sChIJj9j_YAr9Lj4R25GEcgLnAQ8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>مركز صحي الضاحي</t>
+          <t>مجمع الدكتور احمد ابانمي الطبي</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1887,39 +1895,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6863 Ad Dahi, 2178, 52344, بريدة المملكة العربية السعودية</t>
+          <t>Alnuzah District Imam saud ibn Mohamed Road, الرياض 13313، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>+966163290503</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966505301031</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%88%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+-+%D9%A3%E2%80%AD/data=!4m7!3m6!1s0x15c3c9a9a00fee3f:0x947634e30e90724b!8m2!3d21.4246917!4d39.2206147!16s%2Fg%2F11gt_vg0g5!19sChIJP-4PoKnJwxURS3KQDuM0dpQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A8%D8%A7%D9%82%D8%AF%D9%88+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bd95d16f2d6afd:0xd6f22af2808d92cf!8m2!3d24.485778!4d39.6783934!16s%2Fg%2F11bzsshtq0!19sChIJ_Wotb9GVvRURz5KNgPIq8tY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>مجمع واحة الشفاء الطبي - ٣اا</t>
+          <t>مركز باقدو للرعاية الصحية الأولية</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1929,39 +1933,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>301</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>C6FC+V6H، المحجر، جدة 22424، المملكة العربية السعودية</t>
+          <t>5235 أم بردة بنت المنذر، المبعوث، المدينة المنورة 42362، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>+966920007504</t>
+          <t>+966148403743</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.wahatclinics.com/english/Default.aspx</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x160783639a7fda59:0xc2c81fdd86b8a250!8m2!3d16.796843!4d43.1012535!16s%2Fg%2F11cn5qs167!19sChIJWdp_mmODBxYRUKK4ht0fyMI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%B7%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e36487f644efbb7:0x412a843c039a7238!8m2!3d25.93033!4d49.65371!16s%2Fg%2F1pxy_6wcw!19sChIJt_tOZH9INj4ROHKaAzyEKkE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>مركز الرعاية الصحية الأولية</t>
+          <t>مركز صحي حي المطار</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1971,22 +1975,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Unnamed Road, 86691, ام الشعنون المملكة العربية السعودية</t>
+          <t>7789, Abu Bakr as Siddiq Street, بقيق المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>+966551813010</t>
+          <t>+966135680053</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1998,12 +2002,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%AE%D8%A7%D9%84%D8%AF+%D8%A8%D8%A7%D9%84%D8%B1%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x1583ca9ba8cbb159:0x76c1181b96cf4943!8m2!3d25.8776704!4d43.4859617!16s%2Fg%2F11gz9y_r4!19sChIJWbHLqJvKgxURQ0nPlhsYwXY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B3%D8%B9%D8%A7%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ac4ab0c6813d:0xb188877de223905c!8m2!3d28.3894399!4d36.5455385!16s%2Fg%2F11b7ljf7qp!19sChIJPYHGsEqsqRURXJAj4n2HiLE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>مركز صحي الملك خالد بالرس</t>
+          <t>مركز صحي السعادة</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2013,22 +2017,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>330</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>شارع ربيعة السعدي ,حي الملك خالد، الملك خالد، الرس 58883، المملكة العربية السعودية</t>
+          <t>2121 طريق الملك عبدالله بن عبدالعزيز، 9291، السعادة، تبوك 47914، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>+966163335223</t>
+          <t>+966144234500</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2040,12 +2044,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AA%D8%AF%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A3%D8%A8%D9%87%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fcab75524d82f5:0xca81eef577f1ba05!8m2!3d18.2360625!4d42.5849375!16s%2Fg%2F11sv111l1n!19sChIJ9YJNUnWr_BURBbrxd_Xugco?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D9%82%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15bdbfa10d8c9927:0x7337d641868d361f!8m2!3d24.45435!4d39.61417!16s%2Fg%2F11bzt3fd80!19sChIJJ5mMDaG_vRURHzaNhkHWN3M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>مجمع تداوي الطبي أبها</t>
+          <t>مركز صحي قباء</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2055,35 +2059,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.173</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>سلطان، مطار، مدينة سلطان، طريق الملك فهد، جوار، 6HPM+CXG حي البديع، أبها 62217، المملكة العربية السعودية</t>
+          <t>7567 Al Imam Ahmad Bin Hanbal 42316 42315، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>+966920006449</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>+966148282332</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D8%B3%D8%AA%D8%B1+-+%D9%84%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AF%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f03000061fa89:0x6f5cb52794d06aba!8m2!3d24.7498387!4d46.7151039!16s%2Fg%2F11wbd04kjg!19sChIJifphAAADLz4RumrQlCe1XG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%84%D9%88%D9%84%D9%88+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+-+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%84%D8%A4%D9%84%D8%A4+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c17d01d0fe5e43:0xc0c287e91f6afcef!8m2!3d21.7603505!4d39.2048089!16s%2Fg%2F11s0wpcy2b!19sChIJQ17-0AF9wRUR7_xqH-mHwsA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>صيدلية استر - لاسترادا</t>
+          <t>صيدلية لولو الدواء - صيدلية لؤلؤ الدواء</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2093,39 +2101,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>La Strada Yard, طريق الملك عبدالله، Al Nuzhz District, الرياض 12472، المملكة العربية السعودية</t>
+          <t>شارع ياسر بن عامر الكناني، الحمدانية، جدة 23761، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>+966114709229</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://asterpharmacy.sa/</t>
-        </is>
-      </c>
+          <t>+966594330616</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B1%D9%88%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3fd740b4315fa2f1:0x1a87b38fbf7e81a7!8m2!3d28.4268214!4d45.9759211!16s%2Fg%2F1tgw3hvg!19sChIJ8aJfMbRA1z8Rp4F-v4-zhxo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%86%D9%88%D8%B1+%D8%A7%D9%84%D8%B7%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15c20327514a3b67:0xda33e32c6d6becaa!8m2!3d21.4421908!4d39.8641851!16s%2Fg%2F11s_mvq5m3!19sChIJZztKUScDwhURquxrbSzjM9o?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>صيدلية مروم</t>
+          <t>صيدلية نور الطيف</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2135,39 +2139,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7969 طريق فيصل بن عبدالعزيز، البلدية، حفر الباطن 39921، المملكة العربية السعودية</t>
+          <t>الغسالة، ثبير، العدل، مكة 24244، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>+966137250505</t>
+          <t>+966555514580</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>http://www.maroom-mc.com/</t>
+          <t>https://t.me/+9o_crIjv_0w3NDVk</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1577434e41e5ae31:0x38831f90fb61c010!8m2!3d27.9048076!4d42.3875912!16s%2Fg%2F11bzx2splj!19sChIJMa7lQU5DdxUREMBh-5Afgzg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B0%D8%A7%D8%A6%D8%AF+%D8%A5%D8%AB%D9%86%D9%8A%D9%86+%D9%84%D9%84%D8%A3%D8%AF%D9%88%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fa935a9edd5:0x54c8d42021c42263!8m2!3d24.6007385!4d46.7243566!16s%2Fg%2F11ty8j_v4w!19sChIJ1e2pNakPLz4RYyLEISDUyFQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>صيدلية الدوائية</t>
+          <t>صيدلية ذائد إثنين للأدوية</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2175,24 +2179,16 @@
           <t>صيدلية</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>70، الشارع العام، بقعاء المملكة العربية السعودية</t>
+          <t>منفوحة، الرياض 12683، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>+966548131846</t>
+          <t>+966565292070</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2200,12 +2196,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%BA%D9%8A%D8%AF%D8%A7%D8%A1+%D8%A7%D9%84%D9%85%D8%AA%D8%B7%D9%88%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d9edebc09cd7:0xb494f5bea5ae2cd0!8m2!3d21.6422147!4d39.1377234!16s%2Fg%2F11cs3_cwmt!19sChIJ15zA6-3ZwxUR0Cyupb71lLQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%85%D8%B2%D8%A7%D9%8A%D9%86+%D8%A7%D9%84%D8%A8%D8%A7%D8%B7%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fd738154d6dfff1:0x69f04ed89316049e!8m2!3d28.4174129!4d46.0373162!16s%2Fg%2F11gf5x520z!19sChIJ8f9tTRU41z8RngQWk9hO8Gk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>صيدليه غيداء المتطورة الطبية</t>
+          <t>صيدلية مزاين الباطن البيطرية</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2215,39 +2211,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>النعيم، شارع صفية بنت عبد المطلب، حي، جدة المملكة العربية السعودية</t>
+          <t>طريق الصمان، الربيع، حفر الباطن 39919، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>+966122061596</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>http://www.ghaydaamedical.com/</t>
-        </is>
-      </c>
+          <t>+966555940154</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A7%D9%88%D8%B4%D9%86+4+%D8%AC%D8%A8%D9%84+%D8%A7%D9%84%D9%86%D9%88%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c203000ee3a555:0xf6df22165dd44c30!8m2!3d21.4457953!4d39.8569072!16s%2Fg%2F11mcqdj4hb!19sChIJVaXjDgADwhURMEzUXRYi3_Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%A3%D9%85%D9%88%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D9%87+%D9%A7%E2%80%AD/data=!4m7!3m6!1s0x8355da099f1b5cf3:0xc874f252b0c87713!8m2!3d21.5617616!4d39.7993692!16s%2Fg%2F11shp6bwxs!19sChIJ81wbnwnaVYMRE3fIsFLydMg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>صيدليه اوشن 4 جبل النور</t>
+          <t>صيدليه أمواج الطبيه ٧</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2265,14 +2257,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6824 حسين سرحان، جبل النور، 4207، مكة 24238، المملكة العربية السعودية</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>+966582756191</t>
+          <t>+966594369698</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2280,12 +2268,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%86%D9%88%D8%B1+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ffb0af8d3d5:0xfc7fa2e8dc704d41!8m2!3d24.5851696!4d46.676668!16s%2Fg%2F1hf5x2x64!19sChIJ1dP4CvsPLz4RQU1w3Oiif_w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%82%D8%B5%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c17bcf4fffb419:0x457fbe8b15020ee9!8m2!3d21.7874322!4d39.1764756!16s%2Fg%2F11jssydptb!19sChIJGbT_T897wRUR6Q4CFYu-f0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>صيدلية حنان الصحة</t>
+          <t>صيدلية القصد</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2295,22 +2283,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>HMPG+3M7، يثرب، شبرا، الرياض 12793، المملكة العربية السعودية</t>
+          <t>حي, الفلاح،, JGRB8444، 8444 سعيد المغربي، 3045،, جدة 23762، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>+966114269620</t>
+          <t>+966567436020</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2318,12 +2306,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B9%D8%A7%D9%84%D9%85+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x158239ba88bbd1a1:0x58f36460d04d8083!8m2!3d26.0675102!4d43.5589574!16s%2Fg%2F11fkqj96pp!19sChIJodG7iLo5ghURg4BN0GBk81g?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%8A%D9%88%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb59d14a9d5d4d:0xf9b290104f129c81!8m2!3d18.2639308!4d42.7645647!16s%2Fg%2F11vjrqpdk6!19sChIJTV2dStFZ-xURgZwSTxCQsvk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>صيدلية عالم الدواء الطبيه</t>
+          <t>صيدلية الديوان</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2333,22 +2321,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3H95+2H4، طريق الملك فهد، النزهة، رياض الخبراء 52722، المملكة العربية السعودية</t>
+          <t>سعد بن ابي وقاص، الرصراص، خميس مشيط 62441، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>+966553104089</t>
+          <t>+966550526903</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2356,12 +2344,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%87%D8%B1%D9%85+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9+%D9%A1%D9%A7+%2F+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B2%D8%A7%D8%A6%D8%AF+%D9%88%D8%A7%D8%AD%D8%AF+%D9%A2%D9%A4%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fbffa527bb7:0x816d8d4099f8f18b!8m2!3d24.5973653!4d46.7111896!16s%2Fg%2F11j_r4n5c5!19sChIJt3tS-r8PLz4Ri_H4mUCNbYE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9%D8%A7%D9%84%D8%AD%D9%88%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e3797dec86f4311:0x60e8c1e9d19fbe1b!8m2!3d25.372617!4d49.5974646!16s%2Fg%2F11vlw9n4v0!19sChIJEUNvyN6XNz4RG76f0enB6GA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>صيدلية هرم الصحة ١٧ / صيدلية زائد واحد ٢٤</t>
+          <t>صيدليه رعايةالحوراء</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2371,22 +2359,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>الامير عبدالله بن عبدالرحمن بن فيصل، عتيقة، الرياض 12673، المملكة العربية السعودية</t>
+          <t>شارع الإمام محمد بن عبدالوهاب، الصالحية، الهفوف‎ 36361، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+966550276627</t>
+          <t>+966563701111</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2394,12 +2382,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D8%B1%D9%88%D8%B6+%D8%A7%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D9%87+%D8%AC%D9%85%D9%84%D8%A9+%D8%A7%D9%84%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fca1003ffdc729:0x3f78ea44fa016068!8m2!3d18.187948!4d42.8253786!16s%2Fg%2F11y4rdwnb3!19sChIJKcf9PwCh_BURaGAB-kTqeD8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%AE%D8%A7%D9%84%D8%AF+-+Khalid+Pharmacy%E2%80%AD/data=!4m5!3m4!1s0x15e983cd7b121813:0x8221e096b9d471d9!8m2!3d21.2050265!4d40.6072974?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>عروض العنايه جملة الصيدليات</t>
+          <t>صيدلية خالد - Khalid Pharmacy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2409,22 +2397,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5RQG+55C، السلامة، أحد رفيدة 62421، المملكة العربية السعودية</t>
+          <t>الشارع العام السر، الطائف المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>+966568449098</t>
+          <t>+966127512172</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2432,12 +2420,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%BA%D8%B1%D8%A8%D9%8A%D8%A9+%D8%B1%D9%82%D9%85+%D9%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2055594eb220f:0xde8a561b73f6119!8m2!3d21.4010994!4d39.866143!16s%2Fg%2F11h7fngl5b!19sChIJDyLrlFUFwhURGWE_t2Gl6A0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/DAWA+AL-GHARBIA+PHARMACY/data=!4m7!3m6!1s0x15c1f0a892202171:0x452492bef469ced0!8m2!3d21.6082261!4d39.8134498!16s%2Fg%2F11f15ddjk8!19sChIJcSEgkqjwwRUR0M5p9L6SJEU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>صيدلية الدواء الغربية رقم ٩</t>
+          <t>DAWA AL-GHARBIA PHARMACY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2447,22 +2435,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6651 شارع الشيخ عبدالله خياط، حي العزيزية، مكة 24243، المملكة العربية السعودية</t>
+          <t>JR57+79W، العمرة الجديدة، مكة 24417، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>+966559216377</t>
+          <t>+966591014405</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2470,12 +2458,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B3%D9%84%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D8%AB%D8%A7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab00418d9b41:0xba8984a5a3d869a!8m2!3d24.7428072!4d46.8401932!16s%2Fg%2F11w35d9z7n!19sChIJQZuNQQCrLz4RmoY9WkqYqAs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%AA%D8%AD%D8%AF%D8%A9+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AC%D9%85%D9%88%D9%85+330%E2%80%AD/data=!4m7!3m6!1s0x15c1f588c477c025:0xbebdeac6989b60f9!8m2!3d21.6213042!4d39.7022482!16s%2Fg%2F11y78125yq!19sChIJJcB3xIj1wRUR-WCbmMbqvb4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>صيدلية سلسلة الدواء الثانية</t>
+          <t>صيدلية المتحدة فرع الجموم 330</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2485,39 +2473,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9264 شارع أبي الأسود الدؤلي، النسيم الشرقي، الرياض 14243، المملكة العربية السعودية</t>
+          <t>طريق الجموم - حداء، الهدا، حي العزيزية، الجموم 25351، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+966575082838</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://zahrafamily.com/</t>
-        </is>
-      </c>
+          <t>+966552645165</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%83%D8%A7%D8%B1%D9%8A%D8%B2%D9%85%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f113677ef8373:0x3193fe652471d403!8m2!3d24.5433324!4d46.6569463!16s%2Fg%2F11rm_lfq_x!19sChIJc4PvdzYRLz4RA9RxJGX-kzE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%86%D9%82%D8%A7%D8%A1+%D8%A7%D9%84%D8%B5%D8%AD%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f00753c9fe1a3:0x96b4bcf76bbdc078!8m2!3d24.7769861!4d46.8223023!16s%2Fg%2F11f10txb90!19sChIJo-GfPHUALz4ReMC9a_e8tJY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>صيدلية كاريزما</t>
+          <t>صيدلية نقاء الصحة</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2527,39 +2511,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>المشتل، الحزم، الرياض 14964، المملكة العربية السعودية</t>
+          <t>الامير بندر بن عبدالعزيز، الخليج، الرياض 13224، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+966595238344</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://bit.ly/4eLYPPJ</t>
-        </is>
-      </c>
+          <t>+966112274044</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9%D8%A7%D9%84%D8%AD%D9%88%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e3797dec86f4311:0x60e8c1e9d19fbe1b!8m2!3d25.372617!4d49.5974646!16s%2Fg%2F11vlw9n4v0!19sChIJEUNvyN6XNz4RG76f0enB6GA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D9%86%D8%B3+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e3547a42848343:0x7f0ea43cad871ca4!8m2!3d18.2172983!4d42.5030828!16s%2Fg%2F11b6w96m48!19sChIJQ4OEQnpU4xURpByHrTykDn8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>صيدليه رعايةالحوراء</t>
+          <t>صيدلية أنس الدوائية</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2569,22 +2549,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>شارع الإمام محمد بن عبدالوهاب، الصالحية، الهفوف‎ 36361، المملكة العربية السعودية</t>
+          <t>طريق الملك فيصل، النصب، أبها 62521، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>+966563701111</t>
+          <t>+966172243305</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2592,12 +2572,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D8%AF%D8%A7%D8%B1%D8%A9+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A7%D8%AA+%D8%B4%D8%B0%D9%8A+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f0489b6889727:0x7d81ea9ccafad718!8m2!3d24.667994!4d46.7079913!16s%2Fg%2F11c7sr1x65!19sChIJJ5eItokELz4RGNf6ypzqgX0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+2%E2%80%AD/data=!4m7!3m6!1s0x3e2e55c1a4fe2cbf:0xbf3c4f7932a8fb5!8m2!3d24.6172285!4d46.724558!16s%2Fg%2F11lctl_9_g!19sChIJvyz-pMFVLj4RtY8qk_fE8ws?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ادارة صيدليات شذي الدواء</t>
+          <t>صيدلية ركن الشفاء 2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2607,22 +2587,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2862 شارع أحمد الهواري، المربع، الرياض 12626 6360 شارع أحمد الهواري، 6360، المربع، الرياض 12626، المملكة العربية السعودية</t>
+          <t>حي, شارع حليمة السعدية، منفوحة الجديدة، الرياض 12656، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>+966572701975</t>
+          <t>+966556465424</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2630,12 +2610,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%83%D8%B1%D8%B3%D8%AA%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c2010058ff06cf:0xe6783b04d4cdff51!8m2!3d21.4637996!4d39.9462024!16s%2Fg%2F11vzvq_xdr!19sChIJzwb_WAABwhURUf_N1AQ7eOY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B1%D9%83%D9%86+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2faa6aef0fca81:0x2950bfa183d50b1e!8m2!3d24.7486859!4d46.8428904!16s%2Fg%2F11dxb0x3dl!19sChIJgcoP72qqLz4RHgvVg6G_UCk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>صيدلية كرستالة الخير</t>
+          <t>صيدلية ركن الحياة</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2645,22 +2625,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6391 3164 المهندس عمر قاضي، الراشدية، مكة 24269، المملكة العربية السعودية</t>
+          <t>سبا سبا، النسيم الشرقي، النسيم الشرقي، الرياض 14242، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>+966125571999</t>
+          <t>+966580686888</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2668,12 +2648,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%83%D8%A7%D8%B1%D9%8A%D8%B2%D9%85%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x157f59e76cb6bed5:0xe4d663c23918cc4!8m2!3d26.329442!4d43.9971418!16s%2Fg%2F11krkxxjb_!19sChIJ1b62bOdZfxURxIyRIzxmTQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Pharmacy+%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%AC%D9%86%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e49e9a94990a295:0xfd576631da25ae07!8m2!3d26.272677!4d50.2058111!16s%2Fg%2F11xp4w_0kf!19sChIJlaKQSanpST4RB64l2jFmV_0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>صيدلية كاريزما</t>
+          <t>Pharmacy صيدليه جنا</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2681,24 +2661,16 @@
           <t>صيدلية</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>حي الرفيعة، بريدة 66589، المملكة العربية السعودية</t>
+          <t>EMDD6555، 5070 الشارع الثاني والعشرون, 6555, الدمام 32425، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>+966163230860</t>
+          <t>+966570252947</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2706,12 +2678,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D9%87+%D8%B9%D8%A7%D9%84%D9%85+%D8%A7%D9%84%D8%B5%D8%AD%D9%87+%D9%88%D8%A7%D9%84%D8%AC%D9%85%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15fb5950d111ba5d:0xc2bb915c6b98e79f!8m2!3d18.2633426!4d42.7730532!16s%2Fg%2F11tdl8frh8!19sChIJXboR0VBZ-xURn-eYa1yRu8I?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%B1%D8%B9%D8%A7%D9%8A%D8%AA%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad9a549e1d49:0x1f738fbe30a44943!8m2!3d28.4171256!4d36.5729445!16s%2Fg%2F11vhcn6x3w!19sChIJSR2eVJqtqRURQ0mkML6Pcx8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>صيدليه عالم الصحه والجمال</t>
+          <t>صيدلية رعايتي الطبية</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2721,22 +2693,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Saad abn abi wgas, خميس مشيط المملكة العربية السعودية</t>
+          <t>الامير عبدالمجيد بن عبدالعزيز، الورود، تبوك 47312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>+966502323322</t>
+          <t>+966576704146</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2786,12 +2758,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A3%D9%88%D8%AA%D9%84%D8%AA+%D8%A8%D9%84%D8%B3+%D9%85%D8%AD%D8%A7%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15e485004a15a24b:0x2b695c05f44ae5ab!8m2!3d18.5457703!4d42.0379442!16s%2Fg%2F11w492b_k0!19sChIJS6IVSgCF5BURq-VK9AVcaSs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x15a9ad66b1baff33:0x27fafc69a5a95a2b!8m2!3d28.3739878!4d36.5590793!16s%2Fg%2F11fn1w_9rs!19sChIJM_-6sWatqRURK1qppWn8-ic?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>صيدلية أوتلت بلس محايل</t>
+          <t>صيدلية الخليج</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2801,22 +2773,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>بن عبدالعزيز، 4043, حي الفيصلية, طريق الملك فيصل, محايل عسير 63687، المملكة العربية السعودية</t>
+          <t>3401، الشيخ، تبوك 47914، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+966550769220</t>
+          <t>+966144236792</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2824,12 +2796,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D9%84%D9%85%D8%B3%D8%A9+%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2%D8%A9+3%E2%80%AD/data=!4m7!3m6!1s0x15c201226cdd82f7:0xdd70ff571df7f69a!8m2!3d21.4679999!4d39.9519469!16s%2Fg%2F11jt5d84rm!19sChIJ94LdbCIBwhURmvb3HVf_cN0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%8A%D8%AF%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D8%A1+%D8%A7%D9%84%D9%86%D9%85%D9%88%D8%B0%D8%AC%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15ef47df98cca5f1:0x7fc7891b5d8f2923!8m2!3d20.0955938!4d41.4423987!16s%2Fg%2F11f4pf_1_d!19sChIJ8aXMmN9H7xURIymPXRuJx38?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>صيدلية لمسة شفاء المميزة 3</t>
+          <t>صيدلية الدواء النموذجية</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2839,22 +2811,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>الشرايع مخطط 1, شارع ذات الصوارى, مكة المملكة العربية السعودية</t>
+          <t>7196 طريق الجنوب، الازهر، الباحة 65733، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>+966596986460</t>
+          <t>+966590781783</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2862,12 +2834,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A7%D9%84%D8%B4%D8%B9%D8%A8%D9%8A+%D8%A7%D9%84%D8%B4%D9%8A%D8%AE+%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%B9%D8%A8%D8%AF%D9%8A+-+%D9%85%D8%B9%D8%A7%D9%84%D8%AC+%D8%A8%D8%A7%D9%84%D8%A7%D8%B9%D8%B4%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15c1bdd855609047:0xd66b24b7df1d6445!8m2!3d21.9854709!4d39.5248356!16s%2Fg%2F11f9gxnn13!19sChIJR5BgVdi9wRURRWQd37cka9Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr.+Ahmad+Naseem+%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A3%D8%AD%D9%85%D8%AF+%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f03e982620fd5:0x723ec29b0310bc03!8m2!3d24.6905532!4d46.7004816!16s%2Fg%2F11w9ztm_lx!19sChIJ1Q9igukDLz4RA7wQA5vCPnI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>الطبيب الشعبي الشيخ سليمان المعبدي - معالج بالاعشاب</t>
+          <t>Dr. Ahmad Naseem دكتور أحمد نسيم</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2882,30 +2854,34 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>25593، المملكة العربية السعودية</t>
+          <t>شارع الأمير عبدالعزيز بن مساعد بن جلوي، العليا، الرياض 11393، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>+966503618286</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>+966543020009</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://drahmadnaseem.com/</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/King+Abdullah+International+Medical+Reseach+Center%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A+%D9%84%D9%84%D8%A7%D8%A8%D8%AD%D8%A7%D8%AB+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e37bcd3bf1398ff:0x4b0af3a81bf6b32b!8m2!3d25.4648112!4d49.5317266!16s%2Fg%2F11cm_hsx9q!19sChIJ_5gTv9O8Nz4RK7P2G6jzCks?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%85%D8%AF+%D9%81%D8%A4%D8%A7%D8%AF+%D8%A7%D9%84%D8%AD%D9%85%D8%A7%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0949b8fa418b:0x9a98ac957f76f2a8!8m2!3d24.5850842!4d46.7656629!16s%2Fg%2F11h6m4657v!19sChIJi0H6uEkJLz4RqPJ2f5WsmJo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>King Abdullah International Medical Reseach Centerمركز الملك عبدالله العالمي للابحاث الطبيه</t>
+          <t>محمد فؤاد الحمامي</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2915,39 +2891,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FG7J+WMH، مدينة الملك عبدالله العسكرية، المبرز 36428، المملكة العربية السعودية</t>
+          <t>3919 الرباط،، 3919، العزيزية، 8613، الرياض 14514، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>+966135629120</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>http://kaimrc.med.sa/</t>
-        </is>
-      </c>
+          <t>+966505125463</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A3%D9%86%D8%B3+%D8%A7%D9%84%D9%85%D9%8A%D9%85%D9%86%D9%8A+%D9%84%D9%84%D9%85%D8%B3%D8%A7%D9%84%D9%83+%D8%A7%D9%84%D8%A8%D9%88%D9%84%D9%8A%D8%A9+%D9%88%D8%B7%D9%87%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%A3%D8%B7%D9%81%D8%A7%D9%84+%7C+Urology+and+Circumcision+Clinic%E2%80%AD/data=!4m7!3m6!1s0x15c21b0022179e9f:0x541ebf23729838ee!8m2!3d21.4127581!4d39.7901687!16s%2Fg%2F11ldkccd6h!19sChIJn54XIgAbwhUR7jiYciO_HlQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC+%D8%A8%D9%84%D8%B3%D8%B9+%D8%A7%D9%84%D9%86%D8%AD%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c2058979c333e5:0xd39b54ad2155bf0d!8m2!3d21.3527871!4d39.8877431!16s%2Fg%2F11gxhl0s7g!19sChIJ5TPDeYkFwhURDb9VIa1Um9M?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>عيادة الدكتور أنس الميمني للمسالك البولية وطهارة الأطفال | Urology and Circumcision Clinic</t>
+          <t>المعالج بلسع النحل</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2957,39 +2929,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CQ7R+43H Al, الرصيفة، مكة 24232، المملكة العربية السعودية</t>
+          <t>3919 العوالي، مكة 24372، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>+966500560540</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://wa.me/966500560540</t>
-        </is>
-      </c>
+          <t>+966500488464</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%B6%D9%8A%D8%A7%D8%A1+%D8%A7%D9%84%D8%B3%D8%A7%D8%B7%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x3e37969b0f835f6f:0xd162e55529f843ee!8m2!3d25.3914465!4d49.6025473!16s%2Fg%2F11fxvcxys9!19sChIJb1-DD5uWNz4R7kP4KVXlYtE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AC%D9%85%D8%B9%D9%8A%D8%A9+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D9%85%D8%B1%D8%B6%D9%89+%D8%A7%D9%84%D8%AF%D9%85+%D8%A8%D8%AC%D8%A7%D8%B2%D8%A7%D9%86+%28%D8%B4%D8%B1%D9%8A%D8%A7%D9%86%29%E2%80%AD/data=!4m7!3m6!1s0x1607fd785869e439:0xbe9d6e580a77d72a!8m2!3d16.9296717!4d42.5533587!16s%2Fg%2F11fnctpr1l!19sChIJOeRpWHj9BxYRKtd3Clhunb4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>نظارات الضياء الساطع</t>
+          <t>جمعية رعاية مرضى الدم بجازان (شريان)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2999,35 +2967,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>9JR3+H2F، الفاضلية، الهفوف‎ 36364، المملكة العربية السعودية</t>
+          <t>الشاطئ، بجوار مختبر الفارابي الطبي، مخطط 6، السويس المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>+966135829401</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>+966556898890</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.sheryan.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Taif/data=!4m7!3m6!1s0x3e2f0932301141c9:0xcc5d1b182a14f73d!8m2!3d24.6005042!4d46.7646729!16s%2Fg%2F11tnfvnlqd!19sChIJyUERMDIJLz4RPfcUKhgbXcw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A7%D9%82%D9%8A+%D8%A7%D9%84%D8%B4%D8%B1%D8%B9%D9%8A+%D8%A7%D8%A8%D9%88+%D9%85%D8%B4%D8%A7%D8%B1%D9%8A+%D8%A7%D9%84%D8%B4%D9%87%D8%B1%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fb5b3ddf3d1b99:0xdaedf1b7fca377f3!8m2!3d18.3735158!4d42.7196371!16s%2Fg%2F11hd6wjrk6!19sChIJmRs93z1b-xUR83ej_Lfx7do?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Taif</t>
+          <t>الراقي الشرعي ابو مشاري الشهراني</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3037,22 +3009,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>النماص، العزيزية، الرياض 14512، المملكة العربية السعودية</t>
+          <t>7562 3184 7562، خميس مشيط 62482، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>+966560977017</t>
+          <t>+966542566660</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3060,12 +3032,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF+%D8%A7%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D8%AB%D9%84%D8%AC%D8%A9+%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f039bc0249603:0x16f49058522f3aba!8m2!3d24.7399227!4d46.6916748!16s%2Fg%2F11vk394lf5!19sChIJA5YkwJsDLz4RujovUliQ9BY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr.+Medhat+Hagras/data=!4m7!3m6!1s0x8ca9021aa7e62407:0x310e7b472e4614b8!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11mcz6csmr!19sChIJByTmpxoCqYwRuBRGLkd7DjE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>د احمد الثلجة طبيب اسنان</t>
+          <t>Dr. Medhat Hagras</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3075,35 +3047,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>طريق الملك عبدالله، المرسلات، الرياض 12461، المملكة العربية السعودية</t>
-        </is>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>+966542741132</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>+966553064364</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.medhat-hagras.com/</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Saudi/data=!4m7!3m6!1s0x3e2f035f03a0483f:0x65aea55dd7a348ba!8m2!3d24.7135517!4d46.6752957!16s%2Fg%2F11l6sjzxcq!19sChIJP0igA18DLz4Rukij112lrmU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B1%D8%A8%D9%8A%D8%B9+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%A5%D9%84%D9%83%D8%AA%D8%B1%D9%88%D9%86%D9%8A%D8%A9+%D9%88%D8%AC%D9%85%D9%8A%D8%B9+%D8%A7%D9%84%D9%85%D9%87%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B5%D8%B9%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab8177bd2047:0x9d177d1627f90326!8m2!3d24.8093471!4d46.9017848!16s%2Fg%2F11h59z1c79!19sChIJRyC9d4GrLz4RJgP5JxZ9F50?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>ربيع الخير للخدمات الإلكترونية وجميع المهمات الصعبة</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3111,16 +3083,24 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>9876543، العليا، الرياض 12251، المملكة العربية السعودية</t>
+          <t>2559 البليدة، النظيم، الرياض 14817 7432 المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>+966565814876</t>
+          <t>+966566668810</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3128,12 +3108,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B3%D9%84%D8%B7%D8%A7%D9%86+%D8%A8%D9%86+%D9%81%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c233a3ae796a5b:0x715beb6087051bd9!8m2!3d21.442966!4d39.3918153!16s%2Fg%2F11gyz0zfx0!19sChIJW2p5rqMzwhUR2RsFh2DrW3E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B3%D9%8A%D8%AF+%D9%86%D8%B9%D9%85%D8%A9+%D8%A7%D9%84%D9%84%D9%87+%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e379112d6d20c39:0x97f8570e33ea5515!8m2!3d25.3441332!4d49.5856331!16s%2Fg%2F11vryzl3td!19sChIJOQzS1hKRNz4RFVXqMw5X-Jc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>سلطان بن فهد</t>
+          <t>دكتور سيد نعمة الله طبيب اسنان</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3143,22 +3123,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>C9VR+5PP، المحاميد 22383، المملكة العربية السعودية</t>
+          <t>طريق الامير نايف، حي الخالدية، الهفوف‎ 36362، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>+966538254047</t>
+          <t>+966591131680</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -3166,12 +3146,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AD%D8%AC%D8%A7%D9%85%D9%87+%D8%A7%D8%A8%D9%88+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c097e0ffdb74a1:0x945b3992df429e5b!8m2!3d22.783701!4d39.0346351!16s%2Fg%2F11gh6vwjbw!19sChIJoXTb_-CXwBURW55C35I5W5Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr.+Ayman+Wardah+Home/data=!4m7!3m6!1s0x3e2f0fdc381a1f09:0xdf42c3502f4562f2!8m2!3d24.5886834!4d46.7113661!16s%2Fg%2F11fnr5g1wj!19sChIJCR8aONwPLz4R8mJFL1DDQt8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>حجامه ابو عبدالله</t>
+          <t>Dr. Ayman Wardah Home</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3179,24 +3159,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Q2MM+FVJ، Unnamed Road، الصمد، رابغ 25729، المملكة العربية السعودية</t>
+          <t>6381 2845, Saudi Arabia, الرياض 12675، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>+966566947600</t>
+          <t>+966503454068</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3204,12 +3176,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A5%D8%AF%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D9%88%D8%A7%D8%B1%D8%A6+%D9%88%D8%A7%D9%84%D8%A3%D8%B2%D9%85%D8%A7%D8%AA+%D8%A8%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%88%D8%AF+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x156c11efd1b22a4f:0x4490e52aa7ddb240!8m2!3d30.933538!4d41.0499834!16s%2Fg%2F11c74czh9s!19sChIJTyqy0e8RbBURQLLdpyrlkEQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%81%D8%B7%D9%8A%D8%B7%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15fd505a7f8ad03f:0xa56954135b984dea!8m2!3d17.1508557!4d42.6782814!16s%2Fg%2F11f_r_2kq9!19sChIJP9CKf1pQ_RUR6k2YWxNUaaU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>إدارة الطوارئ والأزمات بصحة الحدود الشمالية</t>
+          <t>فطيطه</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3217,24 +3189,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2948، 9204، الخليج، عرعر 73212، المملكة العربية السعودية</t>
+          <t>5M2H+88V، الريان، الحسيني 85537، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>+966146611080</t>
+          <t>+966555546590</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3242,12 +3206,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC+%D8%A8%D8%AF%D8%B1+%D8%A7%D9%84%D8%BA%D9%86%D8%A7%D9%85+%D8%A7%D8%A8%D9%88+%D9%85%D9%88%D9%81%D9%82%E2%80%AD/data=!4m7!3m6!1s0x1572bb7a38694511:0x18eae6128e21820b!8m2!3d29.9968532!4d40.2187137!16s%2Fg%2F11c42nl1xr!19sChIJEUVpOHq7chURC4IhjhLm6hg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/the_black_knight/data=!4m7!3m6!1s0x3e37eb1826d17bb1:0xf7551dc276018b2a!8m2!3d25.4210787!4d49.7161844!16s%2Fg%2F11fl7bbhmr!19sChIJsXvRJhjrNz4RKosBdsIdVfc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>عيادة المعالج بدر الغنام ابو موفق</t>
+          <t>the_black_knight</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3255,24 +3219,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5489، مخطط غرب الاقليمي، West Regional Road Subdivision, 8062, سكاكا 72311، المملكة العربية السعودية</t>
+          <t>CPC8+CFM، العمران 36355، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>+966565448536</t>
+          <t>+966551717876</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3280,12 +3236,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D8%AC%D9%88%D8%B1%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e98992b2676741:0x896699d2aad0404a!8m2!3d21.2791521!4d40.4124523!16s%2Fg%2F11h8b3tmxg!19sChIJQWdnspKJ6RURSkDQqtKZZok?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC%D9%87+%D8%A7%D9%85+%D8%B3%D8%A7%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15efdf17f1d71305:0xf406cb93889c031c!8m2!3d19.8731289!4d42.4998689!16s%2Fg%2F11grv34cdg!19sChIJBRPX8Rff7xURHAOciJPLBvQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>روائع الجوري للبصريات</t>
+          <t>المعالجه ام سامي</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3295,22 +3251,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>7CH6+MX8، شبرا، الطائف 26522، المملكة العربية السعودية</t>
+          <t>7598 2928، بيشة 67758، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>+966127321763</t>
+          <t>+966559120087</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3318,12 +3274,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D8%A8%D9%88+%D8%B3%D9%84%D8%B3%D9%84%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15bdc62adf58c4b1:0x8ec0382ba157b3e6!8m2!3d24.4296278!4d39.4890603!16s%2Fg%2F11hb751wpd!19sChIJscRY3yrGvRUR5rNXoSs4wI4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%A7%D9%85%D8%B1%D8%A7%D8%B6+%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%84%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%AD%D8%B3%D9%86+%D8%A7%D9%84%D8%B9%D9%85%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e5fc8de7b655:0x189d21e6ec8dd173!8m2!3d26.3571956!4d50.1770602!16s%2Fg%2F11hf034tvl!19sChIJVbbnjfzlST4Rc9GN7OYhnRg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ابو سلسله</t>
+          <t>عيادة الامراض الجلدية للدكتور حسن العماري</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3331,29 +3287,41 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CFHQ+VJ3، العزيزية، المدينة المنورة 42379، المملكة العربية السعودية</t>
+          <t>طريق الملك سعود، في مستشفى الحرس الوطني، الظهران، الدمام 34232،، الظهران المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>+966537953466</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>+966505821599</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://gldiah.com/</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%84%D8%AC%D8%A9+%D8%A7%D9%84%D8%B4%D8%B9%D8%A8%D9%8A%D8%A9+%D8%A7%D9%85+%D8%B1%D8%A7%D8%B4%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e2fa9c858b8f1e1:0x17da40367d9ac895!8m2!3d24.6976415!4d46.8422471!16s%2Fg%2F11hcds6m08!19sChIJ4fG4WMipLz4RlciafTZA2hc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%B2%D9%84+%D8%A7%D9%85+%D8%B3%D8%B9%D8%AF+%D8%A7%D9%84%D8%B3%D8%AD%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2545545beaae3f:0xe7e7eaac95c9a4bd!8m2!3d24.1340929!4d47.2862875!16s%2Fg%2F11hzblq9m1!19sChIJP67qW1RFJT4RvaTJlazq5-c?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>المعالجة الشعبية ام راشد</t>
+          <t>منزل ام سعد السحيم</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3363,39 +3331,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>جبل باطن، السعادة، الرياض 14257، المملكة العربية السعودية</t>
+          <t>2414، 8251، الخالدية، 2414، الخالدية، الخرج 16274 8251، الخرج 16274، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>+966507492190</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://iwtsp.com/966532674867</t>
-        </is>
-      </c>
+          <t>+966552404933</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%8A%D9%81%D8%A7+%D9%84%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D9%84%D9%8A%D8%B2%D8%B1+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49fd0008060ae3:0xb643b7df9e59a7f!8m2!3d26.3993017!4d50.0449002!16s%2Fg%2F11ld2k3552!19sChIJ4woGCAD9ST4Rf5rl-X07ZAs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%87%D8%AF%D9%8A+%D9%85%D8%A7%D9%87%D8%B1+-+%D8%B7%D8%A8%D9%8A%D8%A8%D9%87+%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D9%87+%D9%88%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0xac190b46688a8e4f:0x29c03892e5d0118f!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11vpwl20_h!19sChIJT46KaEYLGawRjxHQ5ZI4wCk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>عيادات ايفا للجلدية والأسنان والليزر الدمام</t>
+          <t>دكتور هدي ماهر - طبيبه الجلديه والتجميل</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3403,41 +3367,29 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>بن عبد العزيز، 3872 6211 طريق الملك فهد، الدمام 32263، المملكة العربية السعودية</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>+966536022098</t>
+          <t>+966598971099</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://evaclinics.com.sa/</t>
+          <t>https://www.instagram.com/dr.hoda_maher/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Top+Doctors+Specialist,+Dr.+Hanan+Elshafey/data=!4m7!3m6!1s0x15bd95a0ae5ad361:0x74f2668980352573!8m2!3d24.4685448!4d39.6629689!16s%2Fg%2F11fkf28cwp!19sChIJYdNarqCVvRURcyU1gIlm8nQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%B9+%D9%84%D9%88%D8%A7%D8%B2%D9%85+%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05c14cc6f801:0x88852ebc6bece5ff!8m2!3d24.6592376!4d46.7061861!16s%2Fg%2F11h2fqd7r4!19sChIJAfjGTMEFLz4R_-Xsa7wuhYg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Top Doctors Specialist, Dr. Hanan Elshafey</t>
+          <t>بيع لوازم طبية</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3447,14 +3399,10 @@
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>8664-8590 طريق الملك عبدالله الفرعي، 4863، الخالدية، المدينة المنورة 42317، المملكة العربية السعودية</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>+966567913454</t>
+          <t>+966535267832</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3462,12 +3410,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%AD+%D8%A7%D9%84%D9%85%D8%B2%D8%AD%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b266bdc94db:0x17396603dde56f01!8m2!3d24.6262188!4d46.663245!16s%2Fg%2F11j0j007zt!19sChIJ25TcayYbLz4RAW_l3QNmORc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%8A%D8%A7%D8%B3%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c205412b003fc3:0xb8dc2fb04335fd88!8m2!3d21.4235126!4d39.8554186!16s%2Fg%2F11h4v45b30!19sChIJwz8AK0EFwhURiP01Q7Av3Lg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>صالح المزحاني</t>
+          <t>ياسر</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3475,24 +3423,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7449 الصمة الاكبر،، العريجاء، 2557، الرياض 12756، المملكة العربية السعودية</t>
+          <t>CVF4+C53، الروضة، مكة 24236، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>+966557670711</t>
+          <t>+966548629979</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -3500,12 +3440,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D9%82%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%B4%D9%8A%D8%AE+%D8%B3%D8%B9%D8%AF+%D8%B9%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%B3%D8%AD%D9%8A%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15979b6abcbc6b0f:0x4ed53cfca67ca0c!8m2!3d24.8940371!4d40.5084918!16s%2Fg%2F11h25hx4j0!19sChIJD2u8vGqblxURDMpnys9T7QQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%AF+%D8%A7%D9%84%D9%82%D8%A7%D8%AF%D8%B1+%D8%A3%D8%A8%D9%88+%D8%AF%D9%82%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15f028156ae71413:0x47d462de1d426d7!8m2!3d19.9622211!4d42.5692925!16s%2Fg%2F11c5bd2v0x!19sChIJExTnahUo8BUR1ybU4S1GfQQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>مقراء الشيخ سعد عواد السحيمي</t>
+          <t>عبد القادر أبو دقن</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3515,22 +3455,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VGV5+J99، الحناكية 42644، المملكة العربية السعودية</t>
+          <t>4595، المروج، Al Muruj,, بيشة 67719، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>+966541424240</t>
+          <t>+966555761877</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3538,12 +3478,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AF%D9%81%D8%A7%D8%AF%D9%81+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f583759a2de39:0xc5427c08c9693125!8m2!3d26.3588813!4d43.9586943!16s%2Fg%2F11dfjcn2sq!19sChIJOd6iWTdYfxURJTFpyQh8QsU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%83%D9%88%D8%B1%D8%A7%D9%84+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2ee29b1451abe1:0x999c4a0e91fcc2a7!8m2!3d24.7263083!4d46.6909779!16s%2Fg%2F11c52_0b1w!19sChIJ4atRFJviLj4Rp8L8kQ5KnJk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>مؤسسة دفادف الطبية</t>
+          <t>مجمع عيادات كورال للخدمات الطبية</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3553,35 +3493,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>481</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7121 طريق الأمير عبدالاله بن عبدالعزيز، الصفراء بريدة 52382 3235 طريق الأمير عبدالاله بن عبدالعزيز، 3235، الصفراء، بريدة 52382، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، حي الملك سلمان، الرياض 12432، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>+966566003059</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>+966920002720</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>http://coral.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D9%88%D9%82%D8%A7%D8%A6%D9%8A+%D8%A8%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49fb8697f30b77:0x3d4b9d0c4accbc29!8m2!3d26.448815!4d50.098309!16s%2Fg%2F11fn2z1wzn!19sChIJdwvzl4b7ST4RKbzMSgydSz0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/enas/data=!4m7!3m6!1s0x15c2059fa625e7bd:0x1004807cadde17d4!8m2!3d21.4276829!4d39.853057!16s%2Fg%2F11vrvxsvnf!19sChIJveclpp8FwhUR1BferXyABBA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>الطب الوقائي بالدمام</t>
+          <t>enas</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3589,24 +3533,16 @@
           <t>طبيب</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>شارع الملك عبدالعزيز، حي السلام، الدمام 32416، المملكة العربية السعودية</t>
+          <t>alsubhani, مكة 24236، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>+966920022231</t>
+          <t>+966505544834</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3614,12 +3550,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B3%D9%8A%D9%84%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2ee29b43ec58cf:0xe44e99916ce623f!8m2!3d24.7383254!4d46.6425657!16s%2Fg%2F11g6bgp9v1!19sChIJz1jsQ5viLj4RP2LOFpnpRA4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%85%D9%84%D8%AF%D8%A7%D9%86+%D9%84%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2efd690d7042f3:0xb731990e197acfdd!8m2!3d24.7654096!4d46.6929864!16s%2Fg%2F11b8v9t5lm!19sChIJ80JwDWn9Lj4R3c96GQ6ZMbc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>مركز سيلين</t>
+          <t>عيادات املدان للجلدية والاسنان</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3629,35 +3565,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>567</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>7973 12364 2896 الشارقة طريق الإمام سعود بن عبد العزيز بن محمد حي، الرياض 12364، المملكة العربية السعودية</t>
+          <t>Dist, 2682 طريق ابي بكر الصديق، التعاون، 6495, الرياض 12475، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>+966114941999</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>+966114501166</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://amldan.com/</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%AC%D8%A7%D9%85%D8%B9%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15764418f48ac0a3:0xcdc6944ae0f24b0!8m2!3d27.5643142!4d41.7000343!16s%2Fg%2F11ddxsxlb2!19sChIJo8CK9BhEdhURsCQPrkRp3Aw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%83%D9%84%D8%A7%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3db18e663d645:0xfdbd1c6b22f50682!8m2!3d21.6000647!4d39.1206729!16s%2Fg%2F11kj0bdsvz!19sChIJRdZj5hjbwxURggb1Imscvf0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>العيادات الطبية الجامعية</t>
+          <t>عيادات كلاي</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3667,35 +3607,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7082، 4901، اجا، حائل 55471، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، الشاطئ، جدة 23513، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>+966165109500</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>+966503030712</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://clay-clinic.com/</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D9%88%D8%B2+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15f02bfe08e97a93:0x71bff2c143cd27ed!8m2!3d20.0143928!4d42.6212857!16s%2Fg%2F11vzxpkv68!19sChIJk3rpCP4r8BUR7SfNQ8Hyv3E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AA%D8%A7%D9%84%D9%8A%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2effd5bec2c107:0x4aeb8b303493956e!8m2!3d24.7871737!4d46.7896481!16s%2Fg%2F11b6yhw_qb!19sChIJB8HCvtX_Lj4RbpWTNDCL60o?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>مجمع روز المتخصص الطبي</t>
+          <t>مجمع تالين الطبي</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3705,35 +3649,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>5.939</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>شارع عمر بن الخطاب، الخزامى، بيشة 67611، المملكة العربية السعودية</t>
+          <t>طريق الصحابة، اشبيلية، الرياض 13225، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>+966176200555</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>+966112020111</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>http://taleenmedicals.com/ar</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%B3%D9%88%D8%A7%D9%83+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e906ff205c81:0xf1ec92cbab228f6e!8m2!3d26.2810089!4d50.20517!16s%2Fg%2F11rv2vvyn1!19sChIJgVwg_wbpST4Rbo8iq8uS7PE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D8%B3%D8%AA%D8%B4%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e4a0120c13ac92d:0xce497aad009a98cc!8m2!3d26.5613401!4d50.0214573!16s%2Fg%2F11h05mm_yy!19sChIJLck6wSABSj4RzJiaAK16Sc4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>عيادات المسواك الطبية</t>
+          <t>مجمع العيادات الاستشارية</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3743,39 +3691,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>76J4+C3، طريق الملك عبدالله الفرعي، الخبر الجنوبية، الخبر 34621، المملكة العربية السعودية</t>
+          <t>7710 شارع ٢ (أ)، الخامسة، 4433, القطيف‎ 32633، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>+966598918291</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>https://almeswak.com/</t>
-        </is>
-      </c>
+          <t>+966532434304</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SATORP+Medical+Clinic/data=!4m7!3m6!1s0x3e35a9c0c592fceb:0x7058da77201bc319!8m2!3d26.9661227!4d49.498955!16s%2Fg%2F11h31v4z8k!19sChIJ6_ySxcCpNT4RGcMbIHfaWHA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B2%D9%84%D9%81%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157fc3e37afbe529:0xd29f83a03ba82d82!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11gxm9k_wb!19sChIJKeX7euPDfxURgi2oO6CDn9I?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SATORP Medical Clinic</t>
+          <t>عيادات الزلفي الطبي</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3785,39 +3729,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>XF8X+CHW، الجبيل 35741، المملكة العربية السعودية</t>
-        </is>
-      </c>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>+966133434704</t>
+          <t>+966503949408</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>http://www.satorp.com/</t>
+          <t>https://instagram.com/zm_clinic?igshid=YmMyMTA2M2Y=</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A8%D9%86%D8%AF%D8%B1+%D8%A7%D9%84%D8%B4%D9%87%D8%B1%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15c3dbe411fc07d3:0x4d02361c9f75bb83!8m2!3d21.5585354!4d39.1237942!16s%2Fg%2F11gnpj3vdf!19sChIJ0wf8EeTbwxURg7t1nxw2Ak0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%B9%D9%8A%D9%88%D9%86+%D9%88%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+%D8%A7%D9%84%D8%AC%D8%A8%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e35115056bb8ea5:0xbc7afa98211f3904!8m2!3d27.1586875!4d49.5355625!16s%2Fg%2F11pb2j0nmk!19sChIJpY67VlARNT4RBDkfIZj6erw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>عيادة الدكتور بندر الشهرى</t>
+          <t>مجمع مغربي للعيون والأسنان - الجبيل</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3827,39 +3767,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>248</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>طريق الكورنيش الفرعي، الشاطئ، جدة 23412، المملكة العربية السعودية</t>
+          <t>5G5P+F6, Industrial، الجبيل 35817، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>+966539044113</t>
+          <t>+966133470000</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://bandaralshehri.com/</t>
+          <t>https://www.magrabi.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%86%D9%81%D9%86%D8%AA%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28+%D9%81%D8%B1%D8%B9+%D8%B9%D9%86%D9%8A%D8%B2%D8%A9%29%E2%80%AD/data=!4m7!3m6!1s0x1581ed3bd9b834a5:0x98503a15f07c7786!8m2!3d26.0835588!4d43.9782507!16s%2Fg%2F11j0bhsxyb!19sChIJpTS42TvtgRURhnd88BU6UJg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A8%D9%87+%D8%A7%D9%85+%D8%B4%D8%A7%D9%87%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c21cde5151c5fd:0x35385df85d596afc!8m2!3d21.4821964!4d39.7984544!16s%2Fg%2F11bymw4mmt!19sChIJ_cVRUd4cwhUR_GpZXfhdODU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>مجمع انفنتي الطبي ( فرع عنيزة)</t>
+          <t>الطبيبه ام شاهر</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3869,39 +3809,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>زامل العبدالله السليم، الريان، حي، عنيزة المملكة العربية السعودية</t>
+          <t>طريق المدينة المنورة، التنعيم، مكة 24223، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>+966163611191</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>https://heylink.me/Unaizah.infinity/</t>
-        </is>
-      </c>
+          <t>+966545475877</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%E2%80%AD/data=!4m7!3m6!1s0x3e2f07c7bda90015:0x41ae8b359925409c!8m2!3d24.685947!4d46.7664958!16s%2Fg%2F1tlbh0tc!19sChIJFQCpvccHLz4RnEAlmTWLrkE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%88%D9%84%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%A8%D8%A7%D8%AD%D8%A9+3%E2%80%AD/data=!4m7!3m6!1s0x15ef48799ab87a05:0x6ffea1296dfb4ea9!8m2!3d20.0876811!4d41.436918!16s%2Fg%2F11c6004m6y!19sChIJBXq4mnlI7xURqU77bSmh_m8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>مجمع عيادات الطب الحديث</t>
+          <t>مركز الرعاية الصحية الاولية بالباحة 3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3911,22 +3847,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>7449 شارع الأمير متعب بن عبدالعزيز، الربوة، الرياض 12835، المملكة العربية السعودية</t>
+          <t>4806، الازهر، الباحة 65733، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>+966114918003</t>
+          <t>+966177241080</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3934,12 +3870,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%86%D9%81%D9%86%D8%AA%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B1%D8%B3%29%E2%80%AD/data=!4m7!3m6!1s0x1583cb5b619b5e97:0x8b27333594a87709!8m2!3d25.8488174!4d43.508568!16s%2Fg%2F11fjs76nn9!19sChIJl16bYVvLgxURCXeolDUzJ4s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B9%D9%85%D8%B1+%D8%A7%D9%84%D8%B9%D9%85%D9%88%D8%AF%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15c3cfdcd40404e7:0x4ab2ff2fca216f46!8m2!3d21.5175625!4d39.2135625!16s%2Fg%2F11c5s82kyp!19sChIJ5wQE1NzPwxURRm8hyi__sko?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>مجمع انفنتي الطبي (فرع الرس)</t>
+          <t>مجمع الدكتور عمر العمودي الطبي المتخصص</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3949,35 +3885,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>طريق الملك فهد،، الحوطة، الرس 58838، المملكة العربية السعودية</t>
+          <t>G697+2C، الورود، جدة 23224، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>+966163390699</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>+966555611682</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://instagram.com/amoudiclinic?igshid=la7p2mkozs6x</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D9%86+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15a9b26de0602feb:0x2321a65da915bfcd!8m2!3d28.4402208!4d36.5502583!16s%2Fg%2F11c72l_8vf!19sChIJ6y9g4G2yqRURzb8VqV2mISM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A3%D9%86%D8%AF%D9%89+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e92736c6c9b1:0x28f26f7dc7ba1220!8m2!3d26.2825305!4d50.2005096!16s%2Fg%2F11h7b5lt_c!19sChIJscnGNifpST4RIBK6x31v8ig?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>مجمع عين الحياة الطبي</t>
+          <t>مجمع أندى للرعاية الصحية</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3992,17 +3932,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.575</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>7255 عمر و ابن العاص، المصيف، 5192 عمر و ابن العاص،، تبوك 47321، المملكة العربية السعودية</t>
+          <t>&amp; Nassar Building, 1st Floor Al Rabiah, الخبر الجنوبية، الخبر 34621، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+966920007167</t>
+          <t>+9668001183333</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4010,12 +3950,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D9%84%D9%82%D8%A7%D8%A1+%D8%A7%D9%84%D9%82%D8%B7%D8%B7+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2f05cf74dcc6bf:0xfb33b892a36ee607!8m2!3d24.5979951!4d46.6966642!16s%2Fg%2F11kk1c2tpd!19sChIJv8bcdM8FLz4RB-Zuo5K4M_s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D9%8A%D9%88%D8%B1+%D9%87%D9%8A%D9%84%D8%AB+Pure+Health+Clinics%E2%80%AD/data=!4m7!3m6!1s0x3e2eff007a70b33f:0x805c849499483eb2!8m2!3d24.802633!4d46.7610207!16s%2Fg%2F11ty16h4k1!19sChIJP7NwegD_Lj4Rsj5ImZSEXIA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>عيادة لقاء القطط البيطريه</t>
+          <t>عيادات بيور هيلث Pure Health Clinics</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4030,30 +3970,34 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>السويدي، HMXW+8JC, سلطانه، الرياض 12656، المملكة العربية السعودية</t>
+          <t>طريق الشيخ حسن بن حسين بن علي، الشيخ، الرياض 13243، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>+966536866373</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>+966920019018</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://purehealth.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%84+%D8%A7%D9%84%D8%B9%D8%A7%D8%A6%D9%84%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d076e0c85a1f:0xd32e14c6a8c872a8!8m2!3d21.5762639!4d39.1573496!16s%2Fg%2F1pv5_1mzm!19sChIJH1rI4HbQwxURqHLIqMYULtM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D9%82%D9%88%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d138b4971d69:0x4c3d6b79cc8ce4de!8m2!3d21.5945154!4d39.215842!16s%2Fg%2F11xrb1w3c!19sChIJaR2XtDjRwxUR3uSMzHlrPUw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>مجمع كل العائلة الطبي</t>
+          <t>العيادات الشاملة التخصصية لقوى الأمن بجدة</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4063,35 +4007,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>679</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>حمد الجاسر، الروضة، جدة 23434، المملكة العربية السعودية</t>
+          <t>صاري فرعي، الزهراء، جدة 23424، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>+966126820226</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>+966112437741</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.moi.med.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A8%D8%B4%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c20569d9dc2e7d:0x298254c6d5399828!8m2!3d21.3682345!4d39.83739!16s%2Fg%2F11bzvzmnt8!19sChIJfS7c2WkFwhURKJg51cZUgik?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%AB%D9%88%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f02d330c410ff:0x330a9381aee8ec9e!8m2!3d24.7110898!4d46.6708661!16s%2Fg%2F1pp2tjytp!19sChIJ_xDEMNMCLz4RnuzoroGTCjM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>مجمع البشري الطبي العام</t>
+          <t>مركز الرثوية الطبي</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4101,39 +4049,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.289</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>شارع عتاب ابن أسيد، بطحاء قريش، مكة 24361، المملكة العربية السعودية</t>
+          <t>PM6C+C8Q، طريق العروبة الفرعي، العليا، الرياض 12333، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>+966125315554</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>http://www.bishrimedical.com/</t>
-        </is>
-      </c>
+          <t>+966114163322</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%A3%D9%86%D8%AF%D9%84%D8%B3+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cfa47400533d:0x84088c0471d90c47!8m2!3d21.5064553!4d39.180598!16s%2Fg%2F11f6dtr4_d!19sChIJPVMAdKTPwxURRwzZcQSMCIQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%85%D8%A7%D8%AC%D8%AF+%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D8%B4+%D8%A7%D9%84%D9%84%D8%A7%D9%85%D8%B1%D8%A7%D8%B6+%D8%A7%D9%84%D8%A8%D8%A7%D8%B7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b3bd29d0f67:0x8d4a7d2151fdee71!8m2!3d24.5986528!4d46.6454965!16s%2Fg%2F11v0jlyn6h!19sChIJZw-d0jsbLz4Rce79USF9So0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>مؤسسة الأندلس الطبية</t>
+          <t>عيادة الدكتور ماجد الدويش اللامراض الباطنية</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4143,22 +4087,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>G54J+H6Q, شارع ابراهيم شاكر، حي, البغدادية الغربية، جدة 21341، المملكة العربية السعودية</t>
+          <t>عائشة بنت أبي بكر، ظهرة البديعة، الرياض 12784، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>+966126454599</t>
+          <t>+966564521763</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4166,12 +4110,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AB%D9%85%D9%8A%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f01068934405b:0x4272e60b56d71135!8m2!3d24.7397621!4d46.7795488!16s%2Fg%2F12hlv65xp!19sChIJW0A0iQYBLz4RNRHXVgvmckI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B3%D8%A7%D8%A8%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3c96b8d6d67d9:0xb6dcc33c36efc72!8m2!3d21.4247123!4d39.2205872!16s%2Fg%2F11bzx64700!19sChIJ2WdtjWvJwxURcvxuwzPMbQs?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>مجمع الثميري الطبي</t>
+          <t>سابا الطبية</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4181,22 +4125,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>8810 4432 شارع خالد بن الوليد، الروضة، الرياض 13211، المملكة العربية السعودية</t>
+          <t>بجانب شركة الحدادة المحدودة، الاستاد الرياضي، المحجر، جدة 22424، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>+966112320707</t>
+          <t>+966920016363</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4204,12 +4148,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%8A%D9%81%D9%88%D8%B1%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3a0f733c80f:0x2fa3abc300c44430!8m2!3d24.7756384!4d46.6650627!16s%2Fg%2F11qnzmxkbk!19sChIJD8gz96DjLj4RMETEAMOroy8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%86%D8%AD%D9%84%D9%87+%D9%88%D8%A7%D9%84%D9%86%D8%AD%D8%A7%D9%84+%D9%84%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e379134150de939:0x40e2297526cd0b46!8m2!3d25.354604!4d49.5853404!16s%2Fg%2F11csrbj7cw!19sChIJOekNFTSRNz4RRgvNJnUp4kA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>عيادات ايفوريا</t>
+          <t>مركز النحله والنحال للحجامه</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4219,22 +4163,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز الفرعي، الغدير، الرياض 11564، المملكة العربية السعودية</t>
+          <t>Al Amir Majid St, العويمرية، الهفوف‎ 36362، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>+966594944603</t>
+          <t>+966135804111</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4242,12 +4186,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e37968d32c6bc7f:0x9bfbc31ab2c629ab!8m2!3d25.3908788!4d49.5891792!16s%2Fg%2F12m9g6yy7!19sChIJf7zGMo2WNz4RqynGshrD-5s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%84%D9%8A%D8%B2%D8%B1Doctor+laser+%D9%84%D8%B7%D8%A8+%D9%88%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86+%D8%AA%D8%B5%D8%AD%D9%8A%D8%AD+%D8%A7%D9%84%D9%86%D8%B8%D8%B1+%D8%A7%D9%84%D9%84%D9%8A%D8%B2%D9%83+%D8%A7%D9%84%D9%84%D8%A7%D8%B2%D9%83+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e2f03d7a48b9815:0x234ce55e33485305!8m2!3d24.6745573!4d46.6913914!16s%2Fg%2F11nfbd8nm0!19sChIJFZiLpNcDLz4RBVNIM17lTCM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>عيادة شركة الكهرباء</t>
+          <t>دكتور ليزرDoctor laser لطب وجراحة العيون تصحيح النظر الليزك اللازك الرياض</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4257,39 +4201,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>9HRQ+9M3، الفاضلية، الهفوف‎ 36361، المملكة العربية السعودية</t>
+          <t>المربع، الرياض 11564، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>+966133334050</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>https://ramclinics.net/</t>
-        </is>
-      </c>
+          <t>+966551048002</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D8%B3%D8%AA%D8%B4%D8%A7%D8%B1%D9%83+%D8%A7%D9%84%D9%85%D8%A7%D8%B3%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15e9893df9dea0e9:0x8237213461163b8d!8m2!3d21.2882475!4d40.4165976!16s%2Fg%2F11cmx7t14z!19sChIJ6aDe-T2J6RURjTsWYTQhN4I?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D8%A8%D9%88+%D8%B4%D8%AC%D8%B1%D8%A9+%D8%A7%D9%85%D9%84%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x15b0a7035ca40dcd:0x6c6d4f5e041657b1!8m2!3d25.030609!4d37.2590214!16s%2Fg%2F11bz08yvmt!19sChIJzQ2kXAOnsBURsVcWBF5PbWw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>مجمع مستشارك الماسي الطبي العام</t>
+          <t>مستوصف ابو شجرة املج</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4299,22 +4239,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>7CQ8+7JX, Aljaish Rd, شبرا، الطائف 26522، المملكة العربية السعودية</t>
+          <t>الروضة، املج 48311، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>+966127327171</t>
+          <t>+966143821348</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4322,12 +4262,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db8625db4931:0xd56435c41108b777!8m2!3d21.5947751!4d39.1316423!16s%2Fg%2F11hycqwvyx!19sChIJMUnbJYbbwxURd7cIEcQ1ZNU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B3%D8%B9%D9%8A%D8%AF+%D8%A7%D9%84%D9%88%D8%AF%D8%B9%D8%A7%D9%86%D9%8A+%D8%A7%D8%B3%D8%AA%D8%B4%D8%A7%D8%B1%D9%8A+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86+-+%D8%A7%D9%84%D8%AE%D8%B1%D8%AC+Dr.+Saeed+AL-Wadani+Clinic+-+Al-Kharj%E2%80%AD/data=!4m7!3m6!1s0x3e254ff79600242b:0x4af16abad9e1fa28!8m2!3d24.1584589!4d47.3061495!16s%2Fg%2F11t_m7gfrz!19sChIJKyQAlvdPJT4RKPrh2bpq8Uo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>عيادة بيطرية</t>
+          <t>عيادة الدكتور سعيد الودعاني استشاري العيون - الخرج Dr. Saeed AL-Wadani Clinic - Al-Kharj</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4337,35 +4277,39 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>الزهراء، 3427 علي طنطاوي، حي 6493، جدة 23521، المملكة العربية السعودية</t>
+          <t>alworood neighborhood, 3139 طريق الملك عبدالله، البرج، الخرج 16278، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>+966585625553</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
+          <t>+966502060400</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>http://alwadaniclinic.com/</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%AF+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D9%84%D9%8A%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f00d9b86c8f2d:0x97598ab74c26048c!8m2!3d24.7198368!4d46.7896565!16s%2Fg%2F11c5617fbh!19sChIJLY9suNkALz4RjAQmTLeKWZc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B3%D9%8A%D9%85%D8%A7%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2efce4b0852873:0x8d3dad4a33fbc101!8m2!3d24.7967229!4d46.6989971!16s%2Fg%2F11bxflm_rg!19sChIJcyiFsOT8Lj4RAcH7M0qtPY0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>عيادات الرواد لطب الأسنان والجلدية والليزر</t>
+          <t>مركز سيماي الطبي</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4375,39 +4319,39 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>683</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>المنار، 6829 الإمام الشافعي الرياض حي الريان، الرياض 14222، المملكة العربية السعودية</t>
+          <t>طريق عثمان بن عفان الفرعي، الفلاح، الرياض 13314، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>+966114661199</t>
+          <t>+966112005333</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://alrowad-clinic.com/</t>
+          <t>https://wa.me/966550292664</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%8A%D8%A7%D8%B3%D8%B1+%D8%A8%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%82%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%8C+%D8%B7%D8%A8+%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AE%D8%B1%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e254f417b139d73:0x670d739835e9dca!8m2!3d24.1585357!4d47.306223!16s%2Fg%2F11v9vcrkh4!19sChIJc50Te0FPJT4Ryp1egznXcAY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D9%87+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%AE%D9%85%D9%8A%D8%B3+%D9%85%D8%B4%D9%8A%D8%B7+%D8%AD%D9%8A+%D8%A7%D9%84%D8%AD%D8%B3%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15fb5735e48e7461:0x455fd4092b5956b3!8m2!3d18.307965!4d42.6877742!16s%2Fg%2F11c6lvz94m!19sChIJYXSO5DVX-xURs1ZZKwnUX0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>عيادة دكتور ياسر بمجمع القارة الطبي ، طب اسنان الخرج</t>
+          <t>صفوه المهيدب لطب الاسنان خميس مشيط حي الحسام</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4417,39 +4361,39 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>776</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>دكتور ياسر سمير المعداوي, الخرج ، شارع الملك عبدالله بجوار كارفور ، مجمع القارة الطبي طب اسنان, الخرج المملكة العربية السعودية</t>
+          <t>4120، خميس مشيط 62481 6647، الحي، خميس مشيط المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>+966583210726</t>
+          <t>+966550952002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://instagram.com/yasser.samir.7125?igshid=OGQ5ZDc2ODk2ZA==</t>
+          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D9%85%D8%AD%D9%85%D8%AF+%D8%AD%D9%85%D9%8A%D8%AF+%D8%A7%D9%84%D8%B9%D9%86%D8%B2%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2effd91361e903:0x6bf3b1f470772bd3!8m2!3d24.7507591!4d46.7720648!16s%2Fg%2F11kb55kmx2!19sChIJA-lhE9n_Lj4R0yt3cPSx82s?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%86%D9%8A%D8%B3+%D8%A7%D9%84%D8%A8%D8%A7%D8%AD%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15ef4618c4139361:0x3304ee8974822ba6!8m2!3d20.0557102!4d41.4470353!16s%2Fg%2F11bbrlh64w!19sChIJYZMTxBhG7xURpiuCdInuBDM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>عيادة الدكتور محمد حميد العنزي</t>
+          <t>عيادات نيس الباحه</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4459,35 +4403,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>617</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>RUQA7074، 7074 4287 الشيخ حسن بن حسين بن علي، الملك فيصل، الرياض 13248، المملكة العربية السعودية</t>
+          <t>205، الازهر، الباحة 65732، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>+966500125785</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
+          <t>+966920012071</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>http://neesdent.com/</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B3%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%A5%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+Smile+Plaza+dental+clinic%E2%80%AD/data=!4m7!3m6!1s0x15c21adce0d7637b:0x63b5f7fe36d7af73!8m2!3d21.3973318!4d39.7990416!16s%2Fg%2F11csrrjywz!19sChIJe2PX4NwawhURc6_XNv73tWM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84+%D8%A7%D9%84%D8%A5%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x156c0d99a69e5509:0x7c8d8488b4ed7f3d!8m2!3d30.9770061!4d41.0069317!16s%2Fg%2F11g7_fp2gl!19sChIJCVWeppkNbBURPX_ttIiEjXw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>مجمع ساحة الإبتسامة لطب الأسنان Smile Plaza dental clinic</t>
+          <t>مستقبل الإبتسامة لطب الأسنان</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4497,39 +4445,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3984 محمد صالح قزاز، الخالدية، 6302، مكة 24232، المملكة العربية السعودية</t>
+          <t>7705 الامير سلطان بن سلمان, Al Misa Ediyah, عرعر 73311، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>+966500554938</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>https://smileplaza-sua.com/</t>
-        </is>
-      </c>
+          <t>+966559007858</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B2%D9%85%D8%B1%D8%AF+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0100ced31c71:0x473cd4c86c4de49d!8m2!3d24.7534384!4d46.792993!16s%2Fg%2F11kqdvlxc0!19sChIJcRzTzgABLz4RneRNbMjUPEc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D8%B2%D8%A7%D9%81+%D9%84%D8%B2%D8%B1%D8%A7%D8%B9%D8%A9+%D9%88%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49fbbe86cb8647:0xe8723018d9051318!8m2!3d26.4568575!4d50.1239837!16s%2Fg%2F11cmfckr8k!19sChIJR4bLhr77ST4RGBMF2Rgwcug?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>مجمع الزمرد العالي الطبي</t>
+          <t>عيادات مزاف لزراعة وتجميل الأسنان</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4539,39 +4483,39 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>شارع عبدالرحمن الناصر، النهضة، الرياض 13221، المملكة العربية السعودية</t>
+          <t>F44F+PHX, Khaleej Rd, الشاطئ الشرقي، الدمام 32413، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>+966548082176</t>
+          <t>+966920009119</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://darzmord.com/</t>
+          <t>https://instagram.com/mazsafdc</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B5%D9%81%D8%AF+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D9%A3+Safad+Dental+Center+3%E2%80%AD/data=!4m7!3m6!1s0x3e2ee5163b034ff9:0x1ba9d47bbcb0e4c9!8m2!3d24.8174996!4d46.6439865!16s%2Fg%2F11fqy5hgrz!19sChIJ-U8DOxblLj4RyeSwvHvUqRs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%AF%D9%90%D9%86%D8%AA+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15e98eb61de4c7f9:0xee7f93e726c35188!8m2!3d21.2509255!4d40.4115397!16s%2Fg%2F11b6f18tfx!19sChIJ-cfkHbaO6RURiFHDJueTf-4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>مجمع صفد لطب الأسنان ٣ Safad Dental Center 3</t>
+          <t>مجمع دِنت لطب الأسنان</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4581,39 +4525,39 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>421</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>طريق أنس ابن مالك، King AbdulAziz rd Intersection with, الرياض 11451، المملكة العربية السعودية</t>
+          <t>العمل, الطائف 26513، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>+966920009146</t>
+          <t>+966127441000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>http://www.safadcenters.com/</t>
+          <t>https://www.instagram.com/dentclinictaif/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%86%D8%B8%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2fab48b8fb4159:0x24f27d2f6fe95d19!8m2!3d24.814485!4d46.878984!16s%2Fg%2F11nwwsls3s!19sChIJWUH7uEirLz4RGV3pby998iQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%83%D9%88%D9%83%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3da19fd7d312f:0x20c8801d18fffde9!8m2!3d21.620846!4d39.138353!16s%2Fg%2F1hg4rh1fq!19sChIJLzF9_RnawxUR6f3_GB2AyCA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>صفوة المهيدب لطب الأسنان النظيم</t>
+          <t>عيادات كوكب الأسنان</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4623,39 +4567,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>226</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>طريق خريص، حي الندوة، الرياض 14814، المملكة العربية السعودية</t>
+          <t>Prince sultan street، النعيم، جدة 23526، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>+966555960968</t>
+          <t>+966536396160</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
+          <t>https://planetdentalclinics.com/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91b287b9f1203:0x55218248d89eeafe!8m2!3d24.0209956!4d38.1930001!16s%2Fg%2F11ghg2xpw7!19sChIJAxKfeygbuRUR_uqe2EiCIVU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86,%D8%A7%D9%84%D9%85%D9%84%D9%82%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3f224267e6d:0x815eb7842abc5a8f!8m2!3d24.7905555!4d46.6224126!16s%2Fg%2F11v441xt65!19sChIJbX4mJPLjLj4Rj1q8KoS3XoE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>عيادات الاسنان التخصصية</t>
+          <t>المهيدب لطب الأسنان,الملقا</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4665,35 +4609,39 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>285</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>25CV+96R، النخيل، ينبع 46451، المملكة العربية السعودية</t>
+          <t>QJRC+7X9، الملقا، 6501Al Imam Saud Ibn Faysal R، الرياض 13521، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>+966533809946</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+          <t>+966568306490</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.almuhaidibdental.com/</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A8%D8%B3%D9%85%D8%AA%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A8%D8%B9%D8%B1%D8%B9%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x156c0dc6e5fe867b:0x9ab81d76a7b40e3!8m2!3d30.9805052!4d41.0224294!16s%2Fg%2F11c4939tw4!19sChIJe4b-5cYNbBUR40B7ateBqwk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D9%85%D8%A7%D8%B1%D8%AA+%D9%83%D9%84%D9%8A%D9%86%D9%8A%D9%83+Smart+Clinics+%28+%D8%A7%D8%B3%D9%86%D8%A7%D9%86+-+%D8%AC%D9%84%D8%AF%D9%8A%D8%A9+-+%D9%84%D9%8A%D8%B2%D8%B1+-+%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%29%E2%80%AD/data=!4m7!3m6!1s0x157f574b4dbf33e3:0xe05359d5bf9d1fcd!8m2!3d26.4168186!4d43.9287532!16s%2Fg%2F11c45mkhxv!19sChIJ4zO_TUtXfxURzR-dv9VZU-A?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>مجمع بسمتي المتخصص لطب الأسنان بعرعر</t>
+          <t>عيادات سمارت كلينيك Smart Clinics ( اسنان - جلدية - ليزر - تجميل )</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4703,35 +4651,39 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>الشارع الأصفر، الروضة، عرعر 73311، المملكة العربية السعودية</t>
+          <t>3320 طريق أبو بكر الصديق، حي النهضة، بريدة 52389، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>+966591249213</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
+          <t>+966163822666</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://smartclinics.com.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Origin+of+care+clinics/data=!4m7!3m6!1s0x15ef456d0b18f2c3:0x797f509fb51d40f!8m2!3d20.021069!4d41.4741633!16s%2Fg%2F11f615p0bc!19sChIJw_IYC21F7xURD9RR-wn1lwc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85+%D8%AD%D9%8A+%D8%A7%D9%84%D8%AC%D9%84%D9%88%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fc4e45ddeb61:0xa8d62042869c4d7c!8m2!3d26.4338717!4d50.0666672!16s%2Fg%2F11c1qrz2k5!19sChIJYevdRU78ST4RfE2chkIg1qg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Origin of care clinics</t>
+          <t>صفوة المهيدب لطب الاسنان الدمام حي الجلوية</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4741,35 +4693,39 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.307</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2FCF+CMF، الباهر، الباحة 65525، المملكة العربية السعودية</t>
+          <t>طريق الأمير نايف بن عبدالعزيز، الجلوية، الدمام 32246، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>+966177360011</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
+          <t>+966507149054</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://almuhadeb-lp.com/damam1/1/</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%83%D9%86%D8%AA%D8%A7%D9%84+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+2%E2%80%AD/data=!4m7!3m6!1s0x3e2efd6449483835:0x4981dece9081a842!8m2!3d24.7587243!4d46.6962092!16s%2Fg%2F11cn3sdwdw!19sChIJNThISWT9Lj4RQqiBkM7egUk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Skin+Clinic/data=!4m7!3m6!1s0x3e49e7d813a59715:0x9c4fe61d380e2d4b!8m2!3d26.2925793!4d50.1824876!16s%2Fg%2F12hknzsvn!19sChIJFZelE9jnST4RSy0OOB3mT5w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>مركز كنتال لطب الأسنان 2</t>
+          <t>Skin Clinic</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4779,22 +4735,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>طريق ابي بكر الصديق الفرعي، النزهة، الرياض 12473، المملكة العربية السعودية</t>
+          <t>2262 Abu Al DWR Al Rumi, العليا، الخبر 34446، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>+966114567070</t>
+          <t>+966138992403</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4802,12 +4758,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%86%D8%A7%D8%B5%D8%B1+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A8%D8%AF%D9%88%D9%85%D8%A9+%D8%A7%D9%84%D8%AC%D9%86%D8%AF%D9%84%E2%80%AD/data=!4m7!3m6!1s0x150d2eff233a5a3d:0x1d72834e554bafa!8m2!3d29.8088769!4d39.8619687!16s%2Fg%2F11cm050wn1!19sChIJPVo6I_8uDRUR-rpU5TQo1wE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%B5%D8%A8%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fd51bb28f62fe7:0x4c03d83dbe59e95f!8m2!3d17.1537235!4d42.6450917!16s%2Fg%2F11mpchycm_!19sChIJ5y_2KLtR_RURX-lZvj3YA0w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>مجمع الناصر لطب الأسنان بدومة الجندل</t>
+          <t>صفوة المهيدب لطب الأسنان صبيا</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4817,35 +4773,39 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>579</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>طريق الأمير سلطان بن عبدالعزيز، السوق القديم، دومة الجندل 74664، المملكة العربية السعودية</t>
+          <t>٦٥٢١ طريق الملك عبد العزيز - حي المجد وحدة رقم ١٢، صبيا 85534، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>+966146223565</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
+          <t>+966503222984</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%8A%D8%B9%D9%82%D9%88%D8%A8+%D8%AF%D9%86%D8%AA+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+Jacob+Dent+Medical+Company%E2%80%AD/data=!4m7!3m6!1s0x15e35544184a8d2f:0x9b15bff591fe2051!8m2!3d18.2407193!4d42.5058536!16s%2Fg%2F11sj60lzr1!19sChIJL41KGERV4xURUSD-kfW_FZs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%8A%D8%B1%D9%85%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2eff22b485351f:0xf1909d2a11cf2ee3!8m2!3d24.7984779!4d46.7826736!16s%2Fg%2F11hyxtghk7!19sChIJHzWFtCL_Lj4R4y7PESqdkPE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>مجمع يعقوب دنت لطب الاسنان Jacob Dent Medical Company</t>
+          <t>صفوة المهيدب لطب الأسنان اليرموك</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4855,35 +4815,39 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>790</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>شارع إبراهيم الحديثي، الشرفية شارع الشيخ، أبها 62521، المملكة العربية السعودية</t>
+          <t>طريق الإمام عبدالله بن سعود بن عبدالعزيز، اليرموك، الرياض 13243، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>+966551999039</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
+          <t>+966546571601</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://forms.gle/59fq32kBjgNzhRfq7</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D8%B3%D9%86%D8%A7%D9%86+%D8%AF%D9%8A%D8%B2%D8%A7%D9%8A%D9%86%D8%B1%D8%B2+%D9%83%D9%84%D9%8A%D9%86%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2f0382d4f7495d:0xf5d29268d2ac7fe1!8m2!3d24.7380868!4d46.6873298!16s%2Fg%2F11kk9wqyk8!19sChIJXUn31IIDLz4R4X-s0miS0vU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D9%84%D8%A7%D8%B2%D9%85%D8%A7+Plasma+Clinics+%28+%D8%A7%D9%84%D9%82%D8%A7%D8%B6%D9%8A+%D8%B3%D8%A7%D8%A8%D9%82%D8%A7+%29%E2%80%AD/data=!4m7!3m6!1s0x15c3d0a64fa937ed:0xbf764a8139e39b82!8m2!3d21.6138522!4d39.1576475!16s%2Fg%2F11ckqjcsmb!19sChIJ7TepT6bQwxURgpvjOYFKdr8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>عيادات اسنان ديزاينرز كلينك</t>
+          <t>عيادات بلازما Plasma Clinics ( القاضي سابقا )</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4893,39 +4857,39 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.079</t>
+          <t>242</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالله، المرسلات، الرياض 14813، المملكة العربية السعودية</t>
+          <t>شارع حراء، البوادي، جدة 23531، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>+966554766000</t>
+          <t>+966542704924</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://ddclinic.sa/</t>
+          <t>https://plasmaclinics.com/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%83%D8%B1%D8%B3%D8%AA%D8%A7%D9%84+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e85ceee0ecf1:0x91f7287da7d4af07!8m2!3d26.3032913!4d50.2072363!16s%2Fg%2F11hczdcpkc!19sChIJ8ezg7lzoST4RB6_Up30o95E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Sigal+Dental+Clinics+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D8%AC%D8%A7%D9%84+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+%D8%A7%D9%84%D8%B6%D8%A8%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2f03733cf4ca4b:0x694c4f7f10d1d4f7!8m2!3d24.6959607!4d46.7025335!16s%2Fg%2F11c581fx82!19sChIJS8r0PHMDLz4R99TREH9PTGk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>كرستال الخبر</t>
+          <t>Sigal Dental Clinics عيادات سجال لطب الأسنان - الضباب</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4935,39 +4899,39 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>537</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>5124 طريق الأمير فيصل بن فهد، حي الحزام الاخضر، وحدة رقم 512، الخبر 34433 - 6086، الخبر 34433، المملكة العربية السعودية</t>
+          <t>شارع الأمير عبدالعزيز بن مساعد بن جلوي، السليمانية، الرياض 12221، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>+966502938294</t>
+          <t>+966920002002</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://docs.google.com/forms/d/e/1FAIpQLSfDUWC_jgPdc4K6Eu0aQS9OUFB6moRyy2n4llL-NagmRulZKg/viewform?usp=header</t>
+          <t>http://www.sigalclinics.com/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A7%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D9%85%D8%AD%D8%B3%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f07e882724fd3:0x33b57b22bde375a!8m2!3d24.7044083!4d46.8074061!16s%2Fg%2F11qpph1322!19sChIJ009ygugHLz4RWjfeK7JXOwM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A8%D8%B1%D9%8A%D9%82+%D8%A7%D9%84%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D9%87+%D9%84%D8%B7%D8%A8+%D9%88%D8%AA%D9%82%D9%88%D9%8A%D9%85+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f01caf3abca7b:0x73589db3dbc663f0!8m2!3d24.7660251!4d46.7847047!16s%2Fg%2F11bz0dnc5p!19sChIJe8qr88oBLz4R8GPG27OdWHM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>عيادة الدكتور احمد المحسن</t>
+          <t>مستوصف بريق الابتسامه لطب وتقويم الاسنان</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4977,22 +4941,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>PR34+QX6، الزبير بن العوام، السلام، الرياض 14226، المملكة العربية السعودية</t>
+          <t>7009 الشيخ حسن بن حسين بن علي، 2838، الخليج، الرياض 13223، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>+966544151500</t>
+          <t>+966112386999</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5000,12 +4964,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D8%A4%D9%89+%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb59fd4545a843:0xaa3ab9c5f8d49aeb!8m2!3d18.2974635!4d42.7082394!16s%2Fg%2F11byz6096k!19sChIJQ6hFRf1Z-xUR65rU-MW5Oqo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dr+Abdallah+Fawzy/data=!4m7!3m6!1s0x3e49e9d63b0c0813:0xc776bbac3406679f!8m2!3d26.3041597!4d50.1980472!16s%2Fg%2F11vdkkhvxx!19sChIJEwgMO9bpST4Rn2cGNKy7dsc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>مجمع رؤى المستقبل لطب الاسنان</t>
+          <t>Dr Abdallah Fawzy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5015,35 +4979,39 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3063, 8738, خميس مشيط 62431، المملكة العربية السعودية</t>
+          <t>الحزام الأخضر، الخبر 34445، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>+966172217700</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>+966541747553</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr.abdallahfawzy</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%87%D9%8A%D8%AF%D8%A8+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%28%D8%A7%D9%84%D9%86%D9%87%D8%B6%D8%A9%29%E2%80%AD/data=!4m7!3m6!1s0x3e2f0136f89aa9a9:0x51e2d3e07f993d31!8m2!3d24.7625625!4d46.7993125!16s%2Fg%2F11ty14kp3n!19sChIJqama-DYBLz4RMT2Zf-DT4lE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D8%A7%D8%AC%D9%8A+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+-+%D8%AC%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d723a7a67d1b:0xc76ede3ff7c697bc!8m2!3d21.6187272!4d39.1962395!16s%2Fg%2F11p51lbqs7!19sChIJG32mpyPXwxURvJfG9z_ebsc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>المهيدب لطب الأسنان(النهضة)</t>
+          <t>عاجي لطب الأسنان - جدة</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5058,34 +5026,30 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>989</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>QQ7X+2PV الخليج، الرياض الامير بندر بن عبدالعزيز، الخليج، الرياض 13223 13233، المملكة العربية السعودية</t>
+          <t>3455 طريق الامير متعب بن عبدالعزيز، حي المروة، 8092، جدة 23541، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>+966568308772</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>https://almuhiadibclinc.com/</t>
-        </is>
-      </c>
+          <t>+966545443777</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D9%84%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15a9add742c505df:0x5cd580a27189db4f!8m2!3d28.4051833!4d36.5273045!16s%2Fg%2F1ptyt6qzl!19sChIJ3wXFQtetqRURT9uJcaKA1Vw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3db0e155011eb:0xcaf2b53a194ccbd1!8m2!3d21.5591055!4d39.1250045!16s%2Fg%2F11n_y4vwb3!19sChIJ6xFQFQ7bwxUR0ctMGTq18so?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>مغلق</t>
+          <t>الابتسامة العربية لطب الأسنان</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5095,22 +5059,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>أبي إسحاق التاجر، الروضة، تبوك 47711، المملكة العربية السعودية</t>
+          <t>طريق الملك عبدالعزيز، الشاطئ، جدة 23412، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>+966144271844</t>
+          <t>+966506006013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5118,12 +5082,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bassam+Specialist+Medical+%D9%85%D8%AC%D9%85%D8%B9+%D8%A8%D8%B3%D8%A7%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D9%85%D8%AA%D8%AE%D8%B5%D8%B5+%D9%84%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d13a87690b67:0x5ca71b0490a1b2fd!8m2!3d21.5784385!4d39.1545791!16s%2Fg%2F11hyfym4pn!19sChIJZwtphzrRwxUR_bKhkAQbp1w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1%D8%A9+%D9%86%D8%A7%D9%87%D8%AF+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D8%B3%D9%8A+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+AlShammasi+Dental%E2%80%AD/data=!4m7!3m6!1s0x3e35ff898e4c0de5:0xe6838ea8e411db00!8m2!3d26.5663792!4d50.0124314!16s%2Fg%2F11f_f0fdsj!19sChIJ5Q1Mjon_NT4RANsR5KiOg-Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bassam Specialist Medical مجمع بسام الطبي المتخصص للأسنان</t>
+          <t>مجمع الدكتورة ناهد الشماسي لطب الأسنان AlShammasi Dental</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5133,22 +5097,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>6408 صاري فرعي، As Salamah District, 3180, جدة 23436، المملكة العربية السعودية</t>
+          <t>AlQuds St, حي الخزامى, 8319 شارع القدس, القطيف‎ 32633، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>+966126825169</t>
+          <t>+966138551001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5156,12 +5120,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%D8%A9+%D8%B2%D9%8A%D9%86%D8%A9+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15a9ad1bbd745ab5:0xf3f5cca488150f0d!8m2!3d28.3853738!4d36.5804432!16s%2Fg%2F11cm0w7yty!19sChIJtVp0vRutqRURDQ8ViKTM9fM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%84%D9%85%D8%B3%D8%A9+%D8%A5%D9%8A%DA%A4%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%84%D9%84%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607f5e7d7e64e3d:0x67026f806a0a3d9c!8m2!3d16.9802613!4d42.8285818!16s%2Fg%2F11g1brgmcx!19sChIJPU7m1-f1BxYRnD0KaoBvAmc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>عيادات ابتسامة زينة لطب الاسنان</t>
+          <t>مجمع لمسة إيفا الطبي للأسنان</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5171,39 +5135,35 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>طريق الأمير سلطان، الفيصلية الجنوبية، تبوك 47311، المملكة العربية السعودية</t>
+          <t>طريق الملك فهد، النهضة، أبو عريش 84717، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>+966599057071</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/zainah_smile_dental/</t>
-        </is>
-      </c>
+          <t>+966173271802</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B5%D9%81+%D8%A7%D9%84%D8%AB%D9%85%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f017470058efd:0x1c2618485af43300!8m2!3d24.7339298!4d46.7641478!16s%2Fg%2F11f3nkgqm0!19sChIJ_Y4FcHQBLz4RADP0WkgYJhw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Doctor+M+-+Haifa+Mall/data=!4m7!3m6!1s0x15c3cfdf307b67ff:0x14d0bb4e6ec5fe44!8m2!3d21.5278746!4d39.1774682!16s%2Fg%2F11kj0jk3h9!19sChIJ_2d7MN_PwxURRP7Fbk670BQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>نصف الثمن للنظارات</t>
+          <t>Doctor M - Haifa Mall</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5213,35 +5173,39 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>PQM7+HMC، شارع الحسن بن علي، الروضة، الرياض 13213، المملكة العربية السعودية</t>
+          <t>فنكي منكي, Gate 1، شارع فلسطين، الرويس، جدة 23215، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>+966560730922</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
+          <t>+966126132552</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.doctor-m.com/</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%84%D9%8A%D8%A7%D8%A1+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+Aliya+Optical%E2%80%AD/data=!4m7!3m6!1s0x157f594547638a9f:0xa9d9606dd4eff2e6!8m2!3d26.3269121!4d43.9748247!16s%2Fg%2F11py5w31cg!19sChIJn4pjR0VZfxUR5vLv1G1g2ak?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/optic+channel%2Frawaea+nooran+optic+est/data=!4m7!3m6!1s0x3e2f0511b9e7c083:0xadd46eda5c4a8be!8m2!3d24.6739598!4d46.7120714!16s%2Fg%2F11gwg3fj53!19sChIJg8DnuREFLz4RvqjEpe1G3Qo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>علياء للبصريات Aliya Optical</t>
+          <t>optic channel/rawaea nooran optic est</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5251,22 +5215,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>طريق الملك عبد العزيز، التعليم، بريدة 52361، المملكة العربية السعودية</t>
+          <t>الوزارات، الرياض 12626، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>+966554040261</t>
+          <t>+966551236929</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5274,12 +5238,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%81%D8%A7%D9%8A%D9%81+%D8%B3%D9%8A%D8%B2%D9%88%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f01a688ea49f3:0x68866b68faf0198c!8m2!3d24.722442!4d46.7754427!16s%2Fg%2F11kby7j149!19sChIJ80nqiKYBLz4RjBnw-mhrhmg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f010b12d7cfa1:0x4c334303d469abd9!8m2!3d24.7038194!4d46.7700531!16s%2Fg%2F11fm4ljp2h!19sChIJoc_XEgsBLz4R2atp1ANDM0w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>فايف سيزون للنظارات</t>
+          <t>مغربي للبصريات</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5289,39 +5253,39 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>طريق خريص, حي الريان، الرياض 14212، المملكة العربية السعودية</t>
+          <t>الطريق الدائري الشرقي الفرعي، الريان، الرياض 14213، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>+966534898454</t>
+          <t>+966112295930</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://fiveseasonoptical.com/</t>
+          <t>https://www.magrabi.com/sa-ar/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D9%88%D9%86+%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D9%87+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ed98743952d:0xd9ac06167827c59f!8m2!3d24.6382239!4d46.5594675!16s%2Fg%2F11f5tvttn0!19sChIJLZVDh9keLz4Rn8UneBYGrNk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%82%D9%85%D8%A9+%D8%A7%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e98eb8564a192b:0xb53be1732b290047!8m2!3d21.2589791!4d40.4086923!16s%2Fg%2F11hdjc2hvg!19sChIJKxlKVriO6RURRwApK3PhO7U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>عيون الواحة للنظارات</t>
+          <t>قمة النظارات</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5331,22 +5295,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>شارع طيبة، ظهرة لبن، الرياض 13782، المملكة العربية السعودية</t>
+          <t>شهار، حي، الطائف المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>+966540775169</t>
+          <t>+966547929492</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5354,12 +5318,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D8%AC%D8%AF+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f01d942ed70c1:0x8f06ef2288a7df18!8m2!3d24.7742072!4d46.8187863!16s%2Fg%2F11s14l5vlv!19sChIJwXDtQtkBLz4RGN-niCLvBo8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%83%D9%88%D8%AE+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fb9e41a5c657:0x4693bc41489395f4!8m2!3d26.4408503!4d50.1177969!16s%2Fg%2F11gd0d422y!19sChIJV8alQZ77ST4R9JWTSEG8k0Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>روعة المجد للبصريات</t>
+          <t>كوخ للنظارات</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5367,41 +5331,29 @@
           <t>محل بصريات</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>بن عبد العزيز، الرياض حى النهضة شارع الامير بندر بن عبد العزيز الرياض حي النهضة شارع الامير بندر، الرياض 13222، المملكة العربية السعودية</t>
+          <t>C4R9+84V حي, طريق الأمير محمد بن فهد بن عبدالعزيز، الربيع، الدمام 32241، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>+966566282068</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D9%85%D8%AC%D8%AF+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA&amp;stick=H4sIAAAAAAAA_-NgU1I1qDBONUozMEyxNDFKTTE3SDa0MqiwSDMwS00zMrKwSDRPSTO0WMSqcmPjzY4bO2-sVLix_GbLzdYba26sVwAyWm6suLEVKNd1Y_mNVQD8FM9RUAAAAA&amp;hl=ar&amp;mat=CeEzl4hJtSlxElMBezTaAf16j2aAfUaQFTr3AnDMFc8cxALtLh_25YTklRTS8hxsKXj8mliB63_Dk1XDiMpnfh7-z6lg8kqZqSk0ZRAfM6CWIq2B2X1iCSVYhhiJIw&amp;authuser=0#mpd=~8154247927759844321/editprofile/info/addres</t>
-        </is>
-      </c>
+          <t>+966138305959</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D9%81%D8%B1%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5879ab1d8461:0x222a064671e2de39!8m2!3d26.3266641!4d43.9746156!16s%2Fg%2F11bzxb5m8m!19sChIJYYQdq3lYfxUROd7icUYGKiI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B2%D9%8A%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+-+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbfc3a5f04e2d:0x6134a02022e9bd9!8m2!3d24.4873054!4d39.5886099!16s%2Fg%2F11l5sk2_wz!19sChIJLU7wpcO_vRUR2ZsuAgJKEwY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>نظارات فرزة</t>
+          <t>زين للنظارات - سلطانة | Zain Opticals - Sultanah Branch</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5411,39 +5363,39 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>427</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>8XGF+MR9، شارع الخبيب، حي الجردة، بريدة 52354، المملكة العربية السعودية</t>
+          <t>ساطانة, حي الراية, مقابل مستشفى فقيه, المدينة المنورة 42312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>+966531114745</t>
+          <t>+966554658999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://farzaoptical.com/</t>
+          <t>https://www.zainopticals.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D9%86%D9%8A+%D8%B9%D9%8A%D9%86%D9%83+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c17ddee297cdad:0x7484cc493812e629!8m2!3d21.7566343!4d39.1857246!16s%2Fg%2F11lrdtzw1h!19sChIJrc2X4t59wRURKeYSOEnMhHQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%AD%D9%88%D8%B1+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fd17e823f1d3:0x90f84cbf165c34cb!8m2!3d26.4267107!4d50.0711268!16s%2Fg%2F11vrh5dbhb!19sChIJ0_Ej6Bf9ST4RyzRcFr9M-JA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>عيني عينك للنظارات</t>
+          <t>مركز حور العيون للبصريات</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5453,39 +5405,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>الشارع العام، الحمدانية، جدة 23761، المملكة العربية السعودية</t>
+          <t>شارع الملك خالد، غرناطة، الدمام 32245، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>+966126655595</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>http://ainyainak.sa/</t>
-        </is>
-      </c>
+          <t>+966537574007</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%AD%D9%88%D8%B1+%D8%A7%D9%84%D8%B9%D9%8A%D9%88%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fd17e823f1d3:0x90f84cbf165c34cb!8m2!3d26.4267107!4d50.0711268!16s%2Fg%2F11vrh5dbhb!19sChIJ0_Ej6Bf9ST4RyzRcFr9M-JA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%88%D8%B2%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fdf120546c33:0x131ab1082fa3fae0!8m2!3d26.4300592!4d50.0661417!16s%2Fg%2F11fm1b47st!19sChIJM2xUIPH9ST4R4PqjLwixGhM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>مركز حور العيون للبصريات</t>
+          <t>الوزان للبصريات</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5495,35 +5443,39 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>شارع الملك خالد، غرناطة، الدمام 32245، المملكة العربية السعودية</t>
+          <t>Unnamed Road، الدمام 32248، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>+966537574007</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
+          <t>+966567320615</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alwazzanvision</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+-+Medical+Glasses%E2%80%AD/data=!4m7!3m6!1s0x3e2fabe0064c30fb:0x2f1a179e58cd5261!8m2!3d24.8081127!4d46.8657057!16s%2Fg%2F11h39xs639!19sChIJ-zBMBuCrLz4RYVLNWJ4XGi8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B2%D9%87%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%A7%D9%86%D8%AF%D9%84%D8%B3+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdbf9779b7999f:0x2faf606af375694c!8m2!3d24.4462238!4d39.6214117!16s%2Fg%2F11fy1dshwl!19sChIJn5m3eZe_vRURTGl182pgry8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>النظارة الطبية - Medical Glasses</t>
+          <t>زهراء الاندلس للنظارت</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5538,17 +5490,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Dist، 8224 Al Shaikh Khalifa Bin Hamad Al Thani، الجنادرية، الرياض 13611، المملكة العربية السعودية</t>
+          <t>CJWC+FHM، الجمعة، المدينة المنورة 42316، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>+966554040282</t>
+          <t>+966569357780</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -5556,12 +5508,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+Medical+Glasses%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3d94ea77575:0xf1ee85760a12c318!8m2!3d24.7741103!4d46.7784582!16s%2Fg%2F11hfyj6f7b!19sChIJdXWnTtnjLj4RGMMSCnaF7vE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D8%A7%D9%84%D9%85+%D8%A7%D9%84%D8%B9%D9%8A%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+-+Eye+World%E2%80%AD/data=!4m7!3m6!1s0x1576475c15f81e93:0x1e789d10289dfe6!8m2!3d27.5238919!4d41.7019437!16s%2Fg%2F11l6yhbsfr!19sChIJkx74FVxHdhUR5t-JAtGJ5wE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>النظارة الطبية Medical Glasses</t>
+          <t>عالم العين للنظارات - Eye World</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5576,17 +5528,17 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>شارع الحسن بن حسين بن علي، الخليج، الرياض 13223، المملكة العربية السعودية</t>
+          <t>سوق برزان الشعبي، برزان، حائل 55428، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>+966554040787</t>
+          <t>+966533351659</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5594,12 +5546,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%A7%D9%85+-+%D9%85%D9%88%D9%84+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15c3d76c6491faed:0xe3e060b03ea5434d!8m2!3d21.6319456!4d39.1559447!16s%2Fg%2F11vs28ygql!19sChIJ7fqRZGzXwxURTUOlPrBg4OM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3cf005db7748f:0xc6dc14309b1620cc!8m2!3d21.517639!4d39.1892881!16s%2Fg%2F11lc_8x1nv!19sChIJj3S3XQDPwxURzCAWmzAU3MY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>دكتور ام - مول العرب</t>
+          <t>عين البيان للبصريات</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5609,39 +5561,35 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>مول العرب, النزهة، حي النزهة, بوابة 4, تقاطع طريق المدينة المنورة, جدة المملكة العربية السعودية</t>
+          <t>G59Q+3P3، الشرفية، Al-Touba St. Al-Sharafya district، جدة 23216، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>+966126050190</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>https://www.doctor-m.com/sa-ar/</t>
-        </is>
-      </c>
+          <t>+966562277653</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%87%D8%AF+%D8%A7%D9%84%D8%B2%D9%85%D8%A7%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2efe2131a8a969:0x2e3892b2f91ebfa4!8m2!3d24.7633371!4d46.7010148!16s%2Fg%2F11ggy_prdf!19sChIJaamoMSH-Lj4RpL8e-bKSOC4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B1%D8%A3%D9%8A+%D8%A7%D9%84%D8%B9%D9%8A%D9%86+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b9077715153cfd:0xf306c2e441231573!8m2!3d24.0871987!4d38.0457882!16s%2Fg%2F11q8v4c_b2!19sChIJ_TwVFXcHuRURcxUjQeTCBvM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>عهد الزمان للبصريات</t>
+          <t>رأي العين للبصريات</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5651,22 +5599,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>شارع الأمير تركي بن عبدالعزيز الثاني، المروج، الرياض 12283، المملكة العربية السعودية</t>
+          <t>4070 علي بن ابي طالب، الصريف، ينبع 46422 8110،، ينبع المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>+966566146219</t>
+          <t>+966143211345</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -5674,12 +5622,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/6%2F6+%D8%B3%D8%AA%D9%87+%D8%B9%D9%84%D9%89+%D8%B3%D8%AA%D9%87+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D9%81%D9%8A%D8%B5%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fec374755c8565:0x2f1028a9e7f3074b!8m2!3d17.5359915!4d44.2140938!16s%2Fg%2F11sx4q1mpk!19sChIJZYVcdXTD_hURSwfz56koEC8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A8%D8%B5%D9%8A%D8%B1+-+Baseer+Optical%E2%80%AD/data=!4m7!3m6!1s0x1583cb586cb6221f:0x5598dd93192e09c6!8m2!3d25.8593903!4d43.5068622!16s%2Fg%2F11qqsln8pg!19sChIJHyK2bFjLgxURxgkuGZPdmFU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>سته على سته للبصريات فرع الفيصلية</t>
+          <t>بصريات بصير - Baseer Optical</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5689,39 +5637,39 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>387</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>شارع الملك عبدالعزيز، الخالدية، مقابل للعزام مول، نجران المملكة العربية السعودية</t>
+          <t>شارع الجريف، الملك عبدالعزيز، الرس 58881، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>+966554660067</t>
+          <t>+966500414661</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://linktr.ee/6.optical.6</t>
+          <t>https://baseeroptical.com/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D9%86%D9%89+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c1630006413417:0x4c60790f2da66bdb!8m2!3d21.7717158!4d39.1075425!16s%2Fg%2F11vlztg71j!19sChIJFzRBBgBjwRUR22umLQ95YEw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B1%D8%A4%D9%8A%D8%A7+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+ROUYA+OPTICAL%E2%80%AD/data=!4m7!3m6!1s0x15bdbe8ba7e90b05:0xccd4d8be4dfb212d!8m2!3d24.4954056!4d39.6073185!16s%2Fg%2F11fy9s85fd!19sChIJBQvpp4u-vRURLSH7Tb7Y1Mw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>منى للنظارات</t>
+          <t>رؤيا للبصريات ROUYA OPTICAL</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5731,22 +5679,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>شارع عابر القرات، الشراع، جدة 23816، المملكة العربية السعودية</t>
+          <t>8900 طريق الملك عبدالله الفرعي، مسجد الدرع، 2555، المدينة المنورة 42313، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>+966534848873</t>
+          <t>+966503886541</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -5754,12 +5702,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B3%D9%84%D9%85%D8%A7%D9%86+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3ce1beed9de07:0x2a65627ff0b2b18f!8m2!3d21.5220538!4d39.2226339!16s%2Fg%2F11ggw0ctp5!19sChIJB97Z7hvOwxURj7Gy8H9iZSo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%86%D8%B8%D8%B1%D8%A9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D9%84%D9%84%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15a9ac5373342ca1:0x757b5220cae1e8fb!8m2!3d28.3834863!4d36.5594711!16s%2Fg%2F11f63151fr!19sChIJoSw0c1OsqRUR--jhyiBSe3U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>سلمان للنظارات</t>
+          <t>مركز نظرة المدينة للنظارات</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5769,22 +5717,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>G6CF+R3C, شارع حمد الجاسر،, حي النسيم, جدة 23234، المملكة العربية السعودية</t>
+          <t>9HM5+9QX، الشارع العام، الجادة، العوايشة، تبوك 47914، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>+966541642757</t>
+          <t>+966502539896</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -5792,12 +5740,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%B1%D9%8A%D9%85%D8%A7%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x3e2f09269283516f:0xdca4a0b217e76e96!8m2!3d24.5938302!4d46.7742723!16s%2Fg%2F11ghnbpgjp!19sChIJb1GDkiYJLz4Rlm7nF7KgpNw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/MAGRABi+-+Hail+Plaza+%7C+%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+-+%D8%AD%D8%A7%D8%A6%D9%84+%D8%A8%D9%84%D8%A7%D8%B2%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15763f47dd3013a3:0xb5d8a453218351bc!8m2!3d27.5004169!4d41.6709756!16s%2Fg%2F11ty309tnh!19sChIJoxMw3Uc_dhURvFGDIVOk2LU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>بصريات ريماس</t>
+          <t>MAGRABi - Hail Plaza | مغربي - حائل بلازا</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5807,35 +5755,39 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>طريق العزيزية،, العزيزية، الرياض 14511، المملكة العربية السعودية</t>
+          <t>Nuqra - next to the Danube, King Fahd Road, Square, حائل 55432، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>+966548685983</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
+          <t>+966165310593</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://www.magrabi.com/sa-ar/</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Tutia+Kids+Optical+%2F+%D8%AA%D9%88%D8%AA%D9%8A%D8%A7+%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%A3%D8%B7%D9%81%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f02b231d11643:0x1d9b63ce339a1272!8m2!3d24.7330077!4d46.6753684!16s%2Fg%2F11b6qwwxmg!19sChIJQxbRMbICLz4RchKaM85jmx0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15c3d12c1037daaf:0x19ec93b846d2ccda!8m2!3d21.5692384!4d39.2211468!16s%2Fg%2F11h76gnq_n!19sChIJr9o3ECzRwxUR2szSRriT7Bk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tutia Kids Optical / توتيا لبصريات الأطفال</t>
+          <t>المشرق للنظارات</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5845,39 +5797,35 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Dist، 3652 King Abdullah Ibn Abdulaziz Rd، الملك فهد، شركة توتيا لنظارات الأطفال، الرياض 12271، المملكة العربية السعودية</t>
+          <t>ام القرى، الصفا، جدة 07063، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>+966114535459</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>https://tutia.sa/</t>
-        </is>
-      </c>
+          <t>+966567788920</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D8%B7%D9%8A%D8%A7%D9%81+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D8%AA%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c21b6c1c2e0521:0x660410e971159577!8m2!3d21.433064!4d39.7898897!16s%2Fg%2F11c483ttdl!19sChIJIQUuHGwbwhURd5UVcekQBGY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Barakat+Optical+%7C+%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fb5bf9f92ec021:0xc6d0dd63e186a51b!8m2!3d18.3049702!4d42.7306127!16s%2Fg%2F11fb102c9g!19sChIJIcAu-flb-xURG6WG4WPd0MY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>اطياف للبصريات الستين</t>
+          <t>Barakat Optical | نظارات البركات</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5887,35 +5835,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MCNB7360، 7360 قصر الضيافة، 4500، حي النزهة، مكة 24225، المملكة العربية السعودية</t>
+          <t>الإمام محمد بن سعود، العرق الجنوبي، خميس مشيط 62461، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>+966575421915</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr"/>
+          <t>+966172206003</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>http://www.barakatoptical.com.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Quaid+Optics/data=!4m7!3m6!1s0x15c3d02d4cde33c7:0x9c2fe1a2c102b5be!8m2!3d21.5449047!4d39.1959491!16s%2Fg%2F11dxl9kb2h!19sChIJxzPeTC3QwxURvrUCwaLhL5w?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e3796c621cc58e1:0x9fb0d56864e48ab3!8m2!3d25.3685208!4d49.5853801!16s%2Fg%2F1ptvzgtlp!19sChIJ4VjMIcaWNz4Rs4rkZGjVsJ8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Quaid Optics</t>
+          <t>نظارات البركات</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5930,30 +5882,34 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>7727 Al Makaronah حي مشرفة Jeddah 23336 4317 المكرونة، حي مشرفة، جدة 23336، المملكة العربية السعودية</t>
+          <t>طريق الملك خالد، وسط الهفوف التاريخي، الهفوف‎ 36361، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>+966126175862</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr"/>
+          <t>+966135825018</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://www.barakatoptical.com.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%86%D8%B8%D8%A7%D8%B1%D8%A7%D8%AA+%D8%B3%D8%B9%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x1564678f3f4d24ab:0xb69111397c83845c!8m2!3d29.6290569!4d43.5441381!16s%2Fg%2F11rpnq_0x4!19sChIJqyRNP49nZBURXISDfDkRkbY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B2%D9%83%D9%8A+%D9%84%D9%84%D8%A8%D8%B5%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3dbfc3be48acd:0xc1575053c830a5dd!8m2!3d21.5856737!4d39.1313796!16s%2Fg%2F11rsjt9qt2!19sChIJzYrkO_zbwxUR3aUwyFNQV8E?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>نظارات سعود</t>
+          <t>زكي للبصريات-فرع شاطئ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5963,220 +5919,228 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>طريق سعود بن جلوي، الملز، رفحاء 76316، المملكة العربية السعودية</t>
+          <t>احمد العطاس، حي الشاطئ،، جدة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>+966506160141</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr"/>
+          <t>+966122231213</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://zakiopticals.com.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D8%AF%D9%82%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%8A%D8%A9+%D9%84%D9%84%D8%AA%D8%AD%D8%A7%D9%84%D9%8A%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdc1b827188841:0xd4c2d18f84c60da0!8m2!3d24.427067!4d39.5994272!16s%2Fg%2F11s7kwk50z!19sChIJQYgYJ7jBvRURoA3GhI_RwtQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%81%D8%A7%D8%B2+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e35599f61ebe4d:0x456f19b4a4c79b9f!8m2!3d18.2234128!4d42.532932!16s%2Fg%2F11thkwf32m!19sChIJTb4e9plV4xURn5vHpLQZb0U?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>مختبر الدقة العالية للتحاليل الطبية</t>
+          <t>مجمع فاز الطبي</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>5340 العباس بن عبادة، 6778، القصواء،، المدينة المنورة 42391، المملكة العربية السعودية</t>
+          <t>6564 طريق الملك فهد، حي العرين، أبها 62524، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>+966590858123</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>http://www.hqlab.com.sa/</t>
-        </is>
-      </c>
+          <t>+966920023035</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%B1%D9%85%D8%B2+%D8%A7%D9%84%D8%A3%D9%85%D8%A7%D8%B1%D8%A7%D8%AA+%D9%84%D9%81%D8%AD%D8%B5+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D8%A9+%D9%88%D8%AD%D9%82%D9%86+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D8%A9+%D9%88%D8%AA%D8%AF%D8%B9%D9%8A%D9%85+%D8%A7%D9%84%D8%AE%D8%B1%D8%B3%D8%A7%D9%86%D8%A9-+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49c3da3a919baf:0xca626d1c7156e0a9!8m2!3d26.2493354!4d50.1983035!16s%2Fg%2F11y7q9_x1w!19sChIJr5uROtrDST4RqeBWcRxtYso?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A9+%D8%B5%D8%AD%D8%A9+%D8%A7%D9%84%D8%B1%D8%AC%D9%84+%D8%8C+%D9%85%D8%B3%D8%A7%D9%84%D9%83+%D8%A8%D9%88%D9%84%D9%8A%D8%A9+%D9%88%D8%B6%D8%B9%D9%81+%D8%A7%D9%86%D8%AA%D8%B5%D8%A7%D8%A8+%D9%88+%D8%A7%D9%86%D8%AC%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e49fca9205fd4d3:0x26044779379b8da!8m2!3d26.4135335!4d50.0967535!16s%2Fg%2F1q5bmx7ts!19sChIJ09RfIKn8ST4R2rh5k3dEYAI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>مختبر رمز الأمارات لفحص التربة وحقن التربة وتدعيم الخرسانة- فرع الخبر</t>
+          <t>عيادة صحة الرجل ، مسالك بولية وضعف انتصاب و انجاب</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>طريق الملك خالد الفرعي، ابن سينا، الخبر 34626، المملكة العربية السعودية</t>
+          <t>شارع عثمان بن عفان، ابن خلدون، الدمام 32253، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>+966530577789</t>
+          <t>+966560558697</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ramzalemarat.com/ar</t>
+          <t>http://dayelclinic.com/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%AA%D9%82%D8%AF%D9%85%D9%88%D9%86+%D8%A7%D9%84%D8%A8%D9%8A%D8%A6%D9%8A+Pioneers+Environmental+Lab%E2%80%AD/data=!4m7!3m6!1s0x15c3cf99580c0e25:0xfdffc9c925196ef4!8m2!3d21.5165282!4d39.192382!16s%2Fg%2F11tfvz32d4!19sChIJJQ4MWJnPwxUR9G4ZJcnJ__0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Tatmman+clinics+%7C+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AA%D8%B7%D9%85%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49fbae3e26bb27:0x8d2eba020373e62e!8m2!3d26.4175063!4d50.1132694!16s%2Fg%2F11js8qnhd6!19sChIJJ7smPq77ST4RLuZzAwK6Lo0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>مختبر المتقدمون البيئي Pioneers Environmental Lab</t>
+          <t>Tatmman clinics | عيادات تطمن</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>طريق الملك فهد، 60، JBSB6658، جدة 23216، المملكة العربية السعودية</t>
+          <t>C496+2C، Fatimah AZ Zahra, عبدالله فؤاد،، الاسكان، الدمام 32236، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>+966126604666</t>
+          <t>+966560229141</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>http://www.pioneers-lab.com/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D8%AA%D8%A3%D9%83%D9%8A%D8%AF+-+CLC%E2%80%AD/data=!4m7!3m6!1s0x15c3cf94619dade9:0xf52b20012ed2aaa6!8m2!3d21.4990988!4d39.193858!16s%2Fg%2F11s1s2yw9_!19sChIJ6a2dYZTPwxURpqrSLgEgK_U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D9%84%D8%A7%D8%B0+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49fde0b37b8535:0x79480947bb1086e1!8m2!3d26.4209842!4d50.0240252!16s%2Fg%2F11lcpl4c18!19sChIJNYV7s-D9ST4R4YYQu0cJSHk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>مختبر التأكيد - CLC</t>
+          <t>مجمع ملاذ الخليج الطبي</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>مركز بن لادن لازا، طريق الملك فهد، البغدادية الشرقية، جدة 22241، المملكة العربية السعودية</t>
+          <t>شارع الملك سعود بن عبدالعزيز، النور، الدمام 22334، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>+966506594614</t>
+          <t>+966920001159</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.clc.sa/</t>
+          <t>https://linktr.ee/malathalkhaleej</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%AC%D9%8A%D9%88%D8%AA%D9%82%D9%86%D9%8A%D8%A9+%D9%88+%D8%A7%D9%84%D8%A8%D9%8A%D8%A6%D9%8A%D8%A9+%D9%84%D9%81%D8%AD%D8%B5+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e36013474bc608f:0xbf01d08c728336d6!8m2!3d26.4746094!4d50.0025533!16s%2Fg%2F11krgpczg6!19sChIJj2C8dDQBNj4R1jaDcozQAb8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%A8%D9%86%D9%89+%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D8%A7%D8%B1%D8%AC%D9%8A%D8%A9+-+Out+Patient+Clinics%E2%80%AD/data=!4m7!3m6!1s0x15a9b13fb3b617ed:0xd12af69e8a54d733!8m2!3d28.4455416!4d36.5140593!16s%2Fg%2F11hzhgkns_!19sChIJ7Re2sz-xqRURM9dUip72KtE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>الشركة الجيوتقنية و البيئية لفحص التربه</t>
+          <t>مبنى العيادات الخارجية - Out Patient Clinics</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>شارع عمر بن الخطاب، النابية، الدمام 32471، المملكة العربية السعودية</t>
+          <t>4925 طريق الملك خالد، 4925, Al Qadsiyyah, 7954, تبوك 47717، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>+966507378273</t>
+          <t>+966144259008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -6184,79 +6148,79 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/GCC+Lab+Conformity+Assessment+Company+-+Petroleum+Products+Testing+Lab+%28formerly+MOTABAQAH%29/data=!4m7!3m6!1s0x3e49f150414ee287:0x5456a1f5eab1d678!8m2!3d26.4656572!4d50.1903488!16s%2Fg%2F11q99h2_j8!19sChIJh-JOQVDxST4ReNax6vWhVlQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D9%87%D8%AF%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15e9f574b6adeb77:0xefb643aefbb1adaa!8m2!3d21.3573613!4d40.280018!16s%2Fg%2F1ptzzm9zr!19sChIJd-uttnT16RURqq2x-65Dtu8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GCC Lab Conformity Assessment Company - Petroleum Products Testing Lab (formerly MOTABAQAH)</t>
+          <t>مركز صحي الهدا</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Specialized Laboratories Co، ميناء الملك عبدالعزيز، 2nd Floor, Motabaqah Building - Saudi، الدمام 32211، المملكة العربية السعودية</t>
+          <t>Unnamed Road, 26591 26591، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>+966118278161</t>
+          <t>+966127541206</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://gcclab.com.sa/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%AA%D9%85%D9%8A%D8%B2+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ea2f692a2adcb1:0x930e4e7c8971c41a!8m2!3d21.4129547!4d40.4764066!16s%2Fg%2F11v3z3bycv!19sChIJsdwqKmkv6hURGsRxiXxODpM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%28%D8%A7%D9%84%D8%BA%D8%AF%D9%8A%D8%B1%29%E2%80%AD/data=!4m7!3m6!1s0x3e2ee2e75f91987b:0x56a7ad2175573b42!8m2!3d24.7684641!4d46.6509308!16s%2Fg%2F11ckvdgbt8!19sChIJe5iRX-fiLj4RQjtXdSGtp1Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>مختبر المتميز البيطري</t>
+          <t>مركز الرعاية الصحية الأولية (الغدير)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>601</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>حي العارمية 2، الطائف 26569، المملكة العربية السعودية</t>
+          <t>سليمان الخزيم، الغدير، الرياض 13311، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>+966507628656</t>
+          <t>+966112109641</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -6264,235 +6228,235 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SOK+Star+United+Company/data=!4m7!3m6!1s0x15e2c730e8990f77:0xa0552c33b38591e9!8m2!3d17.374003!4d42.5362501!16s%2Fg%2F11fmrfvl4w!19sChIJdw-Z6DDH4hUR6ZGFszMsVaA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D8%B3%D8%B1%D8%A7%D8%B1+%D8%A7%D9%84%D8%AC%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fec30e6c624dff:0x52b1125912afe790!8m2!3d17.5515837!4d44.228455!16s%2Fg%2F11f9x63kkx!19sChIJ_01ibA7D_hURkOevElkSsVI?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SOK Star United Company</t>
+          <t>مجمع اسرار الجمال الطبي</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>9GFP+JG2، بيش 87311، المملكة العربية السعودية</t>
+          <t>زيد ،، المفرق، نجران 66251، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>+966509635306</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr"/>
+          <t>+966536557444</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://ehjzny.com/b/tvtzh</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/REMAAL+ELSAHRA/data=!4m7!3m6!1s0x3e2f0faf7e2ae05f:0xf2f56fc2d23f6d66!8m2!3d24.5729311!4d46.702085!16s%2Fg%2F11vj18pbxw!19sChIJX-Aqfq8PLz4RZm0_0sJv9fI?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A5%D8%B3%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3cfb656fdcf0b:0x672117235b4a8621!8m2!3d21.5153135!4d39.1886713!16s%2Fg%2F1jgm4l2m5!19sChIJC8_9VrbPwxURIYZKWyMXIWc?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>REMAAL ELSAHRA</t>
+          <t>مجمع الإسكان الطبي العام</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Al-Numan بشر بن صفوان، الشفا، الرياض 14712، المملكة العربية السعودية</t>
+          <t>At Al Farsi Street, Alsharafia Area, جدة 23216، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>+20554183175</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>http://remalelsahra.com/</t>
-        </is>
-      </c>
+          <t>+966126516656</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%D8%A7%D8%AA+%D8%AD%D8%A7%D8%A6%D9%84+%D9%81%D8%B1%D8%B9+%D9%A3+%D8%A7%D9%84%D9%86%D9%82%D8%B1%D8%A9+%D9%A0%D8%B4+%D8%A7%D9%84%D8%B9%D8%B1%D9%8A%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15763f498311e331:0xa92bf71a909ed345!8m2!3d27.485556!4d41.6762414!16s%2Fg%2F11pdxn_g09!19sChIJMeMRg0k_dhURRdOekBr3K6k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B5%D9%82%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c201912848bc6f:0xdb5f3696afc15e96!8m2!3d21.4447928!4d39.9654957!16s%2Fg%2F11ptlnszt9!19sChIJb7xIKJEBwhURll7Br5Y2X9s?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>مختبرات حائل فرع ٣ النقرة ٠ش العريفي</t>
+          <t>مجمع صقر الطبي العام</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4172 فهد العلى العريفي،, 8117, حي, حائل 55431، المملكة العربية السعودية</t>
+          <t>المهندس عمر القاضي، الراشدية، مكة 24268، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>+966507091515</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>https://iwtsp.com/966507091515</t>
-        </is>
-      </c>
+          <t>+966125350555</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Arab+Company+for+Laboratories+and+Soil/data=!4m7!3m6!1s0x15fd57ffa180410b:0x90422edaa0f0b672!8m2!3d16.8558031!4d42.6012696!16s%2Fg%2F11l6_14qtd!19sChIJC0GAof9X_RURcrbwoNouQpA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%8A%D9%88+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2ee33b60f7fb8d:0xfff6d7575118434c!8m2!3d24.8051304!4d46.6564898!16s%2Fg%2F11h239qglk!19sChIJjfv3YDvjLj4RTEMYUVfX9v8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Arab Company for Laboratories and Soil</t>
+          <t>مجمع عيادات يو الطبي</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.564</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>5526 طريق الملك عبدالعزيز، 7522، صبيا 85287، المملكة العربية السعودية</t>
+          <t>حي، طريق الثمامة الفرعي، الياسمين، الرياض 13322، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>+966595203407</t>
+          <t>+966920021223</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>http://www.aces-int.com/</t>
+          <t>https://www.umedical.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D9%85%D8%B9%D9%8A%D8%A7%D8%B1+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2fa90002619c65:0xd593bd94cbe6110!8m2!3d24.6996568!4d46.8262745!16s%2Fg%2F11x1cghtff!19sChIJZZxhAgCpLz4REGG-TNk7WQ0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D8%AD%D8%B1%D9%83%D8%A9+%D9%84%D9%84%D8%B9%D9%84%D8%A7%D8%AC+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A+%D9%88+%D8%A7%D9%84%D8%AA%D8%A3%D9%87%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e254ff8384cf9a5:0x8a94effb133747a5!8m2!3d24.1614742!4d47.3128831!16s%2Fg%2F11qq5clp2f!19sChIJpflMOPhPJT4RpUc3E_vvlIo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>مختبر المعيار لمواد البناء</t>
+          <t>مركز وقت الحركة للعلاج الطبيعي و التأهيل</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>206</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>طريق سعد بن عبدالرحمن الأول الفرعي، السعادة، الرياض 14255، المملكة العربية السعودية</t>
+          <t>طريق ثمامة بن أثال، البرج، الخرج 16278، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>+966551080855</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>https://www.sel-lab.com/</t>
-        </is>
-      </c>
+          <t>+966577116656</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%B3%D9%8A%D8%AC%D9%85%D8%A7+%D8%A7%D9%84%D8%A8%D9%8A%D8%B7%D8%B1%D9%8A+Sigma+vet+lab%E2%80%AD/data=!4m7!3m6!1s0x15a9adfe9fdf2583:0x87ac142b06a07b10!8m2!3d28.4018499!4d36.5851218!16s%2Fg%2F11k47mvt0b!19sChIJgyXfn_6tqRUREHugBisUrIc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D9%8A%D8%B3%D8%A7%D9%86+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fb244cf6997:0x8d2cc88e10a5081d!8m2!3d24.5648237!4d46.697998!16s%2Fg%2F11c48ry6nl!19sChIJl2nPRLIPLz4RHQilEI7ILI0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>مختبر سيجما البيطري Sigma vet lab</t>
+          <t>عيادات ميسان الشفا</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>سلطانة، تبوك 47311، المملكة العربية السعودية</t>
+          <t>7498 المثنى بن حارثة، الشفا، الرياض 14713، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>+966553729767</t>
+          <t>+966502866013</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -6500,421 +6464,417 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%D8%A7%D8%AA+%D8%B4%D8%B1%D9%88%D9%82+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db003a8204c5:0x532e65000c5dc6ad!8m2!3d21.6069118!4d39.1228706!16s%2Fg%2F11x0hrgrw5!19sChIJxQSCOgDbwxURrcZdDABlLlM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%84%D8%A4%D9%84%D8%A4%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%AC+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B3%D9%88%D9%8A%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f11e97b62027b:0x4bbbc84dc68d717!8m2!3d24.5635575!4d46.6478382!16s%2Fg%2F11ptpl96tj!19sChIJewJie-kRLz4RF9do3IS8uwQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>مختبرات شروق الطبية</t>
+          <t>عيادات لؤلؤة العاج فرع السويدي</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1.667</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>J44F+Q49 حي، شارع حراء، النهضة، تقاطع طريق الملك ، الجيل بلازا الدور الثالث، جدة المملكة العربية السعودية</t>
+          <t>الطريق الدائري الغربي، حي السويدي، الرياض 11564، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>+966501010691</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr"/>
+          <t>+966570220476</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://loloaj.com/</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Gulf+Bridge+Laboratory+%28GBL%29+-+Jubail+%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%A7%D9%84%D8%AC%D8%B3%D8%B1+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC%D9%8A+-+%D8%A7%D9%84%D8%AC%D8%A8%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e3591b81ca9a4ad:0x6ad97344f22ed30f!8m2!3d26.9967014!4d49.6256516!16s%2Fg%2F11xmxtk1y8!19sChIJraSpHLiRNT4RD9Mu8kRz2Wo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%B4%D8%B0%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f07003072bfed:0xe78d299a7df4367a!8m2!3d24.6979699!4d46.7986826!16s%2Fg%2F11ldsxp9hg!19sChIJ7b9yMAAHLz4Rejb0fZopjec?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Gulf Bridge Laboratory (GBL) - Jubail مختبر الجسر الخليجي - الجبيل</t>
+          <t>مختبر شذا الطبي</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>مختبر</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+          <t>مركز طبي</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Industrial Area، الجبيل 35416، المملكة العربية السعودية</t>
+          <t>RQWA4559، 8062 العدل، حي الروابي، 4559، الرياض 14216، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>+966546126919</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>https://www.gbl-lab.com/</t>
-        </is>
-      </c>
+          <t>+966920006485</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%AA%D8%A8%D8%B1+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D9%8A%D8%B1%D8%A9+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fa1a4686ad03d:0x142da2b10c1df317!8m2!3d24.5694301!4d46.8707299!16s%2Fg%2F11sc14hg4m!19sChIJPdBqaKShLz4RF_MdDLGiLRQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B3%D8%B1%D8%A7%D9%8A%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A.+Al+Saraya+Medical+Complex%E2%80%AD/data=!4m7!3m6!1s0x157f586f9250e72d:0x7ec48a62d33aad1b!8m2!3d26.3364258!4d43.971548!16s%2Fg%2F1hf5vpf1m!19sChIJLedQkm9YfxURG60602KKxH4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>مختبر دار المعايرة السعودية</t>
+          <t>مجمع السرايا الطبي. Al Saraya Medical Complex</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>725</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>عويجة، 7775،, المدينة الصناعية الثانية،, RNSA2449، 2449, الرياض 14332، المملكة العربية السعودية</t>
+          <t>3050 التغيرة، حي الخبيب، بريدة 52366، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>+966504892348</t>
+          <t>+966920031096</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>http://calibration.sa/</t>
+          <t>https://whatsapp.com/channel/0029ValDi682f3EPSqQPCI19</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%86%D8%B3%D8%A8%D9%83%D8%AA%D9%88%D8%B1%D9%8A%D8%AA+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%D8%A9+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%AD%D8%AF%D9%88%D8%AF%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e35a0fbd0c9ef51:0x53c1c4ae5adcba32!8m2!3d26.9926593!4d49.6447049!16s%2Fg%2F11cn71gp3l!19sChIJUe_J0PugNT4RMrrcWq7EwVM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%85%D9%84%D8%A9-+%D8%AD%D9%8A+%D8%B1%D8%B6%D9%88%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15b91bbe53ad6bd1:0x694b604e66435a1c!8m2!3d23.9997791!4d38.2082525!16s%2Fg%2F11bc73pgfd!19sChIJ0WutU74buRURHFpDZk5gS2k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>شركة انسبكتوريت العالمية السعودية العربية المحدوده</t>
+          <t>مركز الرعاية الشاملة- حي رضوى</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3205 الملك فيصل الغربي، 6314، W، الجبيل 35514، المملكة العربية السعودية</t>
+          <t>X6X5+W86، البستان، رضوى، ينبع 46452، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>+966133613637</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>http://www.bureauveritas.com/</t>
-        </is>
-      </c>
+          <t>+966143923524</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Arab+Integrated+Testing+Lab/data=!4m7!3m6!1s0x43cefa68e86267f7:0x902b8b812b901972!8m2!3d17.3608084!4d42.5458492!16s%2Fg%2F11v19bw60r!19sChIJ92di6Gj6zkMRchmQK4GLK5A?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%85%D8%B1%D8%A7%D8%B3+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B5%D8%AD%D8%A7%D9%81%D8%A9+%7C+MERAS+CLINIC+AS+SAHAFAH+BRANCH%E2%80%AD/data=!4m7!3m6!1s0x3e2ee487f3aa08df:0x9c7a827b6040ed6c!8m2!3d24.814131!4d46.632507!16s%2Fg%2F11bzzzwv03!19sChIJ3wiq84fkLj4RbO1AYHuCepw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Arab Integrated Testing Lab</t>
+          <t>عيادات مراس فرع الصحافة | MERAS CLINIC AS SAHAFAH BRANCH</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2.641</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3674- An Nahdah District 87311 - King Abdullah Bin Abdulaziz Road, بيش 87311، المملكة العربية السعودية</t>
+          <t>طريق أنس ابن مالك، الصحافة، الرياض 13321، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>+966173424998</t>
+          <t>+966920027046</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.aitl-int.com/</t>
+          <t>https://www.merasclinic.net/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Australian+Laboratory+Services+%28ALS%29+Arabia+Riyadh/data=!4m7!3m6!1s0x3e2efd3d4a139b65:0x6b4c929f772060c6!8m2!3d24.7780139!4d46.6889435!16s%2Fg%2F11d_9bxgbw!19sChIJZZsTSj39Lj4RxmAgd5-STGs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%AA%D9%87%D8%A7%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e68fd28ec80945:0x94405de00e25e5e9!8m2!3d19.141291!4d41.0819823!16s%2Fg%2F1tdj7cyw!19sChIJRQnIjtKP5hUR6eUlDuBdQJQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Australian Laboratory Services (ALS) Arabia Riyadh</t>
+          <t>مستوصف تهامة</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2217 الطريق الدائري الشمالي الفرعي، التعاون، الرياض 12477، المملكة العربية السعودية</t>
+          <t>طريق الملك فيصل بن عبد العزيز، القنفذة 28821، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>+966112466830</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>http://www.alsarabia.com/</t>
-        </is>
-      </c>
+          <t>+966177320225</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Ras+Tanura+Laboratory/data=!4m7!3m6!1s0x3e4a0716c99f7533:0x5e5eb19b36a77b58!8m2!3d26.7036571!4d50.0917004!16s%2Fg%2F11h5_vyjms!19sChIJM3WfyRYHSj4RWHunNpuxXl4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%88%D8%A7%D8%AC%D9%87%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49fcef4d1e0cf7:0x647d6cd5505c5019!8m2!3d26.4086074!4d50.0706825!16s%2Fg%2F11f37fr3s8!19sChIJ9wweTe_8ST4RGVBcUNVsfWQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ras Tanura Laboratory</t>
+          <t>مجمع الواجهة الطبي التخصصي</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>مختبر</t>
+          <t>مركز طبي</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1.355</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>6491, رأس تنورة 32814، المملكة العربية السعودية</t>
+          <t>الروضة، الدمام 32257، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>+966535666091</t>
+          <t>+966920002205</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>http://www.aramco.com/</t>
+          <t>http://www.alwajha.com/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AA%D9%84+%D8%A7%D9%84%D8%A3%D8%B2%D8%B1%D9%82+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fec35c1ce7c06f:0xe893aabc64273b26!8m2!3d17.5629032!4d44.2296089!16s%2Fg%2F11kc0m03q8!19sChIJb8DnHFzD_hURJjsnZLyqk-g?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%88%D8%AD%D8%AF%D8%A9+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D9%8A%D9%88%D9%85+%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x157f59003bf24ceb:0xc62a4ceec2dad907!8m2!3d26.3512345!4d43.9687054!16s%2Fg%2F11m6lxkvmp!19sChIJ60zyOwBZfxURB9nawu5MKsY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>عيادات التل الأزرق الطبية</t>
+          <t>وحدة رعاية اليوم الواحد</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>king saud bin abdullaziz street, مخطط ابن جارالله السكني، نجران 66251، المملكة العربية السعودية</t>
+          <t>النازية، QBPE7662، 7662 محمد بن عثمان البشر، 3080، بريدة 52366، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>+966509558666</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>https://linktr.ee/iblue.hc</t>
-        </is>
-      </c>
+          <t>+966536259467</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AA%D9%88%D8%A7%D8%B2%D9%86+%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%B7%D8%A8%D9%8A%D8%A9+%D9%85%D9%86%D8%B2%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37978f9bf93b33:0x51cf109f2a13aba0!8m2!3d25.3581362!4d49.5796466!16s%2Fg%2F11txt3czrt!19sChIJMzv5m4-XNz4RoKsTKp8Qz1E?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%AF%D9%83%D8%AA%D9%88%D8%B1+%D8%B9%D9%88%D8%A7%D8%B6+%D8%A7%D9%84%D8%A8%D8%B4%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c2114b6c4512e7:0x2f6270c8001655eb!8m2!3d21.3628439!4d39.7961567!16s%2Fg%2F11n7c2nx13!19sChIJ5xJFbEsRwhUR61UWAMhwYi8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>توازن رعاية طبية منزلية</t>
+          <t>مستشفى الدكتور عواض البشري</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3.467</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>الامير مشهور بن عبدالعزيز، السنيدية، الاحساء 31982، المملكة العربية السعودية</t>
+          <t>مقابل bmw, 4621 طريق الليث، 9079 Al Lith Rd, Walyal Ahd Dist., Makkah 24354, مكة 24353، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>+966537111979</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
+          <t>+966920008396</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://bishrihospital.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%85%D8%A7%D9%86%D8%AF%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdc152a448c483:0xdb723331e25838cf!8m2!3d24.4235041!4d39.6384388!16s%2Fg%2F11t44crnqb!19sChIJg8RIpFLBvRURzzhY4jEzcts?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1+%D8%B3%D9%84%D8%B7%D8%A7%D9%86+%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ea2e1fa8e3251d:0xdc4046966d27af36!8m2!3d21.4673364!4d40.5351016!16s%2Fg%2F1hc3wtb5_!19sChIJHSXjqB8u6hURNq8nbZZGQNw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>مركز اماندا الطبي</t>
+          <t>مستشفى الأمير سلطان العسكري</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>262</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالله الفرعي، العهن، المدينة المنورة 42319، المملكة العربية السعودية</t>
+          <t>مستشفى الأمير سلطان العسكري, حي سلطانة، ج23، الطائف 26411، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>+966920020140</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>https://lnk.bio/AMANDA-Clinic</t>
-        </is>
-      </c>
+          <t>+966127260001</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AE%D8%B7%D9%88%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1607e2bd0bd41983:0xf3d2140b6c7c6264!8m2!3d16.8924738!4d42.562668!16s%2Fg%2F11c600z03w!19sChIJgxnUC73iBxYRZGJ8bAsU0vM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D9%81%D8%A7%D9%8A%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x6fe8ae4d32800f45:0x4e683460e272f665!8m2!3d21.6189646!4d39.133007!16s%2Fg%2F11t_jfxj89!19sChIJRQ-AMk2u6G8RZfZy4mA0aE4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>مركز خطوات العناية</t>
+          <t>عيادات فايا الطبية</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6924,135 +6884,139 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>695</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2606، جازان 82722، المملكة العربية السعودية</t>
+          <t>عبدالرحمن الداخل، النهضة، جدة 23615، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>+966562295990</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr"/>
+          <t>+966570707375</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://vayaclinics.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B1%D9%88%D8%AD+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15bdc071a5ec8d27:0xb8c235efc50473d0!8m2!3d24.4213038!4d39.6248808!16s%2Fg%2F11c5g63jqp!19sChIJJ43spXHAvRUR0HMExe81wrg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%AF%D9%84%D9%87+-+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e8ccb910234f:0x6f1d169085b36629!8m2!3d26.3508785!4d50.2094869!16s%2Fg%2F11dx8mwqmx!19sChIJTyMQuczoST4RKWazhZAWHW8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>مجمع روح الشفاء الطبي العام</t>
+          <t>مستشفى دله - الخبر</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>1.601</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالله الفرعي، الخاتم، المدينة المنورة 42318، المملكة العربية السعودية</t>
+          <t>طريق الملك فيصل، الراكة الجنوبية، الخبر 34227، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>+966920005496</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>https://instagram.com/roohalshefaa</t>
-        </is>
-      </c>
+          <t>+966920020005</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%86%D8%A8%D8%B6+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A+%D8%A8%D8%AD%D9%81%D8%B1%D8%A7%D9%84%D8%A8%D8%A7%D8%B7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3fd73f4a304d0c39:0x5bcb2698beb88b!8m2!3d28.3740437!4d45.9614432!16s%2Fg%2F11fqps4p7y!19sChIJOQxNMEo_1z8Ri7i-mCbLWwA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%8A%D8%B1%D9%85%D9%88%D9%83+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2effb3fa4d6b97:0xccb7a3cd383989f7!8m2!3d24.8104146!4d46.7911501!16s%2Fg%2F11bz_7vm_w!19sChIJl2tN-rP_Lj4R94k5OM2jt8w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>مركز نبض الرعاية التخصصي بحفرالباطن</t>
+          <t>مجمع عيادات اليرموك الطبي</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>698</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>عز الدين الحسيني، النايفية، حفر الباطن 39811، المملكة العربية السعودية</t>
+          <t>7277 النسار، 3530، اليرموك، الرياض 13251، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>+966556542888</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
+          <t>+966558350910</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alyarmok_clinic/?hl=en</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1+%D8%B3%D9%84%D8%B7%D8%A7%D9%86+%D9%84%D8%AC%D8%B1%D8%A7%D8%AD%D8%A9+%D9%88%D8%A3%D9%85%D8%B1%D8%A7%D8%B6+%D8%A7%D9%84%D9%82%D9%84%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15fec2df2cda0871:0x9d55e46bd935bfb!8m2!3d17.543864!4d44.2336467!16s%2Fg%2F12hppf85f!19sChIJcQjaLN_C_hUR-1uTvUZe1Qk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%82%D9%86%D8%A7%D8%B5+%D9%84%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fec3591534f357:0xbf60de9397d06881!8m2!3d17.547528!4d44.2177643!16s%2Fg%2F11f8730qzg!19sChIJV_M0FVnD_hURgWjQl5PeYL8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>مركز الأمير سلطان لجراحة وأمراض القلب</t>
+          <t>القناص للاسنان</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز، الخالدية، نجران 66262، المملكة العربية السعودية</t>
+          <t>شارع الملك سلمان بن عبد العزيز حي الضيافة، مقابل ممللكة الفطائر،، نجران 66251، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>+966175224116</t>
+          <t>+966175231098</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -7060,37 +7024,37 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%86%D8%A8%D8%B1%D8%A7%D8%B3+%D8%A7%D9%84%D8%A3%D9%85%D8%A7%D9%83%D9%86+%D9%84%D9%84%D8%AD%D8%AC%D8%A7%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fd7415b669986b1:0xb428c09192ae5eb5!8m2!3d28.4240254!4d45.9523016!16s%2Fg%2F11ly37xrt4!19sChIJsYaZZltB1z8RtV6ukpHAKLQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D9%88%D8%AC%D9%85%D8%A7%D9%84+%D9%84%D8%B7%D8%A8+%D8%A7%D9%84%D8%A5%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e3793de7590f5db:0x4d60b05be0384654!8m2!3d25.3470573!4d49.6145237!16s%2Fg%2F11dztsk_7d!19sChIJ2_WQdd6TNz4RVEY44FuwYE0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>مركز نبراس الأماكن للحجامة</t>
+          <t>مركز عناية وجمال لطب الإسنان</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>طريق الامير سلطان بن عبدالعزيز، حي الربوة، حفر الباطن 39954، المملكة العربية السعودية</t>
+          <t>8JW7+RRC الحوراء, طريق الملك عبدالله، الحوراء، الهفوف‎ 36365، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>+966530557189</t>
+          <t>+966135885664</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -7098,205 +7062,185 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%A7%D9%88%D8%AC%D8%A7%D9%85+%D8%A8%D8%B5%D9%81%D9%88%D9%89%E2%80%AD/data=!4m7!3m6!1s0x3e35fe98277a6217:0x4a471bfdaad5e1e8!8m2!3d26.5572088!4d49.9470816!16s%2Fg%2F11g6hz81m8!19sChIJF2J6J5j-NT4R6OHVqv0bR0o?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D9%8A%D9%86%D8%A8%D8%B9+%D8%A7%D9%84%D9%86%D8%AE%D9%84+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15b95b26862958b3:0xe511c547a8641550!8m2!3d24.3240214!4d38.438327!16s%2Fg%2F11cfhjt3c!19sChIJs1gphiZbuRURUBVkqEfFEeU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>مركز صحي الأوجام</t>
+          <t>مستشفى ينبع النخل العام</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4544، 6507، الأوجام، صفوى 32674، المملكة العربية السعودية</t>
+          <t>8CFQ+J84، ينبع النخل 46747، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>+966138160969</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>https://www.moh.gov.sa/Pages/Default.aspx</t>
-        </is>
-      </c>
+          <t>+966143541935</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%A8%D9%88%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f06b0983df59d:0xd9c902860301bdfc!8m2!3d24.6898919!4d46.7609272!16s%2Fg%2F1hhxc7wlb!19sChIJnfU9mLAGLz4R_L0BA4YCydk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D9%8A+%D8%A7%D9%84%D8%B1%D8%A7%D8%B4%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37be090086affb:0xcf77ba71a03069f7!8m2!3d25.45823!4d49.61208!16s%2Fg%2F11c55tn469!19sChIJ-6-GAAm-Nz4R92kwoHG6d88?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>مركز الربوة الطبي</t>
+          <t>مركز صحي الراشدية</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1.073</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2685 طريق عمر بن عبد العزيز الفرعي، 7868، الربوة، الرياض 12834، المملكة العربية السعودية</t>
+          <t>Al Amir Mishal Road, بو سحبل، المبرز 36345، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>+966920010327</t>
+          <t>+966135305801</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>http://rabwahmedical.com/</t>
+          <t>http://www.moh.gov.sa/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%B3%D9%85%D8%A7%D9%8A%D9%84%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2eff35666a2bb5:0x4ec8c8881e4738f1!8m2!3d24.8059223!4d46.7523398!16s%2Fg%2F11f612q46t!19sChIJtStqZjX_Lj4R8ThHHojIyE4?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AC%D8%AF%D8%A9+%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D9%85%D8%B1%D8%B6%D9%89+%D8%A7%D9%84%D8%B3%D9%83%D8%B1%D9%8A+%D9%88%D8%A7%D9%84%D8%B6%D8%BA%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x15c3c931cf35e1cf:0x9a469c1d4edce1f2!8m2!3d21.4458439!4d39.2073244!16s%2Fg%2F11b6f0gymx!19sChIJz-E1zzHJwxUR8uHcTh2cRpo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>عيادات سمايلز</t>
+          <t>مركز جدة لرعاية مرضى السكري والضغط</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3.065</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>محضه, قرطبة،، الرياض 13245، المملكة العربية السعودية</t>
+          <t>street، Almahjr، جدة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>+966920000610</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>https://taplink.cc/smilesclinic</t>
-        </is>
-      </c>
+          <t>+966126582593</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A3%D8%B3%D8%B1%D8%A9+%D8%A7%D9%84%D9%85%D8%AC%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f107b714a1001:0xca82579a5c639119!8m2!3d24.5709709!4d46.6375065!16s%2Fg%2F11cmhdr0_d!19sChIJARBKcXsQLz4RGZFjXJpXgso?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Shifa+Al+Munthaza+Medical+Center/data=!4m7!3m6!1s0x15c17d3a03182431:0xfaead98f995e7e2c!8m2!3d21.7442956!4d39.1905527!16s%2Fg%2F11sdy1h8nw!19sChIJMSQYAzp9wRURLH5emY_Z6vo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>مجمع أسرة المجد الطبي</t>
+          <t>Shifa Al Munthaza Medical Center</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2.021</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>شارع حمزة بن عبدالمطلب، الزهرة، الرياض 12986، المملكة العربية السعودية</t>
+          <t>Al Hamdaniya, الحمدانية، جدة 23743، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>+966920004463</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>https://osrtalmajd.com.sa/</t>
-        </is>
-      </c>
+          <t>+966122157404</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B7%D8%A8%D9%8A%D8%A8+%D8%A8%D9%84%D8%B3+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c17b98871727e3:0x5a731b6041e4b336!8m2!3d21.7894103!4d39.2015186!16s%2Fg%2F11srv8pcb9!19sChIJ4ycXh5h7wRURNrPkQWAbc1o?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%84%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15fca94105ca0d4f:0xb6ece654b41f4574!8m2!3d18.2206359!4d42.6929448!16s%2Fg%2F11vqy2kqvz!19sChIJTw3KBUGp_BURdEUftFTm7LY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>مركز طبيب بلس الطبي</t>
+          <t>لل</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>مستشفى</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>شارع ياسر بن عامر الكناني, 18, جدة 23762، المملكة العربية السعودية</t>
+          <t>رير، أبها 62217، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>+966592527800</t>
+          <t>+966570140444</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7304,37 +7248,37 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D9%86%D8%B5%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1572bbe61077433d:0x470bc6ddb94472ab!8m2!3d29.9641014!4d40.2110295!16s%2Fg%2F11c59qw6jg!19sChIJPUN3EOa7chURq3JEud3GC0c?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A3%D9%85%D9%84+%D8%B1%D8%A7%D8%A8%D8%BA%E2%80%AD/data=!4m7!3m6!1s0x15c096866e5d27bd:0xadbecae6d1ef7aaa!8m2!3d22.7851295!4d39.0337986!16s%2Fg%2F11c5g6b2bz!19sChIJvSddboaWwBURqnrv0ebKvq0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>مجمع كيان النصر الطبي</t>
+          <t>مستوصف أمل رابغ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>243</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>مركز صحي حي الشلهوب، الشلهوب، سكاكا 72341، المملكة العربية السعودية</t>
+          <t>الشارع العام، الصمد، رابغ 25753، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>+966920034780</t>
+          <t>+966532662666</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -7342,71 +7286,79 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A3%D8%B3%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%84%D9%81%D8%AD%D8%B5+%D8%A7%D9%84%D8%B9%D9%85%D8%A7%D9%84%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e98e8d2ca83f91:0xf91301fe61b2caf0!8m2!3d21.2389267!4d40.4109387!16s%2Fg%2F11cnx_2dql!19sChIJkT-oLI2O6RUR8MqyYf4BE_k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A3%D8%A8%D8%A7+%D8%A7%D9%84%D8%AE%D9%8A%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+-+%D8%B8%D9%87%D8%B1%D8%A9+%D9%84%D8%A8%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f1f1e14542b19:0x8ad43b19fe2dbfe3!8m2!3d24.6475005!4d46.5538188!16s%2Fg%2F11dftbb6dg!19sChIJGStUFB4fLz4R478t_hk71Io?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>مركز الأسرة الطبي لفحص العمالة</t>
+          <t>مجمع أبا الخيل الطبي - ظهرة لبن</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>1.279</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>267، أم العراد، الطائف 26512، المملكة العربية السعودية</t>
+          <t>ظهرة لبن، الرياض 13782، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>+966127488844</t>
+          <t>+966553003207</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://g.co/kgs/Ffkurg</t>
+          <t>https://aba-alkhailmedical.com.sa/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D9%87+%D9%82%D9%88%D8%A7%D8%B9%D8%AF+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85+%D9%84%D9%84%D8%B5%D9%8A%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fd16ed0d01b9:0xdd4e27784f165452!8m2!3d26.4206828!4d50.0887943!16s%2Fg%2F11rpv_j041!19sChIJuQEN7Rb9ST4RUlQWT3gnTt0?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Markaz+Taheel+Al+Shameel/data=!4m7!3m6!1s0x15bd955700332c9f:0x5d3789753bb195de!8m2!3d24.4261614!4d39.6546493!16s%2Fg%2F11c54c1hck!19sChIJnywzAFeVvRUR3pWxO3WJN10?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>مؤسسه قواعد الدمام للصيانات الطبية</t>
+          <t>Markaz Taheel Al Shameel</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+          <t>مستشفى</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>الإتصالات، الدمام 32257، المملكة العربية السعودية</t>
+          <t>8220, 2615، الروابي، 2615, المدينة المنورة 42381، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>+966508277232</t>
+          <t>+966148133402</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -7414,121 +7366,109 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%88%D8%B1%D9%88%D8%AF+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d4adf7ff117:0x5a090b86401a94e4!8m2!3d24.7256835!4d46.6695795!16s%2Fg%2F1hc8c_bvl!19sChIJF_F_30odLz4R5JQaQIYLCVo?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A8%D8%B4%D8%A7%D9%8A%D8%B1+%D8%AE%D8%A7%D9%84%D8%AF+%D8%A7%D9%84%D8%B9%D8%AA%D9%8A%D8%A8%D9%8A+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%28%D8%AA%D8%AE%D8%A7%D8%B7%D8%A8%29%E2%80%AD/data=!4m7!3m6!1s0x3e49ef34b2205891:0x2808221d330a4df0!8m2!3d26.2845714!4d50.1979214!16s%2Fg%2F11gmfyjt1q!19sChIJkVggsjTvST4R8E0KMx0iCCg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>مركز الورود الطبي</t>
+          <t>مركز بشاير خالد العتيبي للخدمات الطبية (تخاطب)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>شارع العليا، الورود، الرياض 12253، المملكة العربية السعودية</t>
+          <t>شارع الأمير حمود، مدينة العمال، الخبر 34443، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>+966114703355</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>http://www.alwarood.com/</t>
-        </is>
-      </c>
+          <t>+966534306923</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f08e2cb6c5c65:0xf38bba3efbd0dd0d!8m2!3d24.5913372!4d46.7766609!16s%2Fg%2F11bw2h463n!19sChIJZVxsy-IILz4RDd3Q-z66i_M?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%85%D8%AF%D8%A7%D8%B1%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%28+Madari+Medical+center+%29%E2%80%AD/data=!4m7!3m6!1s0x3e379100025cb8f5:0xc5ac9cd4b772a65f!8m2!3d25.3560821!4d49.5799899!16s%2Fg%2F11y4r2rbtj!19sChIJ9bhcAgCRNz4RX6Zyt9ScrMU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>مجمع العزيزية الطبي</t>
+          <t>مركز مداري الطبي ( Madari Medical center )</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>257</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>عبدالله بن محمد التلمساني، العزيزية، الرياض 14513، المملكة العربية السعودية</t>
+          <t>حي المربدية، FHDA8903، 8903 شارع الأمير مشهور بن عبد العزيز، 2097، الهفوف‎ 36362، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>+966114956127</t>
+          <t>+966548684111</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://twitter.com/Alaziziaclinic?s=09</t>
+          <t>http://madari.bio.link/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%83%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D9%85%D8%A8%D8%B1%D8%B2+-+Kayan+medical+complex+Mubarraz+branch%E2%80%AD/data=!4m7!3m6!1s0x3e3797cd9ab9dbb9:0xf1d27ca7fc2d792e!8m2!3d25.420063!4d49.5659619!16s%2Fg%2F1pv1ct79w!19sChIJudu5ms2XNz4RLnkt_Kd80vE?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Padi+Clinic+-+Dammam+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A8%D8%AF%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D9%81%D9%84+%D9%84%D8%B7%D8%A8+%D8%A3%D8%B3%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D8%A3%D8%B7%D9%81%D8%A7%D9%84+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49e5005f338691:0x9145831a11faa6!8m2!3d26.3715351!4d50.1240187!16s%2Fg%2F11yd5p52bn!19sChIJkYYzXwDlST4RpvoRGoNFkQA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>مجمع كيان الطبي فرع المبرز - Kayan medical complex Mubarraz branch</t>
+          <t>Padi Clinic - Dammam عيادات بداية الطفل لطب أسنان الأطفال الدمام</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>1.756</t>
-        </is>
-      </c>
+          <t>مستشفى</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5111 مكة، محاسن البلدية الأول، المبرز 36423 6439 31982، المملكة العربية السعودية</t>
+          <t>94CF+JJ6، هجر، الظهران 34253، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>+966920008898</t>
+          <t>+966549653630</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -7536,143 +7476,135 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%85%D8%AD%D8%A7%D9%83%D8%A7%D8%A9+%D9%88+%D8%AA%D8%AF%D8%B1%D9%8A%D8%A8+%D8%A7%D9%84%D9%85%D9%87%D8%A7%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D9%83%D9%84%D9%8A%D9%86%D9%8A%D9%83%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f573e13f71479:0xf63ef84952dda538!8m2!3d26.3725813!4d43.9395716!16s%2Fg%2F11pwy1g4hs!19sChIJeRT3Ez5XfxUROKXdUkn4PvY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e49fd72dd54309b:0xec1fb8991570db9!8m2!3d26.4034541!4d50.0387073!16s%2Fg%2F11cs1dlmdv!19sChIJmzBU3XL9ST4RuQ1XkYn7wQ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>مركز المحاكاة و تدريب المهارات الاكلينيكية</t>
+          <t>عيادات تجميل الاسنان</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>مركز طبي</t>
+          <t>مستشفى</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>طريق علي بن أبي طالب، بريدة 52384، المملكة العربية السعودية</t>
+          <t>6809 شارع أبو بكر الصديق، أحد، الدمام 32263، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>+966559676232</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>https://www.psccq.med.sa/</t>
-        </is>
-      </c>
+          <t>+966138180103</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%D8%8C%D8%AC%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3cfe28264bead:0x1bf97dfb5bb4cf91!8m2!3d21.5434089!4d39.166475!16s%2Fg%2F1tfv7cqm!19sChIJrb5kguLPwxURkc-0W_t9-Rs?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f07239cf6261b:0x46f0201ccbe5d1d6!8m2!3d24.6950378!4d46.7934062!16s%2Fg%2F11r8slhtc!19sChIJGyb2nCMHLz4R1tHlyxwg8EY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>مستشفى الملك فهد العام،جدة</t>
+          <t>مجمع الرعاية الذهبية الطبي</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>453</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>حي, 3447 المستشفى العام، الأندلس، JCAB8231، 8231، جدة 23325، المملكة العربية السعودية</t>
+          <t>،، شارع عبدالله بن عباس، الروابي، الرياض ،، الرياض المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>+966126606111</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>https://kfhjed.com/ph/</t>
-        </is>
-      </c>
+          <t>+966500384727</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D8%B0%D9%86%D8%A8+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x1581bbcc44c23d91:0x5339663bf912fb00!8m2!3d25.8461977!4d44.2073067!16s%2Fg%2F1hm1zljrq!19sChIJkT3CRMy7gRURAPsS-TtmOVM?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%B9%D8%B1%D8%A7%D8%A1+%D8%A8%D9%86%D9%8A+%D8%B8%D8%A8%D9%8A%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15ef448e7ae45013:0xef99d0b2421aa2b8!8m2!3d19.9747157!4d41.5065394!16s%2Fg%2F11cs4yr8qj!19sChIJE1Dkeo5E7xURuKIaQrLQme8?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>مستشفى المذنب العام</t>
+          <t>مركز الرعاية الصحية الأولية عراء بني ظبيان</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>شارع الامير فيصل بن بندر، الريان الشرقي، المذنب 56526، المملكة العربية السعودية</t>
+          <t>XGF4+XP، المرتفعات 65512، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>+966163422222</t>
+          <t>+966177261775</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>http://www.moh.gov.sa/</t>
+          <t>https://www.moh.gov.sa/Directorates/AlBaha/Pages/default.aspx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B4%D8%B0%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+%D8%A8%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f073c81017ee3:0x547acc40e284e5f7!8m2!3d24.6978125!4d46.7984375!16s%2Fg%2F11b62kfpx_!19sChIJ434BgTwHLz4R9-WE4kDMelQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B3%D9%86%D8%AF+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1991e910ab05:0xb88a7b6fd7e9431b!8m2!3d24.5836906!4d46.5829304!16s%2Fg%2F11bbs2zdq5!19sChIJBasQ6ZEZLz4RG0Pp1297irg?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>مجمع شذا الطبي العام بالروابي</t>
+          <t>مجمع سند الجزيرة الطبي</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7682,219 +7614,215 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>686</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>العدل، الروابي، الرياض 14216، المملكة العربية السعودية</t>
+          <t>طريق خديجة بنت خويلد، طويق، الرياض 14921، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>+966538439064</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>https://shathaclinics.sa/</t>
-        </is>
-      </c>
+          <t>+966555076023</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AD%D8%B3%D9%8A%D9%86%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1586e2a9f7b08377:0xa5bfce265f90e03e!8m2!3d24.5099392!4d44.39892!16s%2Fg%2F1hf83sx1r!19sChIJd4Ow96nihhURPuCQXybOv6U?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%B4%D9%85%D8%A7%D9%84+%D8%A7%D9%84%D8%B5%D9%81%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x157f59d3bf9a96bd:0xd78baabfc5c9caf2!8m2!3d26.3755143!4d43.9495646!16s%2Fg%2F1hdzlcb7_!19sChIJvZaav9NZfxUR8srJxb-qi9c?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>مجمع الحسيني الطبي</t>
+          <t>مركز الرعاية الصحية الأولية شمال الصفراء</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالعزيز، السلام، الدوادمي 17441، المملكة العربية السعودية</t>
+          <t>3006، 6676، 3006 6676، بريدة 52385، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>+966536777010</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr"/>
+          <t>+966163814186</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%AD%D8%AC%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbf237bcf8e3b:0xc3233cc49725206f!8m2!3d24.4910041!4d39.6098576!16s%2Fg%2F11fmz_m_f7!19sChIJO47PeyO_vRURbyAll8Q8I8M?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D9%81%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x157f58315b5b8605:0xbc877365413e8c51!8m2!3d26.36359!4d43.95718!16s%2Fg%2F1hd_lrqdj!19sChIJBYZbWzFYfxURUYw-QWVzh7w?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>حجامة المدينة</t>
+          <t>مركز الرعاية الصحية الأولية الصفراء</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>8635 سيد الشهداء، مسجد الدرع، 2882 42313، المملكة العربية السعودية</t>
+          <t>Unnamed Road، الصفراء، بريدة 52382، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>+966541219358</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr"/>
+          <t>+966163820618</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A8%D9%84%D8%B3%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3cf9b53832977:0x1536ae1f54adfa14!8m2!3d21.5104731!4d39.2016941!16s%2Fg%2F11ptm893jg!19sChIJdymDU5vPwxURFPqtVB-uNhU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B6%D8%A8%D8%A7%D8%A1+%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ac3052b49155f1:0x49c700e59712b3d5!8m2!3d27.3458776!4d35.7068351!16s%2Fg%2F1ptwh8d9d!19sChIJ8VWRtFIwrBUR1bMSl-UAx0k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>مركز بلسم الطبي</t>
+          <t>مستوصف ضباء الأهلي</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>طريق الملك عبدالله، الفيحاء، جدة 22241، المملكة العربية السعودية</t>
+          <t>8PW4+9P4، البراء، المقيطع، ضبا‎ 49312، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>+9668002480088</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>http://balsamcentre.com/</t>
-        </is>
-      </c>
+          <t>+966144320250</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A7%D8%B5%D9%8A%D9%81%D8%B1%D9%8A%D9%86+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%88%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbf466b59319f:0x669d9c46289c132d!8m2!3d24.4575232!4d39.5809182!16s%2Fg%2F11c1qwwyf6!19sChIJnzFZa0a_vRURLROcKEacnWY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B3%D8%A7%D8%AD%D9%84+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e690280aebf40d:0xc940b702fcd37dcd!8m2!3d19.129243!4d41.0883822!16s%2Fg%2F1tf2p8v6!19sChIJDfTrCiiQ5hURzX3T_AK3QMk?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>مركز الاصيفرين للرعاية الصحية الاولية</t>
+          <t>مستوصف الساحل الطبي</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4225 عبدالرحمن الحمصي, الوبرة، المدينة المنورة 42371، المملكة العربية السعودية</t>
+          <t>43HQ+M9R, Unnamed Road, الشرقية، القنفذة 28822، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>+966148280057</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966177324933</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49fc4a0d8419c3:0x3f25d1a205e9b2f8!8m2!3d26.4402362!4d50.0633093!16s%2Fg%2F11bzws41tv!19sChIJwxmEDUr8ST4R-LLpBaLRJT8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B7%D9%81%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D9%85%D9%88%D8%B0%D8%AC%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ace3c79909a1:0x565da44607c57071!8m2!3d28.3759975!4d36.5807557!16s%2Fg%2F11clwdgjx6!19sChIJoQmZx-OsqRURcXDFB0akXVY?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>شفاء الدمام</t>
+          <t>مجمع عيادات العطفين النموذجية</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>9334 3305 الملك سعود, الأثير، الدمام 32248، المملكة العربية السعودية</t>
+          <t>9HGJ+98R، طريق الإمام تركي بن عبدالله، العليا، تبوك 47911، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>+966138176806</t>
+          <t>+966144229192</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -7902,79 +7830,71 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%AD%D8%B3%D9%8A%D9%86+%D8%A7%D9%84%D8%B9%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e37969b5787c3bf:0xf0b5bb808509665a!8m2!3d25.393625!4d49.604293!16s%2Fg%2F11bwn5fmt2!19sChIJv8OHV5uWNz4RWmYJhYC7tfA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%84%D8%A7%D8%AC%D9%83%D9%85+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0074dee08621:0xec96e6ab499a600f!8m2!3d24.777268!4d46.8226784!16s%2Fg%2F11cn2mdmq9!19sChIJIYbg3nQALz4RD2CaSavmluw?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>مستشفى حسين العلي</t>
+          <t>مجمع علاجكم الطبي</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>390</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>الفاضلية، 2507 الملك فهد الهفوف،، الهفوف والمبرز 36364، المملكة العربية السعودية</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>+966118343401</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>http://alalimedical.com/</t>
-        </is>
-      </c>
+          <t>QRGF+W33، الامير بندر بن عبدالعزيز، الخليج، الرياض 13224، المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Dr+Hala+Essa+Binladen+Hospital+Parking/data=!4m7!3m6!1s0x15c3cfc958cfae21:0xf7d523cf7b8f8f93!8m2!3d21.5353157!4d39.1648854!16s%2Fg%2F11fjtw932k!19sChIJIa7PWMnPwxURk4-Pe88j1fc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AC%D9%85%D8%B9%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D9%81%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e35f9c737cd4bf5:0x6963650da853379a!8m2!3d26.6444812!4d49.9628166!16s%2Fg%2F1hf6n15rp!19sChIJ9UvNN8f5NT4RmjdTqA1lY2k?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dr Hala Essa Binladen Hospital Parking</t>
+          <t>مجمع عيادات جمعية الصفا الطبي</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>G5P7+4XC، ابراهيم ادهم، الحمراء، جدة 23323، المملكة العربية السعودية</t>
+          <t>JXV7+Q4W, Amr Bin Aouf, Street, صفوى 32827، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>+966126603332</t>
+          <t>+966136645252</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -7982,79 +7902,79 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A8%D9%84%D8%B3+%D8%A7%D9%84%D9%85%D8%AF%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c201b85b3bf811:0xf9f798038353cb34!8m2!3d21.4811931!4d39.9420023!16s%2Fg%2F11c2k9ltd6!19sChIJEfg7W7gBwhURNMtTgwOY9_k?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%B1%D9%8A%D8%A7%D9%86+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x157646b1d5d4d32f:0xa5b14339c1fd30be!8m2!3d27.5518824!4d41.6883622!16s%2Fg%2F11cphcwfr0!19sChIJL9PU1bFGdhURvjD9wTlDsaU?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>مجمع بلس المداوي الطبي العام</t>
+          <t>مستوصف ريان الشرق</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>351</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Unnamed Road، الراشدية، مكة 24269، المملكة العربية السعودية</t>
+          <t>4373 جدة، المنتزه الغربي، حائل 55427 7660 المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>+966125666693</t>
+          <t>+966165388888</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://pulsemudawi.com/category/EXyWRx</t>
+          <t>http://www.salamatgroup.com/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D8%B9%D8%AB%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%A7%D9%84%D9%8A%D8%B2%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2038015048f99:0x3c8fd7847dcb85d5!8m2!3d21.4293505!4d39.8590691!16s%2Fg%2F11f106py3_!19sChIJmY8EFYADwhUR1YXLfYTXjzw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%AA%D8%B9%D8%A7%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e4a0883b010e597:0xc04a38ef060eb536!8m2!3d26.7008152!4d50.0669019!16s%2Fg%2F1hhx93w_9!19sChIJl-UQsIMISj4RNrUOBu84SsA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>البعثة الطبية الماليزية</t>
+          <t>مجمع عيادات دار التعافي</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>5150، 6816، الروضة، مكة 24236، المملكة العربية السعودية</t>
+          <t>7602 شارع الملك خالد بن عبدالعزيز، 3345، رأس تنورة 32816، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>+966125563780</t>
+          <t>+966136671378</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -8062,37 +7982,37 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A3%D8%B7%D8%A8%D8%A7%D8%A1+%D8%A7%D9%84%D8%B9%D8%B5%D8%B1+%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c205004e19ea3f:0x55f9d89cfdba12f0!8m2!3d21.400325!4d39.8770267!16s%2Fg%2F11wqw9g__d!19sChIJP-oZTgAFwhUR8BK6_ZzY-VU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D9%86%D9%87%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d1216d0b1e71:0xcdd6e54e90537775!8m2!3d21.606197!4d39.2116734!16s%2Fg%2F11g4cs4pl4!19sChIJcR4LbSHRwxURdXdTkE7l1s0?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>مجمع أطباء العصر العزيزية</t>
+          <t>عيادات النهدي</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>866</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>CV2G+4R3، شارع الشيخ عبد الله ابن دهيش، الجامعة، مكة 24242، المملكة العربية السعودية</t>
+          <t>Ahmad، الخياط، Street، جدة 23545، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>+966565211131</t>
+          <t>+966920024673</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -8100,265 +8020,249 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%A8%D9%86%D9%89+%D8%A7%D9%84%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AE%D8%A7%D8%B1%D8%AC%D9%8A%D8%A9+%D9%81%D9%8A+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D9%81%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15bdb92ee4ae6371:0xbc6ca998fe6a518f!8m2!3d24.4928462!4d39.5615852!16s%2Fg%2F11f54m7wtc!19sChIJcWOu5C65vRURj1Fq_pipbLw?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D8%A7%D9%84%D8%A7%D9%88%D9%84%D9%8A%D8%A9+%D9%85%D8%B4%D8%B0%D9%88%D8%A8%D8%A9+%7C+Mashthoba+Primary+Healthcare+Center%E2%80%AD/data=!4m7!3m6!1s0x3fd61dc2dcd513e7:0x242eef3a211cb480!8m2!3d27.34033!4d45.02041!16s%2Fg%2F11c7sb8jll!19sChIJ5xPV3MId1j8RgLQcITrvLiQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>مبنى العيادات الخارجية في مستشفى الملك فهد</t>
+          <t>مركز الرعاية الصحية الاولية مشذوبة | Mashthoba Primary Healthcare Center</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>الجامعة، المدينة المنورة 42351، المملكة العربية السعودية</t>
+          <t>Unnamed Road 15793, مشذوبة المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>+966148462361</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
+          <t>+966164212038</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>http://www.moh.gov.sa/</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%A6%D9%84%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fab245e0d2d85:0xe82062fb1091fe08!8m2!3d24.8013096!4d46.8709594!16s%2Fg%2F1q67gyry7!19sChIJhS0NXiSrLz4RCP6REPtiIOg?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%AD%D9%86%D8%A7%D9%86+%D8%A7%D9%84%D9%85%D8%AA%D8%B7%D9%88%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+%D8%AD%D9%8A+%D8%A7%D9%84%D9%88%D8%B2%D9%8A%D8%B1%D9%8A%D8%A9+%28%D8%B7%D8%A8+%D9%86%D8%B3%D8%A7%D8%A1+%D9%88%D9%88%D9%84%D8%A7%D8%AF%D8%A9+-%D8%B7%D8%A8+%D8%A8%D8%A7%D8%B7%D9%86%D9%87+-%D8%B7%D8%A8+%D8%A7%D9%84%D8%B9%D8%B8%D8%A7%D9%85+-%D8%B7%D8%A8+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D9%86+-%D8%B7%D8%A8+%D8%B9%D8%A7%D9%85-+%D9%81%D8%AD%D8%B5+%D8%B9%D9%85%D8%A7%D9%84%D8%A9+-%D9%85%D8%AE%D8%AA%D8%A8%D8%B1%29%E2%80%AD/data=!4m7!3m6!1s0x15c3cc1260d48c6d:0xc07a7d51548943c4!8m2!3d21.4503544!4d39.2553739!16s%2Fg%2F11bzx71h5f!19sChIJbYzUYBLMwxURxEOJVFF9esA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>مستشفى عناية العائلة</t>
+          <t>مجمع الحنان المتطور الطبي العام حي الوزيرية (طب نساء وولادة -طب باطنه -طب العظام -طب الاسنان -طب عام- فحص عمالة -مختبر)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3.145</t>
+          <t>442</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>7HP8RV2C+G9، الرايه، Street، Area, Al Nadwa, الرياض 14813، المملكة العربية السعودية</t>
+          <t>الاستاد الرياضي، مدائن الفهد، جدة 22347، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>+966920024111</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://www.familycare.com.sa/</t>
-        </is>
-      </c>
+          <t>+966126010118</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A1+%D9%88%D8%A7%D9%84%D9%88%D9%84%D8%A7%D8%AF%D8%A9+%D9%88%D8%A7%D9%84%D8%A3%D8%B7%D9%81%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x156c11e57a41e73d:0xe656549498438b52!8m2!3d30.93564!4d41.0509049!16s%2Fg%2F11bxb47ymq!19sChIJPedBeuURbBURUotDmJRUVuY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%A3%D9%86%D8%AF%D9%84%D8%B3+%D8%A7%D9%84%D9%85%D8%B7%D9%88%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c20306857e1fd9:0x1af8a85f40ba7742!8m2!3d21.4624231!4d39.8533989!16s%2Fg%2F11bx4c_ryk!19sChIJ2R9-hQYDwhURQne6QF-o-Bo?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>مستشفى النساء والولادة والأطفال</t>
+          <t>مستوصف الأندلس المطور</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2948, عرعر 73212، المملكة العربية السعودية</t>
+          <t>FV63+X96، جبل النور، مكة 24238، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>+966146528111</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966125735685</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%B3%D9%84%D8%B7%D8%A7%D9%86+%D8%A8%D9%86+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%A5%D9%86%D8%B3%D8%A7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2eeaadda24b22f:0xd57cbe50de8eeea4!8m2!3d24.9889031!4d46.5246943!16s%2Fg%2F1tnpjgw_!19sChIJL7Ik2q3qLj4RpO6O3lC-fNU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B5%D9%81%D8%A7+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3ceda0f9305ad:0xa1f8614fcb796253!8m2!3d21.4647503!4d39.2017869!16s%2Fg%2F11c1r4j_kh!19sChIJrQWTD9rOwxURU2J5y09h-KE?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>مدينة سلطان بن عبدالعزيز للخدمات الإنسانية</t>
+          <t>مجمع صفا المدينة الطبي العام</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>طريق الملك فهد، بنبان، الرياض 13571، المملكة العربية السعودية</t>
+          <t>2397 الاذاعة، 6946، حي القريات، جدة 22334، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>+966115620000</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://sbahc.org.sa/</t>
-        </is>
-      </c>
+          <t>+966126377891</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D9%85%D8%AE%D8%AA%D8%A7%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A+%D8%A7%D9%84%D8%B9%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15ea2f724880f54d:0x794260d1850362cb!8m2!3d21.4363304!4d40.4886864!16s%2Fg%2F11cr_xrly3!19sChIJTfWASHIv6hURy2IDhdFgQnk?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B4%D9%81%D8%A7%D8%A1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x156466549e7cc1ff:0xd0e3e47589d4a876!8m2!3d29.6294516!4d43.5237014!16s%2Fg%2F11clvyvmns!19sChIJ_8F8nlRmZBURdqjUiXXk49A?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>مجمع المختار الطبي العام</t>
+          <t>مستوصف الشفاء الطبي</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2.333</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>26576 حي سلطانة، المملكة العربية السعودية</t>
+          <t>JGHF+QFP، المحمدية، رفحاء 76313، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>+966127271000</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://almokhtar-clinic.com/</t>
-        </is>
-      </c>
+          <t>+966146761454</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1+%D9%85%D8%B4%D8%A7%D8%B1%D9%8A+%D8%A8%D9%86+%D8%B3%D8%B9%D9%88%D8%AF+%D8%A7%D9%84%D8%B9%D8%A7%D9%85+%D8%A8%D8%A8%D9%84%D8%AC%D8%B1%D8%B4%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ef60ca18abda23:0x379c2a512281b42a!8m2!3d19.829495!4d41.622773!16s%2Fg%2F1hd_0vxb5!19sChIJI9qrGMpg7xURKrSBIlEqnDc?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%B5%D9%81+%D8%A7%D9%84%D8%B9%D8%B1%D8%AC%D8%A7%D9%86+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15a9ad170f344fb5:0x90b2be4599d18327!8m2!3d28.3897422!4d36.5847724!16s%2Fg%2F12m99br85!19sChIJtU80DxetqRURJ4PRmUW-spA?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>مستشفى الأمير مشاري بن سعود العام ببلجرشي</t>
+          <t>مستوصف العرجان الطبي</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>742</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>7815 طريق الملك عبدالعزيز، 3827، بلجرشي 65639، المملكة العربية السعودية</t>
+          <t>2 طريق الامير سلطان، العليا، تبوك 47911، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>+966177220100</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>http://www.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966144248555</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%89+%D8%A7%D9%84%D9%86%D9%88%D8%B1+%D8%A7%D9%84%D8%AA%D8%AE%D8%B5%D8%B5%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c205aba8ec033f:0x751c5a973ccdc100!8m2!3d21.3860901!4d39.8601409!16s%2Fg%2F1z3t29ry9!19sChIJPwPsqKsFwhURAMHNPJdaHHU?authuser=0&amp;hl=ar&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D8%B9%D9%8A%D8%A7%D8%AF%D8%A7%D8%AA+%D8%A2%D8%B3%D9%8A%D8%A7+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f10166f536843:0x32f97164fd02464!8m2!3d24.5682221!4d46.6568852!16s%2Fg%2F11cs90y_j_!19sChIJQ2hTbxYQLz4RZCTQTxaXLwM?authuser=0&amp;hl=ar&amp;rclk=1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>مستشفى النور التخصصي</t>
+          <t>مجمع عيادات آسيا الطبي</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>مستشفى</t>
+          <t>مستوصف عام</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8368,24 +8272,20 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>3rd Ring Rd, الهجرة، مكة 24241، المملكة العربية السعودية</t>
+          <t>4728 الطريق الدائري الجنوبي الفرعي، شبرا، الرياض 12988، المملكة العربية السعودية</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>+966125665000</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://nsh.moh.gov.sa/</t>
-        </is>
-      </c>
+          <t>+966509110085</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202" ht="25" customHeight="1">
       <c r="A202" s="2" t="inlineStr">
